--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>47000</v>
+        <v>190000</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180000</v>
+        <v>91000</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1205,11 +1205,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>FK Dobrudzha Dobrich</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -1228,7 +1236,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J17" t="n">
         <v>190000</v>
       </c>
@@ -1792,17 +1804,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Viborg FF</t>
+          <t>Ilirija 1911</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1823,7 +1835,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J30" t="n">
         <v>105000</v>
       </c>
@@ -2197,7 +2213,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2262,11 +2278,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AaB U19</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -2579,7 +2603,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J46" t="n">
         <v>360000</v>
       </c>
@@ -2632,7 +2660,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>580000</v>
+        <v>485000</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2804,7 +2832,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J51" t="n">
         <v>53000</v>
       </c>
@@ -2908,7 +2940,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>245000</v>
+        <v>195000</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3094,7 +3126,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>24000</v>
+        <v>49000</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3143,7 +3175,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>105000</v>
+        <v>180000</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3321,7 +3353,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>46000</v>
+        <v>68000</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3365,8 +3397,14 @@
           <t>31-01-2026</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3407,7 +3445,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>80000</v>
+        <v>53000</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3699,12 +3737,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>ADO Den Haag U21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>U21 KNVB, Divisie 1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4087,11 +4125,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4654,7 +4700,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>235000</v>
+        <v>260000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4705,7 +4751,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4756,7 +4802,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>230000</v>
+        <v>185000</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -5005,7 +5051,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>335000</v>
+        <v>310000</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5091,7 +5137,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>465000</v>
+        <v>620000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -5230,7 +5276,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>800000</v>
+        <v>745000</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -5375,11 +5421,11 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100000</v>
+        <v>2000000</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -5673,7 +5719,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>140000</v>
+        <v>185000</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5906,7 +5952,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -6092,7 +6138,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J125" t="n">
         <v>46000</v>
       </c>
@@ -6192,11 +6242,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+          <t>Türkiye U21</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>U21 EURO, Qualification, Group 9</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>Türkiye</t>
@@ -6262,7 +6320,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J129" t="n">
         <v>265000</v>
       </c>
@@ -6452,7 +6514,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>435000</v>
+        <v>385000</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -6859,7 +6921,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -6877,19 +6939,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Flyeralarm Admira II U23</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Regionalliga Ost</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Austria Amateur</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -6924,12 +6978,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FC Dinamo București</t>
+          <t>FC Metaloglobus București</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Liga II</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7004,7 +7058,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>54000</v>
+        <v>165000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -7043,7 +7097,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
       <c r="J146" t="n">
         <v>975000</v>
       </c>
@@ -7341,7 +7399,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J152" t="n">
         <v>105000</v>
       </c>
@@ -7492,7 +7554,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>920000</v>
+        <v>2300000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -7537,7 +7599,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>315000</v>
+        <v>395000</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -7607,7 +7669,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>31-05-2026</t>
+        </is>
+      </c>
       <c r="J158" t="n">
         <v>48000</v>
       </c>
@@ -7987,7 +8053,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
       <c r="J166" t="n">
         <v>97000</v>
       </c>
@@ -8236,7 +8306,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>31-05-2026</t>
+        </is>
+      </c>
       <c r="J171" t="n">
         <v>120000</v>
       </c>
@@ -8475,7 +8549,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J176" t="n">
         <v>420000</v>
       </c>
@@ -8616,7 +8694,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>31-05-2026</t>
+        </is>
+      </c>
       <c r="J179" t="n">
         <v>53000</v>
       </c>
@@ -8683,19 +8765,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidričevo</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -8959,7 +9033,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>215000</v>
+        <v>165000</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -9010,7 +9084,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>410000</v>
+        <v>620000</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -9141,7 +9215,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J190" t="n">
         <v>145000</v>
       </c>
@@ -9157,12 +9235,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FK Mladost GAT Novi Sad</t>
+          <t>FK Smederevo 1924</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Srpska Liga Vojvodina</t>
+          <t>Srpska Liga Zapad</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9188,11 +9266,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>81000</v>
       </c>
@@ -9245,7 +9319,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>310000</v>
+        <v>205000</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -9341,7 +9415,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
     </row>
@@ -9829,7 +9907,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J204" t="n">
         <v>120000</v>
       </c>
@@ -10340,11 +10422,11 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-11-2025</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>475000</v>
+        <v>425000</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -10429,8 +10511,14 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>79000</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10571,7 +10659,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>415000</v>
+        <v>830000</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -10696,11 +10784,11 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>30-11-2025</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>190000</v>
+        <v>280000</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -10782,7 +10870,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>435000</v>
+        <v>580000</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -10992,17 +11080,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>IFK Göteborg U19</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Sodra</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11122,7 +11210,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>30-11-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J233" t="n">
@@ -11177,7 +11265,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>460000</v>
+        <v>370000</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -11365,7 +11453,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -11694,8 +11782,14 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>181</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H246" t="inlineStr">
         <is>
           <t>2007</t>
@@ -11703,7 +11797,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J246" t="n">
@@ -11956,9 +12050,13 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
       <c r="J251" t="n">
-        <v>425000</v>
+        <v>320000</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -12009,7 +12107,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>205000</v>
+        <v>105000</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -12236,7 +12334,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J257" t="n">
         <v>97000</v>
       </c>
@@ -12673,7 +12775,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J266" t="n">
@@ -12820,7 +12922,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>19-06-2026</t>
+        </is>
+      </c>
       <c r="J269" t="n">
         <v>930000</v>
       </c>
@@ -12920,7 +13026,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J271" t="n">
@@ -13273,7 +13379,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>245000</v>
+        <v>340000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -13575,7 +13681,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J284" t="n">
@@ -13626,7 +13732,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J285" t="n">
@@ -13677,7 +13783,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>30-06-2029</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J286" t="n">
@@ -13924,7 +14030,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J291" t="n">
         <v>230000</v>
       </c>
@@ -14271,7 +14381,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J298" t="n">
         <v>515000</v>
       </c>
@@ -14624,7 +14738,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>290000</v>
+        <v>970000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -14816,7 +14930,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>145000</v>
+        <v>290000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -15116,7 +15230,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>195000</v>
+        <v>580000</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -16116,7 +16230,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>110000</v>
+        <v>330000</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -16351,7 +16465,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>310000</v>
+        <v>340000</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K340"/>
+  <dimension ref="A1:K366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,17 +731,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FK BSK Banja Luka</t>
+          <t>FK Laktaši</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prva Liga, Republic of Srpska</t>
+          <t>2. Liga RS - Zapad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Bosnia &amp;amp; Herzegovina Amateur</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FK Zemun</t>
+          <t>FK Laktaši</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>2. Liga RS - Zapad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Bosnia &amp;amp; Herzegovina Amateur</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2717,17 +2717,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lokomotiva Zagreb U19</t>
+          <t>Al-Sharjah</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Prva NL Juniori</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>19-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -4125,19 +4125,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Eredivisie</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -6242,19 +6234,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Türkiye U21</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>U21 EURO, Qualification, Group 9</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>Türkiye</t>
@@ -16044,17 +16028,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>SKN St. Pölten</t>
+          <t>Dundee United</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2. Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -16077,7 +16061,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J332" t="n">
@@ -16468,6 +16452,1238 @@
         <v>340000</v>
       </c>
       <c r="K340" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>KF Bylis</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Kategoria Superiore</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>188</v>
+      </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>215000</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>181</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Danmarksserien, Pulje 3</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Denmark Amateur</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>198</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>160000</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>FC Fredericia</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pärnu JK Vaprus</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>165</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>77000</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>180</v>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>205000</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>181</v>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>165000</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>SJK Akatemia</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Kakkonen, Group C</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>26000</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>KäPa</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Kakkonen, Group A</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>177</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>HJK Klubi 04</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Ykkosliiga</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>27000</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Dinamo Tbilisi</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>245000</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FC Ajka</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>NB II</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>27000</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>174</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>465000</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>260000</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>FC Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>175</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>49000</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>FC Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>FC Voluntari</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>220000</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>FK Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Prva Liga</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>184</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>260000</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>NŠ Mura</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>135000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>NK Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>175</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>NK Aluminij Kidričevo</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>188</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>160000</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>NK Aluminij Kidričevo</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>140000</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>BK Häcken</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>185</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>720000</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Superettan</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>193</v>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>520000</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Landskrona BoIS</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Superettan</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>740000</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Obolon Kyiv</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Persha Liga</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>190</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>310000</v>
+      </c>
+      <c r="K366" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -532,8 +532,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>315000</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>315 000</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -579,8 +581,10 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>165000</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -626,8 +630,10 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>155000</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -716,8 +722,10 @@
           <t>21-01-2026</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>190000</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -763,8 +771,10 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>130000</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>130 000</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -810,8 +820,10 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>97000</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -861,8 +873,10 @@
           <t>25-06-2026</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>91000</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>91 000</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -912,8 +926,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>215000</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -959,8 +975,10 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>105000</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -998,8 +1016,10 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>160000</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1049,8 +1069,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>290000</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1100,8 +1122,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>410000</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>410 000</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1139,8 +1163,10 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>430000</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>430 000</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1190,8 +1216,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>245000</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1241,8 +1269,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>190000</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1288,8 +1318,10 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>140000</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1339,8 +1371,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>620000</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1390,8 +1424,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>230000</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,8 +1502,10 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>53000</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1511,8 +1549,10 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>110000</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>110 000</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1562,8 +1602,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J24" t="n">
-        <v>145000</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1613,8 +1655,10 @@
           <t>30-07-2026</t>
         </is>
       </c>
-      <c r="J25" t="n">
-        <v>265000</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>265 000</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1664,8 +1708,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>160000</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1754,8 +1800,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J28" t="n">
-        <v>380000</v>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>380 000</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1840,8 +1888,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J30" t="n">
-        <v>105000</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1891,8 +1941,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>1200000</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1 200 000</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1942,8 +1994,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J32" t="n">
-        <v>385000</v>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2063,8 +2117,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J35" t="n">
-        <v>530000</v>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>530 000</t>
+        </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2110,8 +2166,10 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>70000</v>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>70 000</t>
+        </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2161,8 +2219,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J37" t="n">
-        <v>580000</v>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2212,8 +2272,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J38" t="n">
-        <v>340000</v>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>340 000</t>
+        </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2263,8 +2325,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J39" t="n">
-        <v>630000</v>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>630 000</t>
+        </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2359,8 +2423,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J41" t="n">
-        <v>2100000</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2 100 000</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2410,8 +2476,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J42" t="n">
-        <v>1100000</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1 100 000</t>
+        </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2457,8 +2525,10 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>145000</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2508,8 +2578,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J44" t="n">
-        <v>365000</v>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>365 000</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2559,8 +2631,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J45" t="n">
-        <v>825000</v>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>825 000</t>
+        </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2608,8 +2682,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J46" t="n">
-        <v>360000</v>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2659,8 +2735,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J47" t="n">
-        <v>485000</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2753,8 +2831,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J49" t="n">
-        <v>680000</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>680 000</t>
+        </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2837,8 +2917,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J51" t="n">
-        <v>53000</v>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2888,8 +2970,10 @@
           <t>19-06-2026</t>
         </is>
       </c>
-      <c r="J52" t="n">
-        <v>430000</v>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>430 000</t>
+        </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2939,8 +3023,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J53" t="n">
-        <v>195000</v>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2986,8 +3072,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J54" t="n">
-        <v>465000</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3074,8 +3162,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>265000</v>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>265 000</t>
+        </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3125,8 +3215,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J57" t="n">
-        <v>49000</v>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3174,8 +3266,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J58" t="n">
-        <v>180000</v>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>180 000</t>
+        </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3258,8 +3352,10 @@
           <t>31-12-2029</t>
         </is>
       </c>
-      <c r="J60" t="n">
-        <v>245000</v>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3303,8 +3399,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J61" t="n">
-        <v>53000</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3352,8 +3450,10 @@
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="J62" t="n">
-        <v>68000</v>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>68 000</t>
+        </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3397,8 +3497,10 @@
           <t>31-01-2026</t>
         </is>
       </c>
-      <c r="J63" t="n">
-        <v>23000</v>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>23 000</t>
+        </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3444,8 +3546,10 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>53000</v>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3491,8 +3595,10 @@
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>115000</v>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>115 000</t>
+        </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3538,8 +3644,10 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>380000</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>380 000</t>
+        </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3585,8 +3693,10 @@
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>205000</v>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3636,8 +3746,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J68" t="n">
-        <v>170000</v>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>170 000</t>
+        </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3687,8 +3799,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J69" t="n">
-        <v>52000</v>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3798,8 +3912,10 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>52000</v>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3849,8 +3965,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J73" t="n">
-        <v>480000</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>480 000</t>
+        </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3888,8 +4006,10 @@
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>140000</v>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3939,8 +4059,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J75" t="n">
-        <v>390000</v>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4025,8 +4147,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J77" t="n">
-        <v>325000</v>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>325 000</t>
+        </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4110,8 +4234,10 @@
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>81000</v>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>81 000</t>
+        </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4149,8 +4275,10 @@
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>465000</v>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4200,8 +4328,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J82" t="n">
-        <v>765000</v>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>765 000</t>
+        </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4247,8 +4377,10 @@
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>24000</v>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4419,8 +4551,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J89" t="n">
-        <v>140000</v>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4538,8 +4672,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J92" t="n">
-        <v>195000</v>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4589,8 +4725,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J93" t="n">
-        <v>655000</v>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>655 000</t>
+        </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4640,8 +4778,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J94" t="n">
-        <v>190000</v>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4691,8 +4831,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J95" t="n">
-        <v>260000</v>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4742,8 +4884,10 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J96" t="n">
-        <v>330000</v>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>330 000</t>
+        </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4793,8 +4937,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J97" t="n">
-        <v>185000</v>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4844,8 +4990,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J98" t="n">
-        <v>180000</v>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>180 000</t>
+        </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4895,8 +5043,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J99" t="n">
-        <v>530000</v>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>530 000</t>
+        </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4940,8 +5090,10 @@
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>260000</v>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4991,8 +5143,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J101" t="n">
-        <v>77000</v>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -5042,8 +5196,10 @@
           <t>31-07-2026</t>
         </is>
       </c>
-      <c r="J102" t="n">
-        <v>310000</v>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5128,8 +5284,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J104" t="n">
-        <v>620000</v>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -5177,8 +5335,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J105" t="n">
-        <v>260000</v>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -5216,8 +5376,10 @@
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47000</v>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -5267,8 +5429,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J107" t="n">
-        <v>745000</v>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>745 000</t>
+        </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -5314,8 +5478,10 @@
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>52000</v>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -5365,8 +5531,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J109" t="n">
-        <v>280000</v>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>280 000</t>
+        </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -5416,8 +5584,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J110" t="n">
-        <v>2000000</v>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2 000 000</t>
+        </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -5467,8 +5637,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J111" t="n">
-        <v>280000</v>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>280 000</t>
+        </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -5518,8 +5690,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J112" t="n">
-        <v>55000</v>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>55 000</t>
+        </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -5569,8 +5743,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J113" t="n">
-        <v>54000</v>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>54 000</t>
+        </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5616,8 +5792,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J114" t="n">
-        <v>310000</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5661,8 +5839,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J115" t="n">
-        <v>205000</v>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5710,8 +5890,10 @@
           <t>31-07-2026</t>
         </is>
       </c>
-      <c r="J116" t="n">
-        <v>185000</v>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5790,8 +5972,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J118" t="n">
-        <v>270000</v>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>270 000</t>
+        </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5841,8 +6025,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J119" t="n">
-        <v>145000</v>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5892,8 +6078,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J120" t="n">
-        <v>350000</v>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>350 000</t>
+        </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5943,8 +6131,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J121" t="n">
-        <v>310000</v>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -6033,8 +6223,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J123" t="n">
-        <v>48000</v>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>48 000</t>
+        </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -6084,8 +6276,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J124" t="n">
-        <v>520000</v>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>520 000</t>
+        </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -6135,8 +6329,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J125" t="n">
-        <v>46000</v>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>46 000</t>
+        </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -6186,8 +6382,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J126" t="n">
-        <v>1400000</v>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>1 400 000</t>
+        </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -6258,8 +6456,10 @@
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>370000</v>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -6309,8 +6509,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J129" t="n">
-        <v>265000</v>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>265 000</t>
+        </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -6360,8 +6562,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J130" t="n">
-        <v>260000</v>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -6446,8 +6650,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J132" t="n">
-        <v>160000</v>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -6497,8 +6703,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J133" t="n">
-        <v>385000</v>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -6544,8 +6752,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J134" t="n">
-        <v>92000</v>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>92 000</t>
+        </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -6583,8 +6793,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J135" t="n">
-        <v>80000</v>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>80 000</t>
+        </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -6634,8 +6846,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J136" t="n">
-        <v>640000</v>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>640 000</t>
+        </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -6681,8 +6895,10 @@
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>26000</v>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -6728,8 +6944,10 @@
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>68000</v>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>68 000</t>
+        </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -6767,8 +6985,10 @@
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>720000</v>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>720 000</t>
+        </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6818,8 +7038,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J140" t="n">
-        <v>1100000</v>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>1 100 000</t>
+        </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6857,8 +7079,10 @@
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>310000</v>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6908,8 +7132,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J142" t="n">
-        <v>340000</v>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>340 000</t>
+        </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6947,8 +7173,10 @@
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>24000</v>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6994,8 +7222,10 @@
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>130000</v>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>130 000</t>
+        </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -7041,8 +7271,10 @@
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>165000</v>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -7086,8 +7318,10 @@
           <t>30-06-2030</t>
         </is>
       </c>
-      <c r="J146" t="n">
-        <v>975000</v>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>975 000</t>
+        </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -7137,8 +7371,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J147" t="n">
-        <v>370000</v>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -7188,8 +7424,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J148" t="n">
-        <v>115000</v>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>115 000</t>
+        </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -7239,8 +7477,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J149" t="n">
-        <v>530000</v>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>530 000</t>
+        </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -7290,8 +7530,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J150" t="n">
-        <v>215000</v>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -7337,8 +7579,10 @@
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>195000</v>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -7388,8 +7632,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J152" t="n">
-        <v>105000</v>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -7439,8 +7685,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J153" t="n">
-        <v>140000</v>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -7486,8 +7734,10 @@
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>23000</v>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>23 000</t>
+        </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -7537,8 +7787,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J155" t="n">
-        <v>2300000</v>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2 300 000</t>
+        </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -7582,8 +7834,10 @@
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>395000</v>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>395 000</t>
+        </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -7658,8 +7912,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J158" t="n">
-        <v>48000</v>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>48 000</t>
+        </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -7709,8 +7965,10 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J159" t="n">
-        <v>140000</v>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -7760,8 +8018,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J160" t="n">
-        <v>160000</v>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -7856,8 +8116,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J162" t="n">
-        <v>385000</v>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -7952,8 +8214,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J164" t="n">
-        <v>47000</v>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -7991,8 +8255,10 @@
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>105000</v>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -8042,8 +8308,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J166" t="n">
-        <v>97000</v>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -8093,8 +8361,10 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J167" t="n">
-        <v>105000</v>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -8144,8 +8414,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J168" t="n">
-        <v>55000</v>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>55 000</t>
+        </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -8195,8 +8467,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J169" t="n">
-        <v>91000</v>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>91 000</t>
+        </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -8246,8 +8520,10 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J170" t="n">
-        <v>290000</v>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -8295,8 +8571,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J171" t="n">
-        <v>120000</v>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>120 000</t>
+        </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -8389,8 +8667,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J173" t="n">
-        <v>190000</v>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -8440,8 +8720,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J174" t="n">
-        <v>310000</v>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -8487,8 +8769,10 @@
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>49000</v>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -8538,8 +8822,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J176" t="n">
-        <v>420000</v>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>420 000</t>
+        </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -8632,8 +8918,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J178" t="n">
-        <v>47000</v>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -8683,8 +8971,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J179" t="n">
-        <v>53000</v>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -8734,8 +9024,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J180" t="n">
-        <v>290000</v>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -8773,8 +9065,10 @@
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>110000</v>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>110 000</t>
+        </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -8822,8 +9116,10 @@
           <t>31-05-2026</t>
         </is>
       </c>
-      <c r="J182" t="n">
-        <v>435000</v>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>435 000</t>
+        </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -8867,8 +9163,10 @@
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>77000</v>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -8914,8 +9212,10 @@
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>26000</v>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -8965,8 +9265,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J185" t="n">
-        <v>480000</v>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>480 000</t>
+        </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -9016,8 +9318,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J186" t="n">
-        <v>165000</v>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -9067,8 +9371,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J187" t="n">
-        <v>620000</v>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -9114,8 +9420,10 @@
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>77000</v>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -9168,19 +9476,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -9199,13 +9499,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
-      <c r="J190" t="n">
-        <v>145000</v>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -9251,8 +9549,10 @@
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>81000</v>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>81 000</t>
+        </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -9302,8 +9602,10 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J192" t="n">
-        <v>205000</v>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -9353,8 +9655,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J193" t="n">
-        <v>1600000</v>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>1 600 000</t>
+        </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -9449,8 +9753,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J195" t="n">
-        <v>630000</v>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>630 000</t>
+        </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -9500,8 +9806,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J196" t="n">
-        <v>880000</v>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>880 000</t>
+        </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -9543,8 +9851,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J197" t="n">
-        <v>54000</v>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>54 000</t>
+        </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -9594,8 +9904,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J198" t="n">
-        <v>52000</v>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -9645,8 +9957,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J199" t="n">
-        <v>370000</v>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -9696,8 +10010,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J200" t="n">
-        <v>330000</v>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>330 000</t>
+        </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -9743,8 +10059,10 @@
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>190000</v>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -9794,8 +10112,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J202" t="n">
-        <v>760000</v>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>760 000</t>
+        </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -9845,8 +10165,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J203" t="n">
-        <v>420000</v>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>420 000</t>
+        </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -9896,8 +10218,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J204" t="n">
-        <v>120000</v>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>120 000</t>
+        </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -9947,8 +10271,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J205" t="n">
-        <v>290000</v>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -9998,8 +10324,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J206" t="n">
-        <v>1100000</v>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>1 100 000</t>
+        </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -10047,8 +10375,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J207" t="n">
-        <v>415000</v>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>415 000</t>
+        </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -10143,8 +10473,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J209" t="n">
-        <v>370000</v>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -10194,8 +10526,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J210" t="n">
-        <v>195000</v>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -10317,8 +10651,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J213" t="n">
-        <v>210000</v>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -10409,8 +10745,10 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J215" t="n">
-        <v>425000</v>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>425 000</t>
+        </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -10495,8 +10833,10 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J217" t="n">
-        <v>79000</v>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>79 000</t>
+        </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -10546,8 +10886,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J218" t="n">
-        <v>360000</v>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -10597,8 +10939,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J219" t="n">
-        <v>160000</v>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -10642,8 +10986,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J220" t="n">
-        <v>830000</v>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>830 000</t>
+        </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -10771,8 +11117,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J223" t="n">
-        <v>280000</v>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>280 000</t>
+        </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -10853,8 +11201,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J225" t="n">
-        <v>580000</v>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -10900,8 +11250,10 @@
         </is>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>53000</v>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -10947,8 +11299,10 @@
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>680000</v>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>680 000</t>
+        </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -10998,8 +11352,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J228" t="n">
-        <v>475000</v>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>475 000</t>
+        </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -11049,8 +11405,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J229" t="n">
-        <v>1300000</v>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>1 300 000</t>
+        </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -11197,8 +11555,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J233" t="n">
-        <v>390000</v>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -11248,8 +11608,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J234" t="n">
-        <v>370000</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -11293,8 +11655,10 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J235" t="n">
-        <v>260000</v>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -11344,8 +11708,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J236" t="n">
-        <v>375000</v>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>375 000</t>
+        </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -11395,8 +11761,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J237" t="n">
-        <v>390000</v>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -11436,8 +11804,10 @@
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>270000</v>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>270 000</t>
+        </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -11551,8 +11921,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J241" t="n">
-        <v>245000</v>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -11602,8 +11974,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J242" t="n">
-        <v>485000</v>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -11733,8 +12107,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J245" t="n">
-        <v>515000</v>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>515 000</t>
+        </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -11784,8 +12160,10 @@
           <t>31-12-2029</t>
         </is>
       </c>
-      <c r="J246" t="n">
-        <v>185000</v>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -11835,8 +12213,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J247" t="n">
-        <v>97000</v>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -11886,8 +12266,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J248" t="n">
-        <v>440000</v>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>440 000</t>
+        </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -11937,8 +12319,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J249" t="n">
-        <v>210000</v>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -11988,8 +12372,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J250" t="n">
-        <v>1600000</v>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>1 600 000</t>
+        </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -12039,8 +12425,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J251" t="n">
-        <v>320000</v>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>320 000</t>
+        </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -12090,8 +12478,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J252" t="n">
-        <v>105000</v>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -12137,8 +12527,10 @@
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>655000</v>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>655 000</t>
+        </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -12188,8 +12580,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J254" t="n">
-        <v>465000</v>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -12272,8 +12666,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J256" t="n">
-        <v>765000</v>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>765 000</t>
+        </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -12323,8 +12719,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J257" t="n">
-        <v>97000</v>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -12374,8 +12772,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J258" t="n">
-        <v>1700000</v>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>1 700 000</t>
+        </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -12425,8 +12825,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J259" t="n">
-        <v>195000</v>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -12466,8 +12868,10 @@
         </is>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>960000</v>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>960 000</t>
+        </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -12517,8 +12921,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J261" t="n">
-        <v>660000</v>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>660 000</t>
+        </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -12568,8 +12974,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J262" t="n">
-        <v>485000</v>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -12609,8 +13017,10 @@
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>195000</v>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -12660,8 +13070,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J264" t="n">
-        <v>410000</v>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>410 000</t>
+        </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -12711,8 +13123,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J265" t="n">
-        <v>575000</v>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>575 000</t>
+        </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -12762,8 +13176,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J266" t="n">
-        <v>280000</v>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>280 000</t>
+        </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -12809,8 +13225,10 @@
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>240000</v>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>240 000</t>
+        </is>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -12860,8 +13278,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J268" t="n">
-        <v>580000</v>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -12911,8 +13331,10 @@
           <t>19-06-2026</t>
         </is>
       </c>
-      <c r="J269" t="n">
-        <v>930000</v>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>930 000</t>
+        </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -12962,8 +13384,10 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J270" t="n">
-        <v>245000</v>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -13013,8 +13437,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J271" t="n">
-        <v>720000</v>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>720 000</t>
+        </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -13064,8 +13490,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J272" t="n">
-        <v>725000</v>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>725 000</t>
+        </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -13115,8 +13543,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J273" t="n">
-        <v>735000</v>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>735 000</t>
+        </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -13164,8 +13594,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J274" t="n">
-        <v>370000</v>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -13215,8 +13647,10 @@
           <t>15-06-2027</t>
         </is>
       </c>
-      <c r="J275" t="n">
-        <v>945000</v>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>945 000</t>
+        </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -13264,8 +13698,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J276" t="n">
-        <v>580000</v>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -13311,8 +13747,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J277" t="n">
-        <v>425000</v>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>425 000</t>
+        </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -13362,8 +13800,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J278" t="n">
-        <v>340000</v>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>340 000</t>
+        </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -13413,8 +13853,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J279" t="n">
-        <v>835000</v>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>835 000</t>
+        </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -13464,8 +13906,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J280" t="n">
-        <v>160000</v>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -13515,8 +13959,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J281" t="n">
-        <v>545000</v>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>545 000</t>
+        </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -13566,8 +14012,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J282" t="n">
-        <v>430000</v>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>430 000</t>
+        </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -13617,8 +14065,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J283" t="n">
-        <v>620000</v>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -13668,8 +14118,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J284" t="n">
-        <v>865000</v>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>865 000</t>
+        </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -13719,8 +14171,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J285" t="n">
-        <v>910000</v>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>910 000</t>
+        </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -13770,8 +14224,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J286" t="n">
-        <v>730000</v>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>730 000</t>
+        </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -13821,8 +14277,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J287" t="n">
-        <v>430000</v>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>430 000</t>
+        </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -13870,8 +14328,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J288" t="n">
-        <v>185000</v>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -13921,8 +14381,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J289" t="n">
-        <v>410000</v>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>410 000</t>
+        </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -13968,8 +14430,10 @@
         </is>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>245000</v>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -14019,8 +14483,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J291" t="n">
-        <v>230000</v>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -14068,8 +14534,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J292" t="n">
-        <v>130000</v>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>130 000</t>
+        </is>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -14119,8 +14587,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J293" t="n">
-        <v>655000</v>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>655 000</t>
+        </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -14166,8 +14636,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J294" t="n">
-        <v>775000</v>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>775 000</t>
+        </is>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -14217,8 +14689,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J295" t="n">
-        <v>1000000</v>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>1 000 000</t>
+        </is>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -14268,8 +14742,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J296" t="n">
-        <v>610000</v>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>610 000</t>
+        </is>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -14319,8 +14795,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J297" t="n">
-        <v>260000</v>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -14370,8 +14848,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J298" t="n">
-        <v>515000</v>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>515 000</t>
+        </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -14421,8 +14901,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J299" t="n">
-        <v>905000</v>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>905 000</t>
+        </is>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -14472,8 +14954,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J300" t="n">
-        <v>2300000</v>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2 300 000</t>
+        </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -14523,8 +15007,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J301" t="n">
-        <v>320000</v>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>320 000</t>
+        </is>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -14570,8 +15056,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J302" t="n">
-        <v>470000</v>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>470 000</t>
+        </is>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -14621,8 +15109,10 @@
           <t>31-05-2028</t>
         </is>
       </c>
-      <c r="J303" t="n">
-        <v>950000</v>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>950 000</t>
+        </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -14672,8 +15162,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J304" t="n">
-        <v>535000</v>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>535 000</t>
+        </is>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -14721,8 +15213,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J305" t="n">
-        <v>970000</v>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>970 000</t>
+        </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -14770,8 +15264,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J306" t="n">
-        <v>195000</v>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -14817,8 +15313,10 @@
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>270000</v>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>270 000</t>
+        </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -14862,8 +15360,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J308" t="n">
-        <v>370000</v>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -14913,8 +15413,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J309" t="n">
-        <v>290000</v>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -14964,8 +15466,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J310" t="n">
-        <v>865000</v>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>865 000</t>
+        </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -15015,8 +15519,10 @@
           <t>31-12-2029</t>
         </is>
       </c>
-      <c r="J311" t="n">
-        <v>1000000</v>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>1 000 000</t>
+        </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -15064,8 +15570,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J312" t="n">
-        <v>480000</v>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>480 000</t>
+        </is>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -15115,8 +15623,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J313" t="n">
-        <v>385000</v>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -15166,8 +15676,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J314" t="n">
-        <v>875000</v>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>875 000</t>
+        </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -15213,8 +15725,10 @@
         </is>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>580000</v>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -15264,8 +15778,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J316" t="n">
-        <v>485000</v>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -15313,8 +15829,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J317" t="n">
-        <v>370000</v>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -15364,8 +15882,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J318" t="n">
-        <v>910000</v>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>910 000</t>
+        </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -15415,8 +15935,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J319" t="n">
-        <v>825000</v>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>825 000</t>
+        </is>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -15466,8 +15988,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J320" t="n">
-        <v>630000</v>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>630 000</t>
+        </is>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -15517,8 +16041,10 @@
           <t>24-07-2025</t>
         </is>
       </c>
-      <c r="J321" t="n">
-        <v>640000</v>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>640 000</t>
+        </is>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -15564,8 +16090,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J322" t="n">
-        <v>475000</v>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>475 000</t>
+        </is>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -15611,8 +16139,10 @@
         </is>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>205000</v>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -15660,8 +16190,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J324" t="n">
-        <v>140000</v>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -15711,8 +16243,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J325" t="n">
-        <v>155000</v>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -15762,8 +16296,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J326" t="n">
-        <v>565000</v>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>565 000</t>
+        </is>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -15809,8 +16345,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J327" t="n">
-        <v>460000</v>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>460 000</t>
+        </is>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -15860,8 +16398,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J328" t="n">
-        <v>385000</v>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -15911,8 +16451,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J329" t="n">
-        <v>95000</v>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>95 000</t>
+        </is>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -15962,8 +16504,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J330" t="n">
-        <v>370000</v>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>370 000</t>
+        </is>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -16013,8 +16557,10 @@
           <t>31-05-2029</t>
         </is>
       </c>
-      <c r="J331" t="n">
-        <v>620000</v>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -16064,8 +16610,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J332" t="n">
-        <v>215000</v>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -16115,8 +16663,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J333" t="n">
-        <v>47000</v>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -16166,8 +16716,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J334" t="n">
-        <v>380000</v>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>380 000</t>
+        </is>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -16213,8 +16765,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J335" t="n">
-        <v>330000</v>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>330 000</t>
+        </is>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -16264,8 +16818,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J336" t="n">
-        <v>165000</v>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -16311,8 +16867,10 @@
         </is>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>390000</v>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -16358,8 +16916,10 @@
         </is>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>380000</v>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>380 000</t>
+        </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -16401,8 +16961,10 @@
         </is>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>360000</v>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -16448,8 +17010,10 @@
         </is>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>340000</v>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>340 000</t>
+        </is>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -16491,8 +17055,10 @@
         </is>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>215000</v>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -16542,8 +17108,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J342" t="n">
-        <v>190000</v>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -16593,8 +17161,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J343" t="n">
-        <v>160000</v>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -16638,8 +17208,10 @@
         </is>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>23000</v>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>23 000</t>
+        </is>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -16689,8 +17261,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J345" t="n">
-        <v>77000</v>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -16736,8 +17310,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J346" t="n">
-        <v>205000</v>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -16783,8 +17359,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J347" t="n">
-        <v>165000</v>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -16828,8 +17406,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J348" t="n">
-        <v>26000</v>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -16879,8 +17459,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J349" t="n">
-        <v>24000</v>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -16924,8 +17506,10 @@
           <t>31-12-2026</t>
         </is>
       </c>
-      <c r="J350" t="n">
-        <v>27000</v>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>27 000</t>
+        </is>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -16969,8 +17553,10 @@
         </is>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>245000</v>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -17014,8 +17600,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J352" t="n">
-        <v>27000</v>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>27 000</t>
+        </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -17061,8 +17649,10 @@
         </is>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>465000</v>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -17106,8 +17696,10 @@
           <t>30-06-2029</t>
         </is>
       </c>
-      <c r="J354" t="n">
-        <v>260000</v>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -17157,8 +17749,10 @@
           <t>30-06-2028</t>
         </is>
       </c>
-      <c r="J355" t="n">
-        <v>49000</v>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -17202,8 +17796,10 @@
           <t>30-06-2030</t>
         </is>
       </c>
-      <c r="J356" t="n">
-        <v>270000</v>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>270 000</t>
+        </is>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -17243,8 +17839,10 @@
         </is>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>220000</v>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>220 000</t>
+        </is>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -17294,8 +17892,10 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J358" t="n">
-        <v>260000</v>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -17343,8 +17943,10 @@
           <t>31-12-2025</t>
         </is>
       </c>
-      <c r="J359" t="n">
-        <v>135000</v>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>135 000</t>
+        </is>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -17394,8 +17996,10 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J360" t="n">
-        <v>190000</v>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -17441,8 +18045,10 @@
         </is>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>160000</v>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -17486,8 +18092,10 @@
         </is>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>140000</v>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -17537,8 +18145,10 @@
           <t>31-12-2028</t>
         </is>
       </c>
-      <c r="J363" t="n">
-        <v>720000</v>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>720 000</t>
+        </is>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -17584,8 +18194,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J364" t="n">
-        <v>520000</v>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>520 000</t>
+        </is>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -17629,8 +18241,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J365" t="n">
-        <v>740000</v>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>740 000</t>
+        </is>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -17680,8 +18294,10 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J366" t="n">
-        <v>310000</v>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
       </c>
       <c r="K366" t="inlineStr">
         <is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -943,17 +943,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NK Travnik</t>
+          <t>NK Stupčanica Olovo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Prva Liga, Federacije BiH</t>
+          <t>2. Liga FBIH - Centar</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Bosnia &amp;amp; Herzegovina Amateur</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3763,19 +3763,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NK Varaždin</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1. NL</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>England</t>
@@ -3794,11 +3786,7 @@
           <t>2002</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>31-05-2026</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>52 000</t>
@@ -6614,17 +6602,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MZKS Arka II Gdynia</t>
+          <t>Pogoń Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Club Friendly Games</t>
+          <t>II Liga</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7702,19 +7690,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FK Metalac Gornji Milanovac</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -7878,12 +7858,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Beltinci Klima Tratnjek</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -11087,12 +11067,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Östers IF</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -11267,7 +11247,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11298,7 +11278,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
       <c r="J227" t="inlineStr">
         <is>
           <t>680 000</t>
@@ -15693,17 +15677,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Srpska Liga Zapad</t>
+          <t>Virsliga</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -2524,7 +2524,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>145 000</t>
@@ -4099,17 +4103,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SC Cambuur</t>
+          <t>SC Cambuur U21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Club Friendly Games</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4239,11 +4243,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4318,7 +4330,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>765 000</t>
+          <t>985 000</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5782,7 +5794,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>310 000</t>
+          <t>360 000</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6030,17 +6042,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sogndal IL</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6882,7 +6894,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr">
         <is>
           <t>26 000</t>
@@ -7137,11 +7153,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+          <t>Wiener Viktoria</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Regionalliga Ost</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Austria Amateur</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7520,7 +7544,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>215 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8211,11 +8235,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
+          <t>Brinje Grosuplje</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Club Friendly Games</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>Montenegro</t>
@@ -8611,17 +8643,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NK Nafta Lendava 1903</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2nd SNL</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8644,7 +8676,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12252,7 +12284,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>440 000</t>
+          <t>550 000</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -12373,17 +12405,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>1. FC Tatran Prešov</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Slovensky Pohar</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -12406,7 +12438,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12479,17 +12511,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12510,7 +12542,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J253" t="inlineStr">
         <is>
           <t>655 000</t>
@@ -14329,17 +14365,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Kalcer Radomlje</t>
+          <t>MKS Korona Kielce</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -14362,7 +14398,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14387,7 +14423,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Chance Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -14695,7 +14731,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Chance Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16076,7 +16112,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>475 000</t>
+          <t>660 000</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -928,7 +928,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>215 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -992,11 +992,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>FK Spartak Varna</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Treta Liga - SI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bulgaria Amateur</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -1101,7 +1109,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1286,12 +1294,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FC CSKA 1948 Sofia</t>
+          <t>FK Septemvri Sofia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Vtora Liga</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1317,7 +1325,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>140 000</t>
@@ -1885,7 +1897,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3974,11 +3986,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4274,7 +4294,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>465 000</t>
@@ -5281,7 +5305,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5332,12 +5356,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-07-2029</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>420 000</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5692,7 +5716,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>55 000</t>
+          <t>1 300 000</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -5809,7 +5833,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Fredrikstad FK</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6075,7 +6099,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6604,7 +6628,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
     </row>
@@ -7251,12 +7279,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj</t>
+          <t>Chindia Târgoviște</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7282,7 +7310,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
           <t>165 000</t>
@@ -7433,12 +7465,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>115 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -7506,17 +7538,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DAC 1904</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7608,12 +7640,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FC Spartak Trnava</t>
+          <t>OFK Dynamo Malženice</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Slovensky Pohar</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7855,11 +7887,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+          <t>Kottmannsdorf</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Club Friendly Games</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -7911,11 +7951,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>31-05-2026</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
           <t>48 000</t>
@@ -8137,19 +8173,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NŠ Mura U19</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>1. Slovenska Mladinska Liga</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>Genoa U20</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -8168,11 +8196,7 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
     </row>
@@ -8600,17 +8624,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana U19</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>UEFA Youth League, Knockout stage</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8631,7 +8655,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -9488,11 +9512,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+          <t>FK Vojvodina</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -9514,7 +9546,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -10232,7 +10264,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>145 000</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -10389,7 +10421,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>415 000</t>
+          <t>520 000</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -10487,7 +10519,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>370 000</t>
+          <t>460 000</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -10680,17 +10712,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Djurgårdens U19</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Norra</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10712,8 +10744,16 @@
         </is>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -10900,7 +10940,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>360 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -10986,7 +11026,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="n">
+        <v>177</v>
+      </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
@@ -11033,7 +11075,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="n">
+        <v>189</v>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>Left</t>
@@ -11312,7 +11356,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12193,7 +12237,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FC Aarau</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12458,19 +12502,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Premier League</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
           <t>Ukraine</t>
@@ -12489,11 +12525,7 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
           <t>105 000</t>
@@ -12703,17 +12735,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>FCI Levadia Tallinn</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Persha Liga</t>
+          <t>Premium Liiga</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12734,11 +12766,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>31-12-2027</t>
-        </is>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr">
         <is>
           <t>97 000</t>
@@ -13348,7 +13376,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>19-06-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13406,7 +13434,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>970 000</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -13560,7 +13588,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13598,7 +13626,9 @@
           <t>Mauritania</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr"/>
+      <c r="F274" t="n">
+        <v>171</v>
+      </c>
       <c r="G274" t="inlineStr">
         <is>
           <t>Left</t>
@@ -13616,7 +13646,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>370 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -13631,17 +13661,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NK Lokomotiva Zagreb</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -13664,7 +13694,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>15-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13875,7 +13905,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>835 000</t>
+          <t>1 000 000</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -14350,7 +14380,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -14609,7 +14639,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>655 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -14832,12 +14862,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SC Heerenveen</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -15029,7 +15059,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>320 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -15179,7 +15209,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15286,7 +15316,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -15397,7 +15427,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Hillerød</t>
+          <t>Hillerød Fodbold</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15744,7 +15774,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J315" t="inlineStr">
         <is>
           <t>580 000</t>
@@ -16025,12 +16059,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>FK Mladost Lučani U19</t>
+          <t>FK Mladost Lučani</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>U19 Serbian League</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -16063,7 +16097,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>640 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -16685,7 +16719,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>47 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -17068,7 +17102,11 @@
       <c r="F341" t="n">
         <v>188</v>
       </c>
-      <c r="G341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H341" t="inlineStr">
         <is>
           <t>2005</t>
@@ -17227,7 +17265,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J344" t="inlineStr">
         <is>
           <t>23 000</t>
@@ -17668,7 +17710,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J353" t="inlineStr">
         <is>
           <t>465 000</t>
@@ -17764,11 +17810,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>30-06-2028</t>
-        </is>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
           <t>49 000</t>
@@ -18064,7 +18106,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>31-05-2028</t>
+        </is>
+      </c>
       <c r="J361" t="inlineStr">
         <is>
           <t>160 000</t>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:K386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,12 +837,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FK Borac Banja Luka</t>
+          <t>FK Rudar Prijedor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25-06-2026</t>
+          <t>01-06-2026</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1347,17 +1347,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FK Septemvri Sofia</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2715,17 +2715,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NK Slaven Belupo</t>
+          <t>HŠK Zrinjski Mostar</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3779,11 +3779,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+          <t>NK Varaždin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1. NL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>England</t>
@@ -7693,17 +7701,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Slezský FC Opava</t>
+          <t>MFK Tatran Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FNL</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7724,11 +7732,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
           <t>140 000</t>
@@ -9077,11 +9081,19 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+          <t>Kety Emmi Bistrica</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Slovenia Cup</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -12986,17 +12998,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>KF Vllaznia</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Kategoria Superiore</t>
+          <t>Bulgarian Cup</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -14703,17 +14715,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Degerfors IF</t>
+          <t>FC Lugano</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -14736,7 +14748,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15229,17 +15241,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -15258,11 +15270,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
           <t>970 000</t>
@@ -15280,12 +15288,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Viborg FF</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -16090,11 +16098,7 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>24-07-2025</t>
-        </is>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
           <t>1 100 000</t>
@@ -16987,17 +16991,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MŠK Žilina</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -17014,7 +17018,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J339" t="inlineStr">
         <is>
           <t>360 000</t>
@@ -18228,17 +18236,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -18257,7 +18265,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18366,6 +18374,1008 @@
         </is>
       </c>
       <c r="K366" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>IF Elfsborg</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>194</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>530 000</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>IF Gnistan</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Ykkosliiga</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>186</v>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>46 000</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>FC Haka</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>183</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>96 000</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>186</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Diósgyőri VTK II</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>NB III Kelet</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>183</v>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Silkeborg IF</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>178</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>415 000</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>IFK Mariehamn</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>176</v>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>AFC Unirea 04 Slobozia</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>179</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Kristiansund BK</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>31-07-2028</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>375 000</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>178</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Sønderjyske Fodbold</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>190</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>176</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>180</v>
+      </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>FC Farul Constanța U19</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>U19 League</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Silkeborg IF</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>190</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>705 000</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>FK Novi Pazar</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>180</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>180</v>
+      </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Ranheim IL</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Faroe Islands</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>174</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>375 000</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Beroe Stara Zagora</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Parva Liga</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>185</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Odds BK</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>440 000</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,17 +1094,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Ninh Bình FC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bulgarian Cup</t>
+          <t>V-League 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11512,7 +11512,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>183</v>
+      </c>
       <c r="G230" t="inlineStr">
         <is>
           <t>Right</t>
@@ -13205,7 +13207,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -13408,17 +13410,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FK Borac Banja Luka</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>Trendyol Süper Lig</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13441,7 +13443,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>31-05-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13731,7 +13733,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -13782,7 +13784,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -14356,7 +14358,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FK Voždovac</t>
+          <t>FK Vojvodina</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14387,7 +14389,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15344,7 +15346,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15393,7 +15395,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15440,7 +15442,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15599,7 +15601,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -15862,7 +15864,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2nd Division</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -16170,7 +16172,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -17143,7 +17145,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -17249,7 +17251,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -18837,7 +18839,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -19380,6 +19382,274 @@
           <t>EUR</t>
         </is>
       </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>ETO FC Győr</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>NB II</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>175</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>IF Karlstad Fotboll</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>FH Hafnarfjörður</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Efsta deild</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>IFK Norrköping</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>171</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>NK Osijek U19</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Kvarnerska Rivijera</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>183</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -598,19 +598,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FC Alashkert</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fastex Premier League, Premier League</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
+          <t>Sardarapat FC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Armenia</t>
@@ -1109,7 +1101,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1294,12 +1286,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FK Septemvri Sofia</t>
+          <t>FC CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1490,11 +1482,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>FK Etar Veliko Tarnovo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -1560,7 +1560,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>110 000</t>
@@ -2748,7 +2752,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-05-2027</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3248,17 +3252,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KR Reykjavík</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Efsta deild</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3279,7 +3283,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3662,7 +3666,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>380 000</t>
+          <t>435 000</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4025,7 +4029,11 @@
           <t>2002</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>140 000</t>
@@ -5671,7 +5679,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>565 000</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -5859,8 +5867,14 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>181</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>2006</t>
@@ -6464,11 +6478,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+          <t>Türkiye U21</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>U21 EURO, Qualification, Group 9</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>Türkiye</t>
@@ -6688,7 +6710,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>105 000</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -6805,7 +6827,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Wisła II Kraków</t>
+          <t>Pogoń-Sokół Lubaczów</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6826,7 +6848,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7359,7 +7381,11 @@
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>2004</t>
@@ -7579,7 +7605,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7633,7 +7659,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -7791,17 +7817,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DAC 1904</t>
+          <t>FK Crvena zvezda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7824,7 +7850,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8294,7 +8320,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr">
         <is>
           <t>105 000</t>
@@ -8808,7 +8838,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr">
         <is>
           <t>49 000</t>
@@ -8975,19 +9009,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -9006,11 +9032,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>31-05-2026</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
           <t>53 000</t>
@@ -9655,7 +9677,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>31-05-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9924,19 +9946,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RFK Grafičar Beograd</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Prva Liga</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -9955,11 +9969,7 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
           <t>52 000</t>
@@ -11005,7 +11015,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>320 000</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -11173,7 +11183,9 @@
           <t>Ghana</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>185</v>
+      </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
@@ -11494,17 +11506,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>IFK Göteborg U19</t>
+          <t>IK Sirius</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11525,7 +11537,11 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
     </row>
@@ -11837,7 +11853,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>1 500 000</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -12065,19 +12081,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Örebro Syrianska BK</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Ettan, Norra</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>Sweden</t>
@@ -12092,7 +12100,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-11-2025</t>
         </is>
       </c>
       <c r="J243" t="inlineStr"/>
@@ -12284,7 +12292,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13033,7 +13041,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14615,17 +14623,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Tromsø IL</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -14648,7 +14656,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14876,12 +14884,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>SC Heerenveen</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -14962,7 +14970,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15321,7 +15329,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15372,7 +15380,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr"/>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J307" t="inlineStr">
         <is>
           <t>270 000</t>
@@ -16100,7 +16112,11 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J321" t="inlineStr">
         <is>
           <t>1 100 000</t>
@@ -16793,19 +16809,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>MFK Zemplín Michalovce</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Niké Liga</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+          <t>Genoa U20</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
           <t>Slovakia</t>
@@ -16820,11 +16828,7 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
           <t>330 000</t>
@@ -16978,7 +16982,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>380 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -17178,7 +17182,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -19420,7 +19424,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I387" t="inlineStr"/>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>390 000</t>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,12 +639,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NK Croatia Zmijavci</t>
+          <t>HAŠK Zagreb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. NL</t>
+          <t>3. HNL, Center</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8607,12 +8607,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana</t>
+          <t>Triglav Kranj</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9009,11 +9009,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+          <t>Kety Emmi Bistrica</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Slovenia Cup</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -11124,17 +11132,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Hammarby IF U19</t>
+          <t>IFK Haninge</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Norra</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -12418,17 +12426,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Zamalek SC</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Egyptian Premier League</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12451,7 +12459,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12912,17 +12920,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Dinamo City</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Kategoria e Pare, Group A</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -19658,6 +19666,260 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>FC Noah</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>170 000</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>185</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>IFK Göteborg</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>180</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>930 000</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Dinamo City</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Kategoria e Pare, Group A</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>FC Prishtina</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Kosovo FA Cup</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>54 000</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FC CSKA 1948 Sofia</t>
+          <t>FK Septemvri Sofia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Vtora Liga</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>SV Licht-Loidl Lafnitz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>Jong Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Tweede Divisie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>U19 Serbian League</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12373,17 +12373,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Nõmme Kalju</t>
+          <t>Royale Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>VriendenLoterij Eredivisie</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -19720,12 +19720,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -19751,21 +19751,9 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>26 000</t>
-        </is>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -765,7 +765,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>52 000</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1003,11 +1003,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FK Septemvri Sofia</t>
+          <t>FC CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BK Marienlyst</t>
+          <t>Hedensted IF</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3783,19 +3783,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NK Varaždin</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1. NL</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>England</t>
@@ -3945,12 +3937,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VriendenLoterij Eredivisie</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4464,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jong VVV-Venlo</t>
+          <t>VVV-Venlo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Reservecompetitie, 2nd Stage, Group A</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5118,7 +5110,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>177</v>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>Right</t>
@@ -7023,11 +7017,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -8636,11 +8638,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>31-05-2026</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
           <t>120 000</t>
@@ -8807,19 +8805,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>ND Slovan</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -9554,19 +9544,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -9777,7 +9759,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -10222,7 +10204,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10256,19 +10238,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FK Železničar Pančevo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Prva Liga</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -10287,11 +10261,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
           <t>145 000</t>
@@ -10686,8 +10656,16 @@
           <t>31-12-2027</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -10791,12 +10769,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Utsiktens BK</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ettan, Sodra</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -11989,17 +11967,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>IFK Värnamo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12106,11 +12084,7 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>30-11-2025</t>
-        </is>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
     </row>
@@ -12532,11 +12506,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+          <t>Nyva Vinnytsia</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Ukraine Cup</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>Ukraine</t>
@@ -12938,8 +12920,14 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>187</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H260" t="inlineStr">
         <is>
           <t>2003</t>
@@ -15826,12 +15814,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>VriendenLoterij Eredivisie</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -16397,12 +16385,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>ŁKS Łódź II</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>III Liga, Group 1</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -16658,17 +16646,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dundee United</t>
+          <t>SKN St. Pölten</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>2. Liga</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -16892,7 +16880,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>165 000</t>
+          <t>255 000</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -17054,17 +17042,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>FC Košice</t>
+          <t>FK Teplice</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2. Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -17152,17 +17140,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -17686,7 +17674,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>27 000</t>
+          <t>82 000</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -19720,12 +19708,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -19752,8 +19740,16 @@
         </is>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -19832,8 +19828,14 @@
           <t>Gambia</t>
         </is>
       </c>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr"/>
+      <c r="F396" t="n">
+        <v>173</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H396" t="inlineStr">
         <is>
           <t>2005</t>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4424,13 +4424,33 @@
       <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>VVV-Venlo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -19900,16 +19920,181 @@
       <c r="A398" t="n">
         <v>397</v>
       </c>
-      <c r="B398" t="inlineStr"/>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Hammarby Talang FF</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>182</v>
+      </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Viking FK</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>182</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>HŠK Zrinjski Mostar</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -1149,17 +1149,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FK Septemvri Sofia</t>
+          <t>FK Dunav Ruse</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Treta Liga - SI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgaria Amateur</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strømsgodset II</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3rd Division, Group 2</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sogndal IL</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>360 000</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5817,17 +5817,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wiener Viktoria</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Regionalliga Ost</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Austria Amateur</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7723,11 +7723,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+          <t>FK Vojvodina</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8417,11 +8425,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+          <t>FK Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Prva Liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8660,17 +8676,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BK Häcken U19</t>
+          <t>BK Häcken</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8895,12 +8911,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FC Stockholm Internazionale</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Division 2, Norra Svealand</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9036,17 +9052,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9138,12 +9154,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -9902,7 +9918,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>175</v>
+      </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
@@ -11427,17 +11445,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12830,12 +12848,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -14418,7 +14436,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>77 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -14467,7 +14485,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -16012,7 +16030,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>365 000</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -16027,12 +16045,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SJK Akatemia</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Kakkonen, Group C</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -16061,7 +16079,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>97 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -16259,7 +16277,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>195 000</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -16611,17 +16629,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NK Osijek U19</t>
+          <t>NK Osijek</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Kvarnerska Rivijera</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -17434,7 +17452,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>46 000</t>
+          <t>93 000</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K348"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>NK Karlovac 1919</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>3. HNL, Center</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jong VVV-Venlo</t>
+          <t>VVV-Venlo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Reservecompetitie, 2nd Stage, Group A</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7821,12 +7821,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>FK Kabel Novi Sad</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -9955,8 +9955,14 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>186</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H195" t="inlineStr">
         <is>
           <t>2005</t>
@@ -10130,7 +10136,11 @@
       <c r="F199" t="n">
         <v>190</v>
       </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr">
         <is>
           <t>2005</t>
@@ -10921,16 +10931,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>RAAL La Louvière</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Pro League</t>
+          <t>Beker van Belgie</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10940,11 +10950,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10953,13 +10963,17 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr"/>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>580 000</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -10970,30 +10984,30 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RAAL La Louvière</t>
+          <t>FC Lausanne-Sport</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Beker van Belgie</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -11002,17 +11016,17 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -11023,39 +11037,39 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FC Lausanne-Sport</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11065,7 +11079,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>1 100 000</t>
+          <t>945 000</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -11076,31 +11090,29 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>AC Horsens</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Kosovo</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v>185</v>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11108,7 +11120,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11118,7 +11130,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>945 000</t>
+          <t>580 000</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -11129,11 +11141,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>HB Køge</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11148,28 +11160,26 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>190</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>425 000</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -11180,32 +11190,36 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>HB Køge</t>
+          <t>AS Trenčín</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>190</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
+        <v>170</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H220" t="inlineStr">
         <is>
           <t>2005</t>
@@ -11213,12 +11227,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>425 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -11229,49 +11243,49 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AS Trenčín</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>340 000</t>
+          <t>1 000 000</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -11282,21 +11296,21 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>FC Lahti</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11305,7 +11319,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11319,12 +11333,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>1 000 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -11335,11 +11349,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FC Lahti</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11358,26 +11372,26 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>545 000</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -11388,34 +11402,34 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11425,12 +11439,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>545 000</t>
+          <t>430 000</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -11441,21 +11455,21 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>ETO FC Győr</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Pro League</t>
+          <t>NB II</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11464,7 +11478,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11483,7 +11497,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>430 000</t>
+          <t>620 000</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -11494,30 +11508,30 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ETO FC Győr</t>
+          <t>FC Rapid București</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11531,12 +11545,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>620 000</t>
+          <t>865 000</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -11547,11 +11561,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FC Rapid București</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11566,20 +11580,20 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -11589,7 +11603,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>865 000</t>
+          <t>730 000</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -11600,49 +11614,49 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FK Radnički Niš</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>730 000</t>
+          <t>430 000</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -11653,11 +11667,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FK Radnički Niš</t>
+          <t>FK Vojvodina</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11675,9 +11689,7 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="F229" t="n">
-        <v>187</v>
-      </c>
+      <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11690,12 +11702,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>430 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -11706,37 +11718,39 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>MKS Korona Kielce</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>184</v>
+      </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -11746,7 +11760,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -11757,49 +11771,45 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MKS Korona Kielce</t>
+          <t>MFK Karviná</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>30-06-2029</t>
-        </is>
-      </c>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -11810,30 +11820,30 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MFK Karviná</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11842,13 +11852,17 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr"/>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -11859,31 +11873,29 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Beltinci Klima Tratnjek</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>177</v>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11891,17 +11903,17 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -11912,29 +11924,31 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Beltinci Klima Tratnjek</t>
+          <t>Tromsø IL</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2nd SNL</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>174</v>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11942,17 +11956,17 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -11963,21 +11977,21 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Tromsø IL</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11986,26 +12000,22 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>174</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>31-12-2029</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>1 100 000</t>
+          <t>775 000</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -12016,45 +12026,49 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>FC Lugano</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
       <c r="F236" t="n">
-        <v>198</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>775 000</t>
+          <t>1 000 000</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -12065,30 +12079,30 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FC Lugano</t>
+          <t>MFK Karviná</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -12097,17 +12111,17 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>30-06-2030</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>1 000 000</t>
+          <t>610 000</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -12118,30 +12132,30 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MFK Karviná</t>
+          <t>Almere City FC</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -12150,17 +12164,13 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>610 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -12171,30 +12181,30 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almere City FC</t>
+          <t>ŠK Slovan Bratislava</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -12203,13 +12213,17 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>905 000</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -12220,26 +12234,26 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ŠK Slovan Bratislava</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -12257,12 +12271,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>30-06-2030</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>905 000</t>
+          <t>2 300 000</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -12273,16 +12287,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -12292,11 +12306,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -12305,7 +12319,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -12315,7 +12329,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>2 300 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -12326,36 +12340,32 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>193</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
           <t>2003</t>
@@ -12368,7 +12378,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>740 000</t>
+          <t>850 000</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -12379,45 +12389,49 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>FK Napredak Kruševac</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>178</v>
-      </c>
-      <c r="G243" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-05-2028</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>470 000</t>
+          <t>950 000</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -12428,30 +12442,30 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FK Napredak Kruševac</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Bulgarian Cup</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12460,17 +12474,17 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>31-05-2028</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>950 000</t>
+          <t>535 000</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -12481,31 +12495,29 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Viborg FF</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Bulgarian Cup</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="F245" t="n">
-        <v>187</v>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
           <t>Right</t>
@@ -12518,12 +12530,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>535 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -12534,16 +12546,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Viborg FF</t>
+          <t>HB Køge</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -12556,25 +12568,27 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>184</v>
+      </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>30-06-2030</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>340 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -12585,7 +12599,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -12607,27 +12621,25 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F247" t="n">
-        <v>184</v>
-      </c>
+      <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>370 000</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -12638,16 +12650,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>HB Køge</t>
+          <t>Hillerød Fodbold</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -12660,21 +12672,27 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>185</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>370 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -12685,30 +12703,30 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Hillerød Fodbold</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12717,7 +12735,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -12727,7 +12745,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>290 000</t>
+          <t>865 000</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -12738,30 +12756,30 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>FC Nordsjælland</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12770,17 +12788,17 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>865 000</t>
+          <t>1 000 000</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -12791,11 +12809,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FC Nordsjælland</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12810,30 +12828,28 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F251" t="n">
-        <v>182</v>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>31-12-2029</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1 000 000</t>
+          <t>480 000</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -12844,29 +12860,31 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Silkeborg IF</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>181</v>
+      </c>
       <c r="G252" t="inlineStr">
         <is>
           <t>Left</t>
@@ -12874,17 +12892,17 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>385 000</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -12895,30 +12913,30 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12932,12 +12950,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>385 000</t>
+          <t>875 000</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -12948,49 +12966,49 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Virsliga</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>875 000</t>
+          <t>580 000</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -13001,30 +13019,30 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Virsliga</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -13033,17 +13051,17 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>485 000</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -13054,31 +13072,29 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Boldklubben af 1893</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F256" t="n">
-        <v>168</v>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
           <t>Right</t>
@@ -13096,7 +13112,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>485 000</t>
+          <t>370 000</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -13107,29 +13123,31 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Boldklubben af 1893</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr"/>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>180</v>
+      </c>
       <c r="G257" t="inlineStr">
         <is>
           <t>Right</t>
@@ -13137,17 +13155,17 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>370 000</t>
+          <t>910 000</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -13158,30 +13176,30 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>Sønderjyske Fodbold</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -13190,17 +13208,17 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>910 000</t>
+          <t>825 000</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -13211,30 +13229,30 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sønderjyske Fodbold</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -13243,17 +13261,17 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>825 000</t>
+          <t>630 000</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -13264,30 +13282,30 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>FK Mladost Lučani</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -13296,17 +13314,17 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>630 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -13317,49 +13335,45 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FK Mladost Lučani</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>178</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1 100 000</t>
+          <t>660 000</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -13370,45 +13384,45 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>FC Helsingør</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>182</v>
-      </c>
-      <c r="G262" t="inlineStr"/>
+        <v>177</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>660 000</t>
+          <t>205 000</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -13419,45 +13433,47 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FC Helsingør</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Premium Liiga</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F263" t="n">
-        <v>177</v>
-      </c>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I263" t="inlineStr"/>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -13468,11 +13484,11 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>FCI Levadia Tallinn</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13487,28 +13503,30 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr"/>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>170</v>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -13519,21 +13537,21 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FCI Levadia Tallinn</t>
+          <t>SK Brann</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -13542,7 +13560,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13551,17 +13569,17 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>565 000</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -13572,36 +13590,32 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SK Brann</t>
+          <t>ŁKS Łódź II</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>III Liga, Group 1</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>187</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
           <t>2005</t>
@@ -13609,12 +13623,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>565 000</t>
+          <t>460 000</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -13625,32 +13639,36 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ŁKS Łódź II</t>
+          <t>MŠK Žilina</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>III Liga, Group 1</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>186</v>
-      </c>
-      <c r="G267" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H267" t="inlineStr">
         <is>
           <t>2005</t>
@@ -13658,12 +13676,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>460 000</t>
+          <t>385 000</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -13674,30 +13692,30 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MŠK Žilina</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13711,12 +13729,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>385 000</t>
+          <t>95 000</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -13727,11 +13745,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>NK Olimpija Ljubljana</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13750,7 +13768,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13764,12 +13782,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>30-06-2029</t>
+          <t>31-05-2029</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>95 000</t>
+          <t>620 000</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -13780,30 +13798,30 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13812,17 +13830,17 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>31-05-2029</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>620 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -13833,49 +13851,49 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>AS Trenčín</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>380 000</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -13886,30 +13904,30 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AS Trenčín</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13918,17 +13936,17 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>380 000</t>
+          <t>255 000</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -13939,11 +13957,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MFK Zemplín Michalovce</t>
+          <t>AS Trenčín</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13958,15 +13976,15 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -13974,14 +13992,10 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>255 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -13992,7 +14006,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -14015,7 +14029,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -14030,7 +14044,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -14041,45 +14055,45 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>AS Trenčín</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>176</v>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="I275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>360 000</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -14090,45 +14104,45 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>FK Teplice</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>189</v>
-      </c>
-      <c r="G276" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>30-06-2028</t>
-        </is>
-      </c>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr">
         <is>
-          <t>360 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -14139,45 +14153,45 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FK Teplice</t>
+          <t>KF Bylis</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>Kategoria Superiore</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr">
         <is>
-          <t>340 000</t>
+          <t>215 000</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -14188,34 +14202,34 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>KF Bylis</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Kategoria Superiore</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -14223,10 +14237,14 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>215 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -14237,21 +14255,21 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Danmarksserien, Pulje 3</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark Amateur</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -14260,7 +14278,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -14274,12 +14292,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -14290,21 +14308,21 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>FC Fredericia</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Danmarksserien, Pulje 3</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Denmark Amateur</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -14312,9 +14330,7 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F280" t="n">
-        <v>198</v>
-      </c>
+      <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
           <t>Right</t>
@@ -14322,17 +14338,17 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>23 000</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -14343,29 +14359,31 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FC Fredericia</t>
+          <t>Pärnu JK Vaprus</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Premium Liiga</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr"/>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>165</v>
+      </c>
       <c r="G281" t="inlineStr">
         <is>
           <t>Right</t>
@@ -14373,17 +14391,17 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>23 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -14394,49 +14412,45 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pärnu JK Vaprus</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>165</v>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -14447,11 +14461,11 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -14470,7 +14484,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
@@ -14480,12 +14494,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>275 000</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -14496,16 +14510,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>SJK Akatemia</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Kakkonen, Group C</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -14515,12 +14529,10 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F284" t="n">
-        <v>181</v>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
         <is>
@@ -14529,12 +14541,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>165 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -14545,16 +14557,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SJK Akatemia</t>
+          <t>KäPa</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Kakkonen, Group C</t>
+          <t>Kakkonen, Group A</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -14564,11 +14576,17 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>177</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H285" t="inlineStr">
         <is>
           <t>2006</t>
@@ -14576,12 +14594,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -14592,16 +14610,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>KäPa</t>
+          <t>HJK Klubi 04</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Kakkonen, Group A</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -14614,27 +14632,21 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="F286" t="n">
-        <v>177</v>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>27 000</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -14645,43 +14657,43 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>HJK Klubi 04</t>
+          <t>Dinamo Tbilisi</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Erovnuli Liga</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>27 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -14692,43 +14704,43 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi</t>
+          <t>FC Ajka</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>NB II</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>82 000</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -14739,43 +14751,49 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FC Ajka</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>174</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>82 000</t>
+          <t>465 000</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -14786,31 +14804,29 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F290" t="n">
-        <v>174</v>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
           <t>Right</t>
@@ -14818,17 +14834,17 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>465 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -14839,16 +14855,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FC Universitatea Cluj</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Liga II</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -14861,21 +14877,23 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
+      <c r="F291" t="n">
+        <v>175</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>30-06-2029</t>
-        </is>
-      </c>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -14886,7 +14904,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -14908,23 +14926,21 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F292" t="n">
-        <v>175</v>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr"/>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -14935,16 +14951,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -14961,17 +14977,13 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>30-06-2030</t>
-        </is>
-      </c>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -14982,39 +14994,49 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>FK Železničar Pančevo</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>184</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -15025,34 +15047,32 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FK Železničar Pančevo</t>
+          <t>NŠ Mura</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F295" t="n">
-        <v>184</v>
-      </c>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -15062,12 +15082,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>135 000</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -15078,11 +15098,11 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NŠ Mura</t>
+          <t>NK Tabor Sežana</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -15097,10 +15117,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr"/>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>175</v>
+      </c>
       <c r="G296" t="inlineStr">
         <is>
           <t>Right</t>
@@ -15113,12 +15135,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>135 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -15129,11 +15151,11 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NK Tabor Sežana</t>
+          <t>NK Aluminij Kidričevo</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -15148,11 +15170,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -15166,12 +15188,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-05-2028</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -15182,7 +15204,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -15205,7 +15227,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -15214,17 +15236,13 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>31-05-2028</t>
-        </is>
-      </c>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -15235,29 +15253,31 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidričevo</t>
+          <t>BK Häcken</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>185</v>
+      </c>
       <c r="G299" t="inlineStr">
         <is>
           <t>Right</t>
@@ -15265,13 +15285,17 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I299" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>720 000</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -15282,16 +15306,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>BK Häcken</t>
+          <t>Landskrona BoIS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -15301,30 +15325,24 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F300" t="n">
-        <v>185</v>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>720 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -15335,33 +15353,39 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Landskrona BoIS</t>
+          <t>Obolon Kyiv</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Persha Liga</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>190</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -15371,7 +15395,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>740 000</t>
+          <t>310 000</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -15382,30 +15406,30 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obolon Kyiv</t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Persha Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -15414,17 +15438,17 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>310 000</t>
+          <t>530 000</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -15435,49 +15459,45 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>IF Elfsborg</t>
+          <t>IF Gnistan</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>194</v>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>530 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -15488,16 +15508,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>IF Gnistan</t>
+          <t>FC Haka</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -15507,26 +15527,30 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>186</v>
-      </c>
-      <c r="G304" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>46 000</t>
+          <t>96 000</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -15537,30 +15561,30 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FC Haka</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15574,12 +15598,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>96 000</t>
+          <t>165 000</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -15590,126 +15614,122 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Diósgyőri VTK II</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>NB III Kelet</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>186</v>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>30-06-2029</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>165 000</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diósgyőri VTK II</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>NB III Kelet</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>183</v>
-      </c>
-      <c r="G307" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>415 000</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Silkeborg IF</t>
+          <t>IFK Mariehamn</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>178</v>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
           <t>2006</t>
@@ -15717,12 +15737,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>30-06-2029</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>415 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -15733,45 +15753,49 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>IFK Mariehamn</t>
+          <t>AFC Unirea 04 Slobozia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Liga II</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>176</v>
-      </c>
-      <c r="G309" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>310 000</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -15782,49 +15806,43 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>AFC Unirea 04 Slobozia</t>
+          <t>Kristiansund BK</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F310" t="n">
-        <v>179</v>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-07-2028</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>310 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -15835,43 +15853,49 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Kristiansund BK</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>178</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>31-07-2028</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -15882,16 +15906,16 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Sønderjyske Fodbold</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -15901,30 +15925,30 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -15935,49 +15959,49 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sønderjyske Fodbold</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>365 000</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -15988,11 +16012,11 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -16011,26 +16035,22 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>176</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>365 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -16041,45 +16061,39 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>FC Farul Constanța U19</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F315" t="n">
-        <v>180</v>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -16090,39 +16104,49 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FC Farul Constanța U19</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>190</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I316" t="inlineStr"/>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>705 000</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -16133,30 +16157,30 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Silkeborg IF</t>
+          <t>FK Novi Pazar</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -16170,12 +16194,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>705 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -16186,49 +16210,45 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F318" t="n">
         <v>180</v>
       </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>195 000</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -16239,45 +16259,49 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>180</v>
-      </c>
-      <c r="G319" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -16288,30 +16312,30 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Beroe Stara Zagora</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -16320,17 +16344,17 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>97 000</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -16341,49 +16365,45 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Beroe Stara Zagora</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>97 000</t>
+          <t>440 000</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -16394,39 +16414,49 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>ETO FC Győr</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>NB II</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>175</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H322" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>440 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -16437,36 +16467,30 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ETO FC Győr</t>
+          <t>IF Karlstad Fotboll</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="F323" t="n">
-        <v>175</v>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
           <t>2006</t>
@@ -16474,94 +16498,100 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>390 000</t>
-        </is>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>IF Karlstad Fotboll</t>
+          <t>FH Hafnarfjörður</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Efsta deild</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>30-11-2025</t>
-        </is>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>FH Hafnarfjörður</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Efsta deild</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>171</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr"/>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>465 000</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -16572,30 +16602,30 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>NK Osijek</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16604,32 +16634,24 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
-        </is>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>465 000</t>
-        </is>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NK Osijek</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16644,25 +16666,19 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F327" t="n">
-        <v>183</v>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J327" t="inlineStr"/>
@@ -16670,68 +16686,78 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Fastex Premier League, Premier League</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>170 000</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr"/>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>185</v>
+      </c>
       <c r="G329" t="inlineStr">
         <is>
           <t>Right</t>
@@ -16739,13 +16765,13 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -16756,34 +16782,34 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -16791,10 +16817,14 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>930 000</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -16805,34 +16835,34 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Dinamo City</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Kategoria e Pare, Group A</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -16840,14 +16870,10 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>31-12-2028</t>
-        </is>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>930 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -16858,45 +16884,39 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dinamo City</t>
+          <t>FC Prishtina</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Kategoria e Pare, Group A</t>
+          <t>Kosovo FA Cup</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="F332" t="n">
-        <v>173</v>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>54 000</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -16907,117 +16927,127 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>FC Prishtina</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Kosovo FA Cup</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>54 000</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr"/>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>182</v>
+      </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>30-11-2025</t>
-        </is>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Viking FK</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F335" t="n">
         <v>182</v>
       </c>
-      <c r="G335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -17027,7 +17057,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -17038,141 +17068,139 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Viking FK</t>
+          <t>HŠK Zrinjski Mostar</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F336" t="n">
-        <v>182</v>
-      </c>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>245 000</t>
-        </is>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>HŠK Zrinjski Mostar</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>WWIN Liga BiH</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>171</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>31-05-2028</t>
-        </is>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F338" t="n">
-        <v>171</v>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -17183,43 +17211,49 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>170</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>105 000</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -17230,49 +17264,43 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Flora Tallinn</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Premium Liiga</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F340" t="n">
-        <v>170</v>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>105 000</t>
+          <t>165 000</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -17283,88 +17311,84 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Flora Tallinn</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Fastex Premier League, Premier League</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>189</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>540 000</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>FC Noah</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Fastex Premier League, Premier League</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
+          <t>Harju Jalgpallikool U21</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="F342" t="n">
-        <v>189</v>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>540 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -17375,31 +17399,49 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool U21</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr"/>
+          <t>Narva Trans</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr"/>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>175</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H343" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>93 000</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -17410,96 +17452,92 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Narva Trans</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Premium Liiga</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
+          <t>Pärnu JK Vaprus U21</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="F344" t="n">
-        <v>175</v>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>93 000</t>
-        </is>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pärnu JK Vaprus U21</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+          <t>Paksi FC II</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>NB III Közép</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>179</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>93 000</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Paksi FC II</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>NB III Közép</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -17517,7 +17555,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -17525,10 +17563,14 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>93 000</t>
+          <t>52 000</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -17539,26 +17581,26 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17566,22 +17608,22 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>52 000</t>
+          <t>455 000</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -17592,16 +17634,16 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>IF Elfsborg</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -17614,30 +17656,591 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F348" t="n">
-        <v>179</v>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>413</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju U21</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Esiliiga</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>188</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>31-12-2027</t>
-        </is>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>455 000</t>
-        </is>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>414</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Ranheim IL</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>187</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>415</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>IFK Värnamo</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Superettan</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>416</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FC Nordsjælland</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>178</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>417</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Promotion League</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>190</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>418</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>FC Stade-Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Challenge League</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>183</v>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>419</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Urartu</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>173</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>94 000</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>420</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>FC Alashkert</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>179</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>421</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BKMA Yerevan</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>169</v>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>422</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>FC Noah</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>193</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>71 000</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>423</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>FC Ararat-Armenia</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Fastex Premier League, Premier League</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>186</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>265 000</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>424</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Noah Yerevan 2</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>425</v>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7476,19 +7476,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Brinje Grosuplje</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Club Friendly Games</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
+          <t>NK Vrhnika</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -13437,17 +13429,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>FK Pardubice</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -13466,11 +13458,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>31-12-2027</t>
-        </is>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
           <t>140 000</t>
@@ -14859,7 +14847,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -15208,17 +15196,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidričevo</t>
+          <t>Al-Riyadh</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>King's Cup</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -16708,7 +16696,9 @@
           <t>Armenia</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr"/>
+      <c r="F328" t="n">
+        <v>174</v>
+      </c>
       <c r="G328" t="inlineStr">
         <is>
           <t>Right</t>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6125,17 +6125,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AP Brera Strumica</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Macedonia Cup</t>
+          <t>FNL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6156,11 +6156,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
           <t>530 000</t>
@@ -6413,17 +6409,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>NK Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -12981,7 +12977,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -18232,6 +18228,216 @@
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
     </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>426</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>FK Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Prva Liga</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>186</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>427</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>172</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>670 000</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>428</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>FC Nordsjælland</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>31-12-2029</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>375 000</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>429</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>FK Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>170</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>215 000</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -881,7 +881,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FC CSKA 1948 Sofia</t>
+          <t>FK Septemvri Sofia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Vtora Liga</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>340 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2831,7 +2831,9 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>182</v>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
@@ -4104,12 +4106,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sandefjord Fotball II</t>
+          <t>Sandefjord Fotball</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3rd Division, Group 3</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4439,7 +4441,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4924,7 +4926,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>370 000</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5170,19 +5172,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Türkiye U21</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>U21 EURO, Qualification, Group 9</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>Türkiye</t>
@@ -5817,17 +5811,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Wiener Viktoria</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Regionalliga Ost</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Austria Amateur</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6276,11 +6270,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+          <t>FK Teleoptik Zemun</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Srpska Liga Beograd</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -6440,11 +6442,7 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>31-05-2026</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
           <t>385 000</t>
@@ -7127,19 +7125,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>ND Slovan</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -7161,8 +7151,16 @@
           <t>31-05-2027</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7809,12 +7807,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FK Kabel Novi Sad</t>
+          <t>FK Vojvodina</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7847,7 +7845,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>310 000</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -7900,7 +7898,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>1 600 000</t>
+          <t>3 200 000</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -7998,7 +7996,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>630 000</t>
+          <t>520 000</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -8051,7 +8049,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>880 000</t>
+          <t>1 100 000</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8111,11 +8109,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+          <t>FK Jedinstvo Stara Pazova</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Srpska Liga Vojvodina</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8345,7 +8351,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>760 000</t>
+          <t>715 000</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -8398,7 +8404,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>420 000</t>
+          <t>525 000</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -8413,19 +8419,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FK Železničar Pančevo</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Prva Liga</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8649,7 +8647,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>340 000</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -8735,7 +8733,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>77 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -9025,7 +9023,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>515 000</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -9142,12 +9140,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -9657,12 +9655,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ljungskile SK</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ettan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9795,7 +9793,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>1 500 000</t>
+          <t>1 900 000</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -9853,12 +9851,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>IF Brommapojkarna U19</t>
+          <t>BK Häcken U19</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Norra</t>
+          <t>U19 Allsvenskan, Sodra</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9916,8 +9914,16 @@
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11447,17 +11453,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ETO FC Győr</t>
+          <t>ETO Akadémia</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>GY-M-S Megye I. osztály</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Hungary Amateur</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11644,7 +11650,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>430 000</t>
+          <t>650 000</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -11695,7 +11701,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>46 000</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -12353,7 +12359,11 @@
       <c r="F242" t="n">
         <v>178</v>
       </c>
-      <c r="G242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H242" t="inlineStr">
         <is>
           <t>2003</t>
@@ -12419,7 +12429,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>950 000</t>
+          <t>1 400 000</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -13312,7 +13322,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1 100 000</t>
+          <t>1 600 000</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -13563,7 +13573,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>565 000</t>
+          <t>845 000</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -14710,7 +14720,9 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr"/>
+      <c r="F288" t="n">
+        <v>170</v>
+      </c>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr">
         <is>
@@ -15177,7 +15189,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -15379,7 +15391,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>310 000</t>
+          <t>620 000</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -16183,7 +16195,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>775 000</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -16285,7 +16297,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>430 000</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -16402,17 +16414,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ETO FC Győr</t>
+          <t>ETO Akadémia</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>GY-M-S Megye I. osztály</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Hungary Amateur</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -16590,17 +16602,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NK Osijek</t>
+          <t>NK Osijek U19</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -16757,7 +16769,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -17201,17 +17213,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -17239,7 +17251,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>105 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -17795,8 +17807,16 @@
           <t>30-11-2025</t>
         </is>
       </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -18272,7 +18292,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>97 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -18429,7 +18449,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FK Rudar Prijedor</t>
+          <t>FK Borac Banja Luka</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WWIN Liga BiH</t>
+          <t>Cup</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5172,11 +5172,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>Al-Okhdood</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>King's Cup</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>Türkiye</t>
@@ -7807,12 +7815,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>FK Kabel Novi Sad</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8419,11 +8427,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+          <t>FK Trayal Kruševac</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Kup Srbije</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -15200,30 +15216,30 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Al-Riyadh</t>
+          <t>BK Häcken</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>King's Cup</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -15232,13 +15248,17 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>720 000</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -15249,16 +15269,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BK Häcken</t>
+          <t>Landskrona BoIS</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -15268,30 +15288,24 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F299" t="n">
-        <v>185</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>720 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -15302,33 +15316,39 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Landskrona BoIS</t>
+          <t>Obolon Kyiv</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Persha Liga</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>190</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -15338,7 +15358,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>740 000</t>
+          <t>620 000</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -15349,30 +15369,30 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obolon Kyiv</t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Persha Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -15381,17 +15401,17 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>620 000</t>
+          <t>530 000</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -15402,49 +15422,45 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>IF Elfsborg</t>
+          <t>IF Gnistan</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>194</v>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>530 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -15455,16 +15471,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>IF Gnistan</t>
+          <t>FC Haka</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -15474,26 +15490,30 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>186</v>
-      </c>
-      <c r="G303" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>96 000</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -15504,30 +15524,30 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FC Haka</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -15541,12 +15561,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>96 000</t>
+          <t>165 000</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -15557,126 +15577,122 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Diósgyőri VTK II</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>NB III Kelet</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>186</v>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>30-06-2029</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>165 000</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Diósgyőri VTK II</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>NB III Kelet</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>183</v>
-      </c>
-      <c r="G306" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>415 000</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Silkeborg IF</t>
+          <t>IFK Mariehamn</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>178</v>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
         <is>
           <t>2006</t>
@@ -15684,12 +15700,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>30-06-2029</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>415 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -15700,45 +15716,49 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>IFK Mariehamn</t>
+          <t>AFC Unirea 04 Slobozia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Liga II</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>176</v>
-      </c>
-      <c r="G308" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>310 000</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -15749,49 +15769,43 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>AFC Unirea 04 Slobozia</t>
+          <t>Kristiansund BK</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F309" t="n">
-        <v>179</v>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-07-2028</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>310 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -15802,43 +15816,49 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Kristiansund BK</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>178</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>31-07-2028</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -15849,16 +15869,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Sønderjyske Fodbold</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15868,30 +15888,30 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -15902,49 +15922,49 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sønderjyske Fodbold</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>365 000</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -15955,11 +15975,11 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15978,26 +15998,22 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>176</v>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>365 000</t>
+          <t>49 000</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -16008,45 +16024,39 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>FC Farul Constanța U19</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F314" t="n">
-        <v>180</v>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -16057,39 +16067,49 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FC Farul Constanța U19</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>190</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I315" t="inlineStr"/>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>705 000</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -16100,30 +16120,30 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Silkeborg IF</t>
+          <t>FK Novi Pazar</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -16137,12 +16157,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>705 000</t>
+          <t>775 000</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -16153,49 +16173,45 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F317" t="n">
         <v>180</v>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>775 000</t>
+          <t>195 000</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -16206,45 +16222,49 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>180</v>
-      </c>
-      <c r="G318" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>430 000</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -16255,30 +16275,30 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Beroe Stara Zagora</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -16287,17 +16307,17 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>430 000</t>
+          <t>97 000</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -16308,49 +16328,45 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Beroe Stara Zagora</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>97 000</t>
+          <t>440 000</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -16361,34 +16377,34 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>ETO Akadémia</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>GY-M-S Megye I. osztály</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary Amateur</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16396,10 +16412,14 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>440 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -16410,36 +16430,30 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ETO Akadémia</t>
+          <t>IF Karlstad Fotboll</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>GY-M-S Megye I. osztály</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Hungary Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="F322" t="n">
-        <v>175</v>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
         <is>
           <t>2006</t>
@@ -16447,94 +16461,100 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>390 000</t>
-        </is>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>IF Karlstad Fotboll</t>
+          <t>FH Hafnarfjörður</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Efsta deild</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>30-11-2025</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FH Hafnarfjörður</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Efsta deild</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>171</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I324" t="inlineStr"/>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>49 000</t>
+          <t>465 000</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -16545,30 +16565,30 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>NK Osijek U19</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -16577,65 +16597,51 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
-        </is>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>465 000</t>
-        </is>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NK Osijek U19</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Kvarnerska Rivijera</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F326" t="n">
-        <v>183</v>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J326" t="inlineStr"/>
@@ -16643,69 +16649,79 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Fastex Premier League, Premier League</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>174</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>30-06-2026</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>170 000</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16714,13 +16730,13 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -16731,34 +16747,34 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -16766,10 +16782,14 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>930 000</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -16780,34 +16800,34 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Dinamo City</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Kategoria e Pare, Group A</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -16815,14 +16835,10 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>31-12-2028</t>
-        </is>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>930 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -16833,45 +16849,39 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Dinamo City</t>
+          <t>FC Prishtina</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Kategoria e Pare, Group A</t>
+          <t>Kosovo FA Cup</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="F331" t="n">
-        <v>173</v>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>54 000</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -16882,117 +16892,127 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>FC Prishtina</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Kosovo FA Cup</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>54 000</t>
-        </is>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr"/>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>182</v>
+      </c>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>30-11-2025</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Viking FK</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F334" t="n">
         <v>182</v>
       </c>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -17002,7 +17022,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -17013,145 +17033,139 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Viking FK</t>
+          <t>HŠK Zrinjski Mostar</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F335" t="n">
-        <v>182</v>
-      </c>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
-        </is>
-      </c>
-      <c r="J335" t="inlineStr">
-        <is>
-          <t>245 000</t>
-        </is>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>HŠK Zrinjski Mostar</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>WWIN Liga BiH</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>171</v>
+      </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>31-05-2028</t>
-        </is>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F337" t="n">
-        <v>171</v>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -17162,16 +17176,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -17181,24 +17195,30 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>170</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -17209,49 +17229,43 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Flora Tallinn</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Premium Liiga</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F339" t="n">
-        <v>170</v>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>260 000</t>
+          <t>165 000</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -17262,43 +17276,49 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Flora Tallinn</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Premium Liiga</t>
+          <t>Fastex Premier League, Premier League</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr"/>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>189</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>165 000</t>
+          <t>540 000</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -17309,49 +17329,31 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>FC Noah</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Fastex Premier League, Premier League</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
+          <t>Harju Jalgpallikool U21</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="F341" t="n">
-        <v>189</v>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>540 000</t>
+          <t>26 000</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -17362,31 +17364,49 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool U21</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr"/>
+          <t>Narva Trans</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>175</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H342" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>26 000</t>
+          <t>93 000</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -17397,96 +17417,92 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Narva Trans</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Premium Liiga</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
+          <t>Pärnu JK Vaprus U21</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="F343" t="n">
-        <v>175</v>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>93 000</t>
-        </is>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pärnu JK Vaprus U21</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr"/>
+          <t>Paksi FC II</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>NB III Közép</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>179</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>93 000</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Paksi FC II</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>NB III Közép</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -17504,7 +17520,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -17512,10 +17528,14 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>93 000</t>
+          <t>52 000</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -17526,26 +17546,26 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -17553,22 +17573,22 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>52 000</t>
+          <t>455 000</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -17579,16 +17599,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>IF Elfsborg</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -17601,27 +17621,21 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F347" t="n">
-        <v>179</v>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>455 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -17632,137 +17646,137 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Nõmme Kalju U21</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Esiliiga</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr"/>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>188</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nõmme Kalju U21</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Esiliiga</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>IFK Värnamo</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="F350" t="n">
-        <v>187</v>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-11-2025</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>105 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -17773,43 +17787,49 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>IFK Värnamo</t>
+          <t>FC Nordsjælland</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>178</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>30-11-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -17820,69 +17840,57 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>FC Nordsjælland</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Promotion League</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>30-06-2027</t>
-        </is>
-      </c>
-      <c r="J352" t="inlineStr">
-        <is>
-          <t>290 000</t>
-        </is>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>FC Stade-Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Promotion League</t>
+          <t>Challenge League</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17892,20 +17900,16 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>190</v>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I353" t="inlineStr"/>
@@ -17914,48 +17918,60 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>FC Stade-Lausanne-Ouchy</t>
+          <t>Urartu</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Challenge League</t>
+          <t>Fastex Premier League, Premier League</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>183</v>
-      </c>
-      <c r="G354" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>94 000</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Urartu</t>
+          <t>FC Alashkert</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17974,22 +17990,22 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>94 000</t>
+          <t>205 000</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -18000,11 +18016,11 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>FC Alashkert</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -18023,22 +18039,18 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>179</v>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>245 000</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -18049,11 +18061,11 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -18072,18 +18084,22 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>169</v>
-      </c>
-      <c r="G357" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>71 000</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -18094,11 +18110,11 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>FC Ararat-Armenia</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -18117,7 +18133,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -18126,13 +18142,17 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="I358" t="inlineStr"/>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>71 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -18143,31 +18163,21 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>FC Ararat-Armenia</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>Fastex Premier League, Premier League</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
+          <t>Noah Yerevan 2</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="F359" t="n">
-        <v>186</v>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
           <t>Right</t>
@@ -18175,17 +18185,13 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>30-06-2028</t>
-        </is>
-      </c>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>265 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -18196,84 +18202,98 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>424</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Noah Yerevan 2</t>
-        </is>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr"/>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr">
-        <is>
-          <t>24 000</t>
-        </is>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>425</v>
-      </c>
-      <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>426</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>FK Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Prva Liga</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>186</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>FK Železničar Pančevo</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -18282,17 +18302,17 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>290 000</t>
+          <t>670 000</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -18303,31 +18323,29 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>FC Nordsjælland</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F363" t="n">
-        <v>172</v>
-      </c>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr">
         <is>
           <t>Right</t>
@@ -18335,17 +18353,17 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>670 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -18356,21 +18374,21 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>FC Nordsjælland</t>
+          <t>FK Radnik Surdulica</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -18378,25 +18396,27 @@
           <t>Ghana</t>
         </is>
       </c>
-      <c r="F364" t="inlineStr"/>
+      <c r="F364" t="n">
+        <v>170</v>
+      </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>31-12-2029</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -18407,39 +18427,39 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>FK Radnik Surdulica</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -18449,7 +18469,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>265 000</t>
+          <t>90 000</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K365"/>
+  <dimension ref="A1:K386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2330,8 +2330,16 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2463,7 +2471,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>430 000</t>
+          <t>800 000</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3299,7 +3307,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>465 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3951,12 +3959,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pors Grenland</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3rd Division, Group 2</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4106,12 +4114,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sandefjord Fotball</t>
+          <t>Sandefjord Fotball II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4720,7 +4728,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>184</v>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>Right</t>
@@ -4806,7 +4816,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>186</v>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
@@ -5033,12 +5045,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hønefoss BK</t>
+          <t>Kristiansund BK</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3rd Division, Group 2</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5312,7 +5324,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>360 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5506,7 +5518,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>92 000</t>
+          <t>275 000</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6214,7 +6226,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6920,8 +6932,16 @@
           <t>30-06-2027</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7717,19 +7737,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8678,17 +8690,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BK Häcken</t>
+          <t>BK Häcken U19</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Sodra</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8782,7 +8794,9 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>188</v>
+      </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
@@ -8796,7 +8810,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -8948,7 +8962,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9141,7 +9155,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>830 000</t>
+          <t>930 000</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -9568,7 +9582,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1 300 000</t>
+          <t>1 600 000</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -10038,7 +10052,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>485 000</t>
+          <t>440 000</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -10428,7 +10442,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>655 000</t>
+          <t>840 000</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -10983,7 +10997,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>775 000</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -11089,7 +11103,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>945 000</t>
+          <t>660 000</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -11819,7 +11833,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>485 000</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -12078,7 +12092,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1 000 000</t>
+          <t>935 000</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -13179,7 +13193,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>910 000</t>
+          <t>730 000</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -13285,7 +13299,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>630 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -13850,7 +13864,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>420 000</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -13903,7 +13917,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>380 000</t>
+          <t>860 000</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -14005,7 +14019,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>420 000</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -14054,7 +14068,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -14254,7 +14268,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>565 000</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -14952,7 +14966,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>215 000</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -16632,7 +16646,9 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="n">
+        <v>185</v>
+      </c>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
@@ -16644,8 +16660,16 @@
           <t>30-06-2026</t>
         </is>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -16658,7 +16682,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -17285,7 +17309,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -17729,7 +17753,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>105 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -17927,7 +17951,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17956,7 +17980,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>94 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -17976,7 +18000,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -18005,7 +18029,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>260 000</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -18025,7 +18049,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -18070,7 +18094,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -18119,7 +18143,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Fastex Premier League, Premier League</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -18191,7 +18215,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>73 000</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -18478,6 +18502,967 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>431</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>FC Nõmme United</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Esiliiga</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>180</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>432</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Sogndal IL</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>433</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>186</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>600 000</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>434</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>FC Nõmme United</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Esiliiga</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>178</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>27 000</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>435</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>FC Nõmme United</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Esiliiga</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>436</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Flora Tallinn</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>437</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Lommel SK</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Challenger Pro League</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>178</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>655 000</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>438</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Flora Tallinn</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>178</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>27 000</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>439</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>DAC 1904</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>182</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>470 000</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>440</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Superettan</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>176</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>770 000</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>441</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora U19</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Cup</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>442</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Hødd IL</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 1</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>178</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>443</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Premium Liiga</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>180</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>82 000</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>444</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Djurgårdens IF</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>187</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>700 000</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>445</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Hammarby Talang FF</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>446</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>FC Stockholm Internazionale</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Division 2, Norra Svealand</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>447</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Hammarby IF</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>175</v>
+      </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>448</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>BK Olympic</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Division 2, Sodra Gotaland</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>449</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Hässleholms IF</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Division 2, Sodra Gotaland</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>187</v>
+      </c>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>450</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>IFK Stocksund</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Division 2, Norra Svealand</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>451</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>IFK Stocksund</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Division 2, Norra Svealand</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>190</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,17 +7645,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FK Napredak Kruševac</t>
+          <t>Baniyas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -13932,12 +13932,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Baník Ostrava B</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>MSFL</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -19463,6 +19463,157 @@
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>452</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Viborg FF</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>178</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>453</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>180</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>454</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Boldklubben af 1893</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>CampoBet 2 Division</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>190</v>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:K391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19614,6 +19614,88 @@
         </is>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>455</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Hammarby Talang FF</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>456</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Hammarby Talang FF</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>195 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>Pors Grenland</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Strømsgodset II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4629,7 +4629,11 @@
       <c r="F86" t="n">
         <v>187</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>2002</t>
@@ -4819,7 +4823,11 @@
       <c r="F90" t="n">
         <v>186</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>2006</t>
@@ -5045,12 +5053,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kristiansund BK</t>
+          <t>Hønefoss BK</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7683,7 +7691,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>620 000</t>
+          <t>930 000</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -7827,12 +7835,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FK Kabel Novi Sad</t>
+          <t>FK Vojvodina</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -9215,17 +9223,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AIK U19</t>
+          <t>IFK Haninge</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Norra</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9999,7 +10007,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>245 000</t>
+          <t>485 000</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -11050,7 +11058,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>1 100 000</t>
+          <t>1 600 000</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -13618,12 +13626,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ŁKS Łódź II</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>III Liga, Group 1</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -13652,7 +13660,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>460 000</t>
+          <t>325 000</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -13932,12 +13940,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Baník Ostrava B</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>MSFL</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -14104,7 +14112,11 @@
       <c r="F275" t="n">
         <v>189</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H275" t="inlineStr">
         <is>
           <t>2005</t>
@@ -15272,7 +15284,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>720 000</t>
+          <t>825 000</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -17559,7 +17571,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>52 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -17900,8 +17912,16 @@
         </is>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>475 000</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K391"/>
+  <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6196,17 +6196,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>DAC 1904</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Kup Srbije</t>
+          <t>Mozzart Kup Srbije</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8833,17 +8833,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Djurgårdens U19</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -10359,17 +10359,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1. FC Tatran Prešov</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Slovensky Pohar</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -16932,12 +16932,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -19716,6 +19716,39 @@
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
     </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>457</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Stal II Rzeszów</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>178</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -878,7 +878,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>210 000</t>
@@ -1023,7 +1027,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2418,7 +2422,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>53 000</t>
+          <t>105 000</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2466,7 +2470,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>19-06-2026</t>
+          <t>19-06-2028</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2568,7 +2572,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>30-06-2029</t>
+          <t>26-06-2026</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2998,7 +3002,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>53 000</t>
+          <t>27 000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3044,7 +3048,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>435 000</t>
@@ -4482,7 +4490,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4835,7 +4843,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2025</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5223,7 +5231,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>370 000</t>
@@ -6079,7 +6091,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>370 000</t>
+          <t>740 000</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6178,7 +6190,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>530 000</t>
@@ -6196,17 +6212,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DAC 1904</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6470,7 +6486,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>385 000</t>
@@ -6627,7 +6647,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7088,7 +7108,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7184,7 +7204,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>31-05-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7488,7 +7508,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
           <t>77 000</t>
@@ -7529,7 +7553,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>16-01-2026</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
           <t>26 000</t>
@@ -7686,7 +7714,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8292,7 +8320,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FK TSC Bačka Topola</t>
+          <t>FK Voždovac</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8311,7 +8339,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8323,7 +8351,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
           <t>190 000</t>
@@ -8478,7 +8510,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr">
         <is>
           <t>145 000</t>
@@ -8580,7 +8616,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-11-2025</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -8833,17 +8869,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Djurgårdens U19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Norra</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8970,7 +9006,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9107,14 +9143,10 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>320 000</t>
+          <t>535 000</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -9254,7 +9286,11 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
     </row>
@@ -9484,7 +9520,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>680 000</t>
+          <t>775 000</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -10002,7 +10038,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-05-2030</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10092,7 +10128,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
     </row>
@@ -10339,7 +10379,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10359,17 +10399,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>1. FC Tatran Prešov</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Slovensky Pohar</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10397,7 +10437,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>320 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -10737,7 +10777,11 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
           <t>960 000</t>
@@ -11471,7 +11515,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11940,7 +11984,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12153,7 +12197,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>610 000</t>
+          <t>850 000</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -12199,7 +12243,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr">
         <is>
           <t>260 000</t>
@@ -12409,7 +12457,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12776,7 +12824,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12829,7 +12877,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>31-12-2029</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12867,7 +12915,9 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>182</v>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
           <t>Left</t>
@@ -12880,7 +12930,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13249,7 +13299,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13606,7 +13656,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13708,7 +13758,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13973,7 +14023,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14024,7 +14074,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
       <c r="J273" t="inlineStr">
         <is>
           <t>420 000</t>
@@ -14073,7 +14127,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J274" t="inlineStr">
         <is>
           <t>490 000</t>
@@ -14175,7 +14233,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
       <c r="J276" t="inlineStr">
         <is>
           <t>340 000</t>
@@ -14275,7 +14337,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -14928,7 +14990,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J291" t="inlineStr">
         <is>
           <t>49 000</t>
@@ -15120,7 +15186,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15379,7 +15445,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15432,7 +15498,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>31-12-2028</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15481,7 +15547,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2027</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15831,7 +15897,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>750 000</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -15932,7 +15998,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>30-06-2028</t>
+          <t>30-06-2029</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16034,7 +16100,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>31-12-2026</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16183,7 +16249,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2027</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16669,7 +16735,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>01-07-2028</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16769,7 +16835,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
       <c r="J328" t="inlineStr">
         <is>
           <t>210 000</t>
@@ -16932,12 +17002,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -17296,7 +17366,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>31-12-2025</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17717,7 +17787,11 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
     </row>
@@ -18351,7 +18425,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2029</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -18402,7 +18476,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>31-12-2029</t>
+          <t>30-06-2030</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18600,7 +18674,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>31-12-2027</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -18947,7 +19021,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>30-06-2026</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19277,8 +19351,16 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
     </row>
@@ -19403,7 +19485,11 @@
           <t>2007</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
     </row>
@@ -19622,7 +19708,11 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
       <c r="J389" t="inlineStr">
         <is>
           <t>215 000</t>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19839,6 +19839,278 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
     </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>458</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Flamurtari FC</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Kategoria e Pare, Group B</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>177</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>515 000</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>459</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>FK Partizani</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Kategoria Superiore</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>165</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>320 000</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>460</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>KF Bylis</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Kategoria Superiore</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>461</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>FC Alashkert</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Fastex Premier League</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>49 000</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>462</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>FC Alashkert</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Fastex Premier League</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>182</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>160 000</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>463</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>BKMA Yerevan</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Fastex Premier League</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8373,19 +8373,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -8404,11 +8396,7 @@
           <t>2003</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>31-12-2025</t>
-        </is>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
           <t>715 000</t>
@@ -9686,12 +9674,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ljungskile SK</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ettan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -15030,7 +15018,9 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr"/>
+      <c r="F292" t="n">
+        <v>175</v>
+      </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
@@ -20111,6 +20101,866 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>464</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>K. Beerschot V.A.</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Pro League</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>320 000</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>465</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>NK Široki Brijeg</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>185</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>466</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>FK Željezničar</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>177</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>31-05-2026</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>467</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>FK Velež Mostar</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>195</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>29-12-2026</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>170 000</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>468</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>FK Radnik Bijeljina</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>469</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>FK Rudar Prijedor</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>WWIN Liga BiH</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>470</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Parva Liga</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>185</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>471</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Bulgarian Cup</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>181</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>260 000</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>472</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Parva Liga</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>473</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>FK Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Treta Liga - SI</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Bulgaria Amateur</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>187</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>220 000</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>474</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>FK Hebar Pazardzhik</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>180</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>68 000</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>475</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv U19</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Club Friendly Games</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>476</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>185</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>477</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>181</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>478</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>175</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>80 000</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>479</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>PFK Montana 1921</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>175</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>97 000</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>480</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>FC CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Parva Liga</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>180</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>481</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>FK Budućnost Podgorica</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>175</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K416"/>
+  <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>435 000</t>
+          <t>380 000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3104,7 +3104,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>205 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7845,7 +7845,11 @@
           <t>2004</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>81 000</t>
@@ -9178,7 +9182,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>30-06-2026</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9674,12 +9678,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Ljungskile SK</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ettan, Sodra</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -10666,7 +10670,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>97 000</t>
+          <t>195 000</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -13082,7 +13086,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -14487,7 +14491,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>205 000</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -14727,7 +14731,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>31-12-2026</t>
+          <t>31-12-2028</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16696,19 +16700,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>HNL</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -16723,11 +16719,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>01-07-2028</t>
-        </is>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
           <t>160 000</t>
@@ -17361,7 +17353,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>165 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -17502,7 +17494,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>93 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -20489,19 +20481,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>Parva Liga</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -20894,7 +20878,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>30-06-2027</t>
+          <t>30-06-2028</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20956,6 +20940,459 @@
         </is>
       </c>
       <c r="K416" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>482</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>483</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>AGF Aarhus U19</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Denmark U19 League</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Denmark Amateur</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>484</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>CampoBet 2 Division</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>180</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>23 000</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>458</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Odense Boldklub</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>179</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>47 000</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>459</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>180</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>26 000</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>460</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>79 000</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>461</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>30-06-2030</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>78 000</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>462</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>190</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>27 000</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>463</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>FC Nordsjælland</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>186</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>31-12-2029</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>96 000</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -21090,7 +21090,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K425"/>
+  <dimension ref="A1:K451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21398,6 +21398,1284 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>491</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>AC Horsens</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Betinia Liga</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>24 000</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>492</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>AC Horsens</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Betinia Liga</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>188</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>440 000</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>493</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Esbjerg FB</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Betinia Liga</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>180</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>55 000</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>494</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Hillerød Fodbold</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>CampoBet 2 Division</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>200</v>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>495</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>184</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>46 000</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>496</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>FC Dila Gori</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>176</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>497</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>FC Dila Gori</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Congo Republic</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>180</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>82 000</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>498</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>FC Dila Gori</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>187</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>30-12-2026</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>110 000</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>499</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>FC Gagra</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga 2</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>174</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>500</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>FC Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>166</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>11-01-2028</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>501</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>FC Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>502</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>FC Kolkheti-1913 Poti</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Liga 3</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>170</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>90 000</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>503</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>FC Iberia 1999</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Erovnuli Liga</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>183</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>77 000</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>504</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>NK Osijek</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>505</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>NK Osijek</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>184</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>31-01-2026</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>506</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>HNK Rijeka U19</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Kvarnerska Rivijera</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>187</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>54 000</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>507</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>HNK Rijeka</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>508</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>NK Slaven Belupo U19</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Prva NL Juniori</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>170</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>01-01-2027</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>509</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>NK Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>875 000</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>510</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>NK Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>230 000</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>511</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>205 000</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>512</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>NK Uljanik Pula</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>3. HNL, West</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>190</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>513</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>188</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>440 000</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>514</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>HNK Gorica</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>515</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>NK Rudeš</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>1. NL</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>190</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>15-06-2027</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>516</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>NK Jarun</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>3. HNL, Center</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>173</v>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8377,11 +8377,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+          <t>FK Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -22676,6 +22684,3695 @@
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
     </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>517</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>ÍA Akranes</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Efsta deild</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>16-11-2026</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>518</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>KR Reykjavík</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Efsta deild</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>186</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>31-12-2029</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>23 000</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>519</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Debreceni VSC</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>520</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Debreceni VSC</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>165</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>440 000</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>521</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Puskás Akadémia</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>183</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>420 000</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>522</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Sandefjord Fotball</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>523</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>524</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Tromsdalen UIL</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 1</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>525</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Tromsø IL</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>183</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>465 000</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>526</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Moss FK</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 1</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>180</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>620 000</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>527</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>20-07-2027</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>528</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Kristiansund BK</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>189</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>575 000</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>529</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Egersund</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 2</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>176</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>365 000</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>530</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Aalesunds FK</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>183</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>360 000</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>531</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Hødd IL</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 1</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>175</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>180 000</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>532</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Lillestrøm SK</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>193</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>800 000</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>533</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>175</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>31-12-2025</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>534</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>190</v>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>535</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Lillestrøm SK</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>178</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>540 000</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>536</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Lyn FK</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>3rd Division, Group 4</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>180</v>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>31-07-2028</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>275 000</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>537</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Lyn FK</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>3rd Division, Group 4</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>196</v>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>31-12-2027</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>190 000</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>538</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Odds BK</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Eliteserien</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>539</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Ranheim IL</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>1st Division</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>185</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>515 000</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>540</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy Sącz</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>I liga</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>188</v>
+      </c>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>195 000</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>541</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>III Liga, Group 3</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>194</v>
+      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>245 000</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>542</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>172</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>543</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>181</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>435 000</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>544</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>176</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>545</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>177</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>680 000</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>546</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>198</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>480 000</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>547</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Regionalliga Ost</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Austria Amateur</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>175</v>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>54 000</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>548</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>185</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>549</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>182</v>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>550</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>81 000</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>551</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>190</v>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>310 000</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>552</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>FC Dinamo București</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>192</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>553</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>FC Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>554</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>CFR 1907 Cluj</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>555</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>FC Botoșani</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>175</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>30-06-2029</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>130 000</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>556</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>FC Farul Constanța U19</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>U19 League</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>557</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>FC Voluntari</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Superliga</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>115 000</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>558</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Chindia Târgoviște U19</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>559</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Steaua București</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>560</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>DAC 1904</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>173</v>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>385 000</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>561</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>DAC 1904</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>390 000</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>562</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>DAC 1904</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>563</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>AS Trenčín</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>193</v>
+      </c>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>564</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>MFK Ružomberok</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>193</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>335 000</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>565</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>NK Maribor</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>31-05-2028</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>140 000</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>566</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>NK Bravo</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>182</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>485 000</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>567</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>NŠ Mura</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>31-05-2026</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>110 000</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>568</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>ND Primorje</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>2nd SNL</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>169</v>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>185 000</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>569</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>NK Olimpija Ljubljana</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>30-05-2028</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>570</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>NK Domžale</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>180</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>165 000</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>571</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>NK Domžale</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>195</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>52 000</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>572</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>NK Domžale U19</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>UEFA Youth League, Knockout stage</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>31-05-2027</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>573</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>ND Bilje</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>2nd SNL</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>187</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>01-08-2027</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>90 000</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>574</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>ND Slovan</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>188</v>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>575</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>FK Vojvodina</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>183</v>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>576</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>FK Čukarički</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>182</v>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>105 000</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>577</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>FK Čukarički</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>175</v>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>530 000</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>578</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>FK Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>179</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>660 000</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>579</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>FK TSC Bačka Topola U19</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>175</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>28-08-2026</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>580</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>FK TSC Bačka Topola</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>180</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>05-12-2027</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>410 000</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>581</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>FK Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>170</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>30-06-2027</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>265 000</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>582</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>IFK Göteborg</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>183</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>31-12-2026</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>53 000</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>583</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>IFK Norrköping</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>584</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Malmö FF</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>181</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>365 000</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>585</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Malmö FF</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>190</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>580 000</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>586</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Malmö FF</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>175</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>31-12-2028</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>520 000</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>587</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>FC Aarau</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Challenge League</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>180</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>290 000</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>588</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Challenge League</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>178</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>325 000</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>589</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Yverdon-Sport FC</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Challenge League</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>168</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>590</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Ukraine Cup</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>191</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>30-06-2028</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>980 000</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>591</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>FC Metalist Kharkiv</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Persha Liga</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>182</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>825 000</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -16708,11 +16708,19 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -20122,7 +20130,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F399" t="inlineStr"/>
@@ -22455,12 +22463,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NK Uljanik Pula</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>3. HNL, West</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -3468,17 +3468,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IK Oddevold</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Division 2, Norra Gotaland</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3497,9 +3497,7 @@
       <c r="H70" t="n">
         <v>2004</v>
       </c>
-      <c r="I70" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>330000</v>
       </c>
@@ -3957,12 +3955,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strømsgodset II</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3rd Division, Group 2</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5291,17 +5289,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wiener Viktoria</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Regionalliga Ost</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Austria Amateur</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7727,12 +7725,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Örebro Syrianska BK</t>
+          <t>Landskrona BoIS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7756,9 +7754,7 @@
       <c r="H165" t="n">
         <v>2006</v>
       </c>
-      <c r="I165" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
     </row>
@@ -7983,17 +7979,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Djurgårdens U19</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>U19 Allsvenskan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sweden Amateur</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8057,9 +8053,7 @@
       <c r="H172" t="n">
         <v>2006</v>
       </c>
-      <c r="I172" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>425000</v>
       </c>
@@ -8108,7 +8102,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8137,9 +8131,7 @@
       <c r="H174" t="n">
         <v>2005</v>
       </c>
-      <c r="I174" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>79000</v>
       </c>
@@ -8290,12 +8282,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8360,9 +8352,7 @@
       <c r="H179" t="n">
         <v>2007</v>
       </c>
-      <c r="I179" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
     </row>
@@ -8718,12 +8708,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ljungskile SK</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ettan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8745,9 +8735,7 @@
       <c r="H188" t="n">
         <v>2007</v>
       </c>
-      <c r="I188" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
     </row>
@@ -8804,12 +8792,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Husqvarna FF</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Division 2, Vastra Gotaland</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8827,9 +8815,7 @@
       <c r="H190" t="n">
         <v>2006</v>
       </c>
-      <c r="I190" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>260000</v>
       </c>
@@ -9099,11 +9085,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+          <t>Örebro Syrianska BK</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>Sweden</t>
@@ -9114,9 +9108,7 @@
       <c r="H197" t="n">
         <v>2006</v>
       </c>
-      <c r="I197" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
     </row>
@@ -13184,12 +13176,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>HJK Klubi 04</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Ykkosliiga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13792,7 +13784,7 @@
         <v>46752</v>
       </c>
       <c r="J299" t="n">
-        <v>740000</v>
+        <v>845000</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -14796,19 +14788,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>IF Karlstad Fotboll</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Ettan, Norra</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -14819,9 +14803,7 @@
       <c r="H322" t="n">
         <v>2006</v>
       </c>
-      <c r="I322" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
     </row>
@@ -15222,12 +15204,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15245,9 +15227,7 @@
       <c r="H332" t="n">
         <v>2006</v>
       </c>
-      <c r="I332" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
     </row>
@@ -15980,12 +15960,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>IFK Värnamo</t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -16003,9 +15983,7 @@
       <c r="H350" t="n">
         <v>2006</v>
       </c>
-      <c r="I350" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
         <v>230000</v>
       </c>
@@ -17268,12 +17246,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -17291,9 +17269,7 @@
       <c r="H380" t="n">
         <v>2008</v>
       </c>
-      <c r="I380" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
     </row>
@@ -17303,17 +17279,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>FC Stockholm Internazionale</t>
+          <t>International Allies</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Division 2, Norra Svealand</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -17326,9 +17302,7 @@
       <c r="H381" t="n">
         <v>2006</v>
       </c>
-      <c r="I381" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
     </row>
@@ -17416,12 +17390,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Hässleholms IF</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Division 2, Sodra Gotaland</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -17441,9 +17415,7 @@
       <c r="H384" t="n">
         <v>2007</v>
       </c>
-      <c r="I384" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
     </row>
@@ -17701,12 +17673,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -17724,9 +17696,7 @@
       <c r="H391" t="n">
         <v>2006</v>
       </c>
-      <c r="I391" s="2" t="n">
-        <v>45991</v>
-      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
     </row>
@@ -18859,12 +18829,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Odense Boldklub</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -19847,17 +19817,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>HNK Rijeka U19</t>
+          <t>HNK Rijeka</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Kvarnerska Rivijera</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -22727,17 +22697,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NK Domžale U19</t>
+          <t>NK Domžale</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>UEFA Youth League, Knockout stage</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K526"/>
+  <dimension ref="A1:K527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3468,17 +3468,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>IK Oddevold</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Division 2, Norra Gotaland</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Strømsgodset II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4489,7 +4489,7 @@
         <v>47483</v>
       </c>
       <c r="J92" t="n">
-        <v>370000</v>
+        <v>560000</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -5289,17 +5289,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Wiener Viktoria</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Regionalliga Ost</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Austria Amateur</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5960,7 +5960,7 @@
         <v>46568</v>
       </c>
       <c r="J125" t="n">
-        <v>105000</v>
+        <v>180000</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>120000</v>
+        <v>96000</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>53000</v>
+        <v>27000</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6606,19 +6606,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -6635,9 +6627,7 @@
       <c r="H140" t="n">
         <v>2003</v>
       </c>
-      <c r="I140" s="2" t="n">
-        <v>46173</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>290000</v>
       </c>
@@ -6774,7 +6764,7 @@
         <v>46203</v>
       </c>
       <c r="J143" t="n">
-        <v>77000</v>
+        <v>105000</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6907,7 +6897,7 @@
         <v>46203</v>
       </c>
       <c r="J146" t="n">
-        <v>165000</v>
+        <v>140000</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6954,7 +6944,7 @@
         <v>46203</v>
       </c>
       <c r="J147" t="n">
-        <v>930000</v>
+        <v>875000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -7570,7 +7560,9 @@
       <c r="H161" t="n">
         <v>2003</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J161" t="n">
         <v>715000</v>
       </c>
@@ -7754,7 +7746,9 @@
       <c r="H165" t="n">
         <v>2006</v>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
     </row>
@@ -7922,7 +7916,7 @@
         <v>46752</v>
       </c>
       <c r="J169" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7965,7 +7959,7 @@
         <v>46387</v>
       </c>
       <c r="J170" t="n">
-        <v>260000</v>
+        <v>315000</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7979,17 +7973,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Djurgårdens U19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Norra</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8024,12 +8018,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Utsiktens BK</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ettan, Sodra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8053,9 +8047,11 @@
       <c r="H172" t="n">
         <v>2006</v>
       </c>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J172" t="n">
-        <v>425000</v>
+        <v>475000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -8131,9 +8127,11 @@
       <c r="H174" t="n">
         <v>2005</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J174" t="n">
-        <v>79000</v>
+        <v>105000</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -8268,7 +8266,7 @@
         <v>46203</v>
       </c>
       <c r="J177" t="n">
-        <v>930000</v>
+        <v>1000000</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -8708,17 +8706,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>IFK Göteborg U19</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>U19 Allsvenskan, Sodra</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sweden Amateur</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8864,7 +8862,7 @@
         <v>46752</v>
       </c>
       <c r="J191" t="n">
-        <v>1900000</v>
+        <v>2400000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -9071,7 +9069,7 @@
         <v>46568</v>
       </c>
       <c r="J196" t="n">
-        <v>440000</v>
+        <v>390000</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -9108,7 +9106,9 @@
       <c r="H197" t="n">
         <v>2006</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
     </row>
@@ -10202,7 +10202,7 @@
         <v>46752</v>
       </c>
       <c r="J221" t="n">
-        <v>1000000</v>
+        <v>3700000</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>46568</v>
       </c>
       <c r="J233" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>46387</v>
       </c>
       <c r="J282" t="n">
-        <v>410000</v>
+        <v>620000</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -13176,12 +13176,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>HJK Klubi 04</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13649,7 +13649,7 @@
         <v>46203</v>
       </c>
       <c r="J296" t="n">
-        <v>190000</v>
+        <v>145000</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>47118</v>
       </c>
       <c r="J298" t="n">
-        <v>825000</v>
+        <v>1000000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>46752</v>
       </c>
       <c r="J302" t="n">
-        <v>185000</v>
+        <v>275000</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>46387</v>
       </c>
       <c r="J313" t="n">
-        <v>49000</v>
+        <v>145000</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>46387</v>
       </c>
       <c r="J317" t="n">
-        <v>195000</v>
+        <v>290000</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -14965,7 +14965,9 @@
       <c r="H326" t="n">
         <v>2005</v>
       </c>
-      <c r="I326" t="inlineStr"/>
+      <c r="I326" s="2" t="n">
+        <v>46935</v>
+      </c>
       <c r="J326" t="n">
         <v>160000</v>
       </c>
@@ -15059,7 +15061,7 @@
         <v>46752</v>
       </c>
       <c r="J328" t="n">
-        <v>210000</v>
+        <v>520000</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -15103,7 +15105,7 @@
         <v>2005</v>
       </c>
       <c r="I329" s="2" t="n">
-        <v>47118</v>
+        <v>47299</v>
       </c>
       <c r="J329" t="n">
         <v>930000</v>
@@ -15227,7 +15229,9 @@
       <c r="H332" t="n">
         <v>2006</v>
       </c>
-      <c r="I332" t="inlineStr"/>
+      <c r="I332" s="2" t="n">
+        <v>47483</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
     </row>
@@ -15440,7 +15444,7 @@
         <v>46022</v>
       </c>
       <c r="J337" t="n">
-        <v>24000</v>
+        <v>97000</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -15487,7 +15491,7 @@
         <v>46752</v>
       </c>
       <c r="J338" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -15817,7 +15821,7 @@
         <v>46752</v>
       </c>
       <c r="J346" t="n">
-        <v>455000</v>
+        <v>545000</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -15983,7 +15987,9 @@
       <c r="H350" t="n">
         <v>2006</v>
       </c>
-      <c r="I350" t="inlineStr"/>
+      <c r="I350" s="2" t="n">
+        <v>47118</v>
+      </c>
       <c r="J350" t="n">
         <v>230000</v>
       </c>
@@ -16618,7 +16624,7 @@
         <v>46568</v>
       </c>
       <c r="J365" t="n">
-        <v>90000</v>
+        <v>905000</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -17056,7 +17062,7 @@
         <v>46752</v>
       </c>
       <c r="J375" t="n">
-        <v>770000</v>
+        <v>990000</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -17232,7 +17238,7 @@
         <v>47118</v>
       </c>
       <c r="J379" t="n">
-        <v>700000</v>
+        <v>1700000</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -17269,7 +17275,9 @@
       <c r="H380" t="n">
         <v>2008</v>
       </c>
-      <c r="I380" t="inlineStr"/>
+      <c r="I380" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
     </row>
@@ -17374,7 +17382,11 @@
         </is>
       </c>
       <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr"/>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H383" t="n">
         <v>2006</v>
       </c>
@@ -17415,7 +17427,9 @@
       <c r="H384" t="n">
         <v>2007</v>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" s="2" t="n">
+        <v>46984</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
     </row>
@@ -17696,7 +17710,9 @@
       <c r="H391" t="n">
         <v>2006</v>
       </c>
-      <c r="I391" t="inlineStr"/>
+      <c r="I391" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
     </row>
@@ -18329,11 +18345,19 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Parva Liga</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="E407" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -18829,12 +18853,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Odense Boldklub</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -19361,7 +19385,7 @@
         <v>46752</v>
       </c>
       <c r="J430" t="n">
-        <v>46000</v>
+        <v>93000</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -19817,17 +19841,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>HNK Rijeka</t>
+          <t>HNK Rijeka U19</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -20079,17 +20103,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>NK Istra 1961 U19</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -21741,7 +21765,11 @@
       <c r="F484" t="n">
         <v>182</v>
       </c>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H484" t="n">
         <v>2008</v>
       </c>
@@ -21872,7 +21900,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H487" t="n">
@@ -22232,7 +22260,9 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="n">
+        <v>180</v>
+      </c>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="n">
         <v>2007</v>
@@ -22697,17 +22727,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
+          <t>NK Domžale U19</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>UEFA Youth League, Knockout stage</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -22801,8 +22831,14 @@
         <v>2007</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -22810,12 +22846,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>FK Vojvodina U19</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -23158,7 +23194,7 @@
         <v>46387</v>
       </c>
       <c r="J517" t="n">
-        <v>53000</v>
+        <v>160000</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -23332,7 +23368,7 @@
         <v>47118</v>
       </c>
       <c r="J521" t="n">
-        <v>520000</v>
+        <v>565000</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -23376,7 +23412,7 @@
         <v>2006</v>
       </c>
       <c r="I522" s="2" t="n">
-        <v>46203</v>
+        <v>47299</v>
       </c>
       <c r="J522" t="n">
         <v>290000</v>
@@ -23562,12 +23598,59 @@
         <v>2007</v>
       </c>
       <c r="I526" s="2" t="n">
-        <v>46203</v>
+        <v>47664</v>
       </c>
       <c r="J526" t="n">
         <v>825000</v>
       </c>
       <c r="K526" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>592</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>IK Sirius</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>172</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H527" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I527" s="2" t="n">
+        <v>47483</v>
+      </c>
+      <c r="J527" t="n">
+        <v>680000</v>
+      </c>
+      <c r="K527" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K527"/>
+  <dimension ref="A1:K540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>165000</v>
+        <v>140000</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>155000</v>
+        <v>130000</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>46203</v>
       </c>
       <c r="J9" t="n">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>46203</v>
       </c>
       <c r="J10" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>46934</v>
       </c>
       <c r="J12" t="n">
-        <v>340000</v>
+        <v>485000</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>46203</v>
       </c>
       <c r="J13" t="n">
-        <v>190000</v>
+        <v>145000</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>46568</v>
       </c>
       <c r="J22" t="n">
-        <v>1200000</v>
+        <v>1700000</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>46934</v>
       </c>
       <c r="J26" t="n">
-        <v>530000</v>
+        <v>950000</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>46568</v>
       </c>
       <c r="J33" t="n">
-        <v>145000</v>
+        <v>195000</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>46934</v>
       </c>
       <c r="J59" t="n">
-        <v>740000</v>
+        <v>1200000</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>46934</v>
       </c>
       <c r="J60" t="n">
-        <v>985000</v>
+        <v>1400000</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>46387</v>
       </c>
       <c r="J69" t="n">
-        <v>260000</v>
+        <v>470000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>260000</v>
+        <v>205000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>46234</v>
       </c>
       <c r="J75" t="n">
-        <v>310000</v>
+        <v>290000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>46022</v>
       </c>
       <c r="J80" t="n">
-        <v>745000</v>
+        <v>855000</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3955,12 +3955,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strømsgodset II</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3rd Division, Group 2</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>52000</v>
+        <v>210000</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>47118</v>
       </c>
       <c r="J83" t="n">
-        <v>565000</v>
+        <v>660000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>46387</v>
       </c>
       <c r="J86" t="n">
-        <v>360000</v>
+        <v>310000</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>46203</v>
       </c>
       <c r="J99" t="n">
-        <v>265000</v>
+        <v>210000</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>46203</v>
       </c>
       <c r="J100" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>46203</v>
       </c>
       <c r="J102" t="n">
-        <v>105000</v>
+        <v>160000</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>46203</v>
       </c>
       <c r="J104" t="n">
-        <v>275000</v>
+        <v>370000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>46568</v>
       </c>
       <c r="J113" t="n">
-        <v>165000</v>
+        <v>135000</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5824,8 +5824,14 @@
       <c r="I122" s="2" t="n">
         <v>46904</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>48000</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6054,7 +6060,7 @@
         <v>46538</v>
       </c>
       <c r="J127" t="n">
-        <v>105000</v>
+        <v>155000</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -6101,7 +6107,7 @@
         <v>46173</v>
       </c>
       <c r="J128" t="n">
-        <v>55000</v>
+        <v>110000</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -6283,7 +6289,7 @@
         <v>46568</v>
       </c>
       <c r="J132" t="n">
-        <v>53000</v>
+        <v>265000</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -6377,7 +6383,7 @@
         <v>46934</v>
       </c>
       <c r="J134" t="n">
-        <v>310000</v>
+        <v>205000</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -6463,7 +6469,7 @@
         <v>46203</v>
       </c>
       <c r="J136" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -6719,7 +6725,7 @@
         <v>46173</v>
       </c>
       <c r="J142" t="n">
-        <v>435000</v>
+        <v>380000</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -7063,7 +7069,7 @@
         <v>46203</v>
       </c>
       <c r="J150" t="n">
-        <v>81000</v>
+        <v>110000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -7157,7 +7163,7 @@
         <v>46568</v>
       </c>
       <c r="J152" t="n">
-        <v>3200000</v>
+        <v>5300000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -7203,8 +7209,14 @@
       <c r="I153" s="2" t="n">
         <v>46934</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>53000</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7245,7 +7257,7 @@
         <v>46934</v>
       </c>
       <c r="J154" t="n">
-        <v>520000</v>
+        <v>420000</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -7292,7 +7304,7 @@
         <v>46568</v>
       </c>
       <c r="J155" t="n">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -7611,7 +7623,7 @@
         <v>46387</v>
       </c>
       <c r="J162" t="n">
-        <v>525000</v>
+        <v>630000</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -7658,7 +7670,7 @@
         <v>46203</v>
       </c>
       <c r="J163" t="n">
-        <v>145000</v>
+        <v>120000</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -7838,7 +7850,7 @@
         <v>46568</v>
       </c>
       <c r="J167" t="n">
-        <v>340000</v>
+        <v>440000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -8651,7 +8663,7 @@
         <v>47118</v>
       </c>
       <c r="J186" t="n">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -9926,7 +9938,7 @@
         <v>46568</v>
       </c>
       <c r="J215" t="n">
-        <v>775000</v>
+        <v>1200000</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -10531,7 +10543,7 @@
         <v>46568</v>
       </c>
       <c r="J228" t="n">
-        <v>650000</v>
+        <v>970000</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -10576,7 +10588,7 @@
         <v>47299</v>
       </c>
       <c r="J229" t="n">
-        <v>46000</v>
+        <v>415000</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -10623,7 +10635,7 @@
         <v>47299</v>
       </c>
       <c r="J230" t="n">
-        <v>410000</v>
+        <v>775000</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -11085,7 +11097,7 @@
         <v>46387</v>
       </c>
       <c r="J240" t="n">
-        <v>2300000</v>
+        <v>1900000</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -11132,7 +11144,7 @@
         <v>46387</v>
       </c>
       <c r="J241" t="n">
-        <v>740000</v>
+        <v>1100000</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -11318,7 +11330,7 @@
         <v>47664</v>
       </c>
       <c r="J245" t="n">
-        <v>340000</v>
+        <v>730000</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -11397,7 +11409,9 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>178</v>
+      </c>
       <c r="G247" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11410,7 +11424,7 @@
         <v>46022</v>
       </c>
       <c r="J247" t="n">
-        <v>370000</v>
+        <v>475000</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -11551,7 +11565,7 @@
         <v>47664</v>
       </c>
       <c r="J250" t="n">
-        <v>1000000</v>
+        <v>6200000</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -11598,7 +11612,7 @@
         <v>47483</v>
       </c>
       <c r="J251" t="n">
-        <v>480000</v>
+        <v>800000</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -11645,7 +11659,7 @@
         <v>46203</v>
       </c>
       <c r="J252" t="n">
-        <v>385000</v>
+        <v>550000</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -11925,7 +11939,7 @@
         <v>47299</v>
       </c>
       <c r="J258" t="n">
-        <v>825000</v>
+        <v>1500000</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -12019,7 +12033,7 @@
         <v>46568</v>
       </c>
       <c r="J260" t="n">
-        <v>1600000</v>
+        <v>1100000</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -12244,7 +12258,7 @@
         <v>47483</v>
       </c>
       <c r="J265" t="n">
-        <v>845000</v>
+        <v>940000</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -12287,7 +12301,7 @@
         <v>46568</v>
       </c>
       <c r="J266" t="n">
-        <v>325000</v>
+        <v>230000</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -12381,7 +12395,7 @@
         <v>47299</v>
       </c>
       <c r="J268" t="n">
-        <v>95000</v>
+        <v>48000</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -12475,7 +12489,7 @@
         <v>46752</v>
       </c>
       <c r="J270" t="n">
-        <v>420000</v>
+        <v>470000</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -12849,7 +12863,7 @@
         <v>47483</v>
       </c>
       <c r="J278" t="n">
-        <v>565000</v>
+        <v>660000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -13336,7 +13350,7 @@
         <v>47118</v>
       </c>
       <c r="J289" t="n">
-        <v>465000</v>
+        <v>515000</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -13557,7 +13571,7 @@
         <v>46568</v>
       </c>
       <c r="J294" t="n">
-        <v>260000</v>
+        <v>205000</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -13602,7 +13616,7 @@
         <v>46387</v>
       </c>
       <c r="J295" t="n">
-        <v>135000</v>
+        <v>160000</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -13696,7 +13710,7 @@
         <v>46904</v>
       </c>
       <c r="J297" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -14015,7 +14029,7 @@
         <v>47299</v>
       </c>
       <c r="J304" t="n">
-        <v>165000</v>
+        <v>440000</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -14097,7 +14111,7 @@
         <v>47299</v>
       </c>
       <c r="J306" t="n">
-        <v>415000</v>
+        <v>830000</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -14228,7 +14242,7 @@
         <v>46965</v>
       </c>
       <c r="J309" t="n">
-        <v>750000</v>
+        <v>935000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -14322,7 +14336,7 @@
         <v>47299</v>
       </c>
       <c r="J311" t="n">
-        <v>230000</v>
+        <v>465000</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -14498,7 +14512,7 @@
         <v>46752</v>
       </c>
       <c r="J315" t="n">
-        <v>705000</v>
+        <v>660000</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -14545,7 +14559,7 @@
         <v>46568</v>
       </c>
       <c r="J316" t="n">
-        <v>775000</v>
+        <v>970000</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -14635,7 +14649,7 @@
         <v>46752</v>
       </c>
       <c r="J318" t="n">
-        <v>430000</v>
+        <v>540000</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -14727,7 +14741,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>440000</v>
+        <v>485000</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -14838,7 +14852,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>49000</v>
+        <v>120000</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -14940,19 +14954,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>HNL</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -14965,9 +14971,7 @@
       <c r="H326" t="n">
         <v>2005</v>
       </c>
-      <c r="I326" s="2" t="n">
-        <v>46935</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>160000</v>
       </c>
@@ -15950,7 +15954,7 @@
         <v>46387</v>
       </c>
       <c r="J349" t="n">
-        <v>265000</v>
+        <v>530000</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -16038,7 +16042,7 @@
         <v>46568</v>
       </c>
       <c r="J351" t="n">
-        <v>290000</v>
+        <v>2400000</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -16208,7 +16212,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -16249,7 +16253,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>245000</v>
+        <v>290000</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -16376,7 +16380,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>73000</v>
+        <v>120000</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -16438,7 +16442,7 @@
         <v>46568</v>
       </c>
       <c r="J361" t="n">
-        <v>290000</v>
+        <v>1900000</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -16485,7 +16489,7 @@
         <v>47483</v>
       </c>
       <c r="J362" t="n">
-        <v>670000</v>
+        <v>765000</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -16517,7 +16521,9 @@
           <t>Ghana</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr"/>
+      <c r="F363" t="n">
+        <v>178</v>
+      </c>
       <c r="G363" t="inlineStr">
         <is>
           <t>Right</t>
@@ -16530,7 +16536,7 @@
         <v>47664</v>
       </c>
       <c r="J363" t="n">
-        <v>375000</v>
+        <v>4700000</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -16577,7 +16583,7 @@
         <v>46568</v>
       </c>
       <c r="J364" t="n">
-        <v>265000</v>
+        <v>740000</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -16706,7 +16712,7 @@
         <v>47118</v>
       </c>
       <c r="J367" t="n">
-        <v>390000</v>
+        <v>580000</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -16797,7 +16803,7 @@
         <v>2005</v>
       </c>
       <c r="I369" s="2" t="n">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="J369" t="n">
         <v>27000</v>
@@ -17144,7 +17150,7 @@
         <v>46022</v>
       </c>
       <c r="J377" t="n">
-        <v>185000</v>
+        <v>365000</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -17544,7 +17550,7 @@
         <v>47299</v>
       </c>
       <c r="J387" t="n">
-        <v>77000</v>
+        <v>775000</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -17591,7 +17597,7 @@
         <v>46934</v>
       </c>
       <c r="J388" t="n">
-        <v>360000</v>
+        <v>825000</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -18289,8 +18295,14 @@
       <c r="I405" s="2" t="n">
         <v>46203</v>
       </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>27000</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -18331,7 +18343,7 @@
         <v>46203</v>
       </c>
       <c r="J406" t="n">
-        <v>260000</v>
+        <v>520000</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -18345,19 +18357,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>Parva Liga</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -18802,7 +18806,7 @@
         <v>46568</v>
       </c>
       <c r="J417" t="n">
-        <v>24000</v>
+        <v>47000</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -18933,7 +18937,7 @@
         <v>46568</v>
       </c>
       <c r="J420" t="n">
-        <v>47000</v>
+        <v>935000</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -18980,7 +18984,7 @@
         <v>47664</v>
       </c>
       <c r="J421" t="n">
-        <v>26000</v>
+        <v>515000</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -19021,7 +19025,7 @@
         <v>47299</v>
       </c>
       <c r="J422" t="n">
-        <v>79000</v>
+        <v>320000</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -19066,7 +19070,7 @@
         <v>47664</v>
       </c>
       <c r="J423" t="n">
-        <v>78000</v>
+        <v>365000</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -19160,7 +19164,7 @@
         <v>47483</v>
       </c>
       <c r="J425" t="n">
-        <v>96000</v>
+        <v>480000</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -20381,14 +20385,8 @@
       <c r="I453" s="2" t="n">
         <v>47483</v>
       </c>
-      <c r="J453" t="n">
-        <v>23000</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -20554,7 +20552,7 @@
         <v>47118</v>
       </c>
       <c r="J457" t="n">
-        <v>185000</v>
+        <v>555000</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -20599,7 +20597,7 @@
         <v>46022</v>
       </c>
       <c r="J458" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -20685,7 +20683,7 @@
         <v>47118</v>
       </c>
       <c r="J460" t="n">
-        <v>465000</v>
+        <v>515000</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -20824,7 +20822,7 @@
         <v>47118</v>
       </c>
       <c r="J463" t="n">
-        <v>575000</v>
+        <v>625000</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -20918,7 +20916,7 @@
         <v>46934</v>
       </c>
       <c r="J465" t="n">
-        <v>360000</v>
+        <v>515000</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -21059,7 +21057,7 @@
         <v>46022</v>
       </c>
       <c r="J468" t="n">
-        <v>105000</v>
+        <v>155000</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -21102,7 +21100,7 @@
         <v>46387</v>
       </c>
       <c r="J469" t="n">
-        <v>105000</v>
+        <v>155000</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -21149,7 +21147,7 @@
         <v>46752</v>
       </c>
       <c r="J470" t="n">
-        <v>540000</v>
+        <v>860000</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -21243,7 +21241,7 @@
         <v>46752</v>
       </c>
       <c r="J472" t="n">
-        <v>190000</v>
+        <v>660000</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -21321,7 +21319,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>515000</v>
+        <v>720000</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -21407,7 +21405,7 @@
         <v>46203</v>
       </c>
       <c r="J476" t="n">
-        <v>245000</v>
+        <v>340000</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -21454,7 +21452,7 @@
         <v>46203</v>
       </c>
       <c r="J477" t="n">
-        <v>485000</v>
+        <v>340000</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -21777,7 +21775,7 @@
         <v>46934</v>
       </c>
       <c r="J484" t="n">
-        <v>105000</v>
+        <v>130000</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -21816,7 +21814,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>81000</v>
+        <v>135000</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -21863,7 +21861,7 @@
         <v>46568</v>
       </c>
       <c r="J486" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -22435,7 +22433,7 @@
         <v>46904</v>
       </c>
       <c r="J500" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -22482,7 +22480,7 @@
         <v>46203</v>
       </c>
       <c r="J501" t="n">
-        <v>485000</v>
+        <v>290000</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -22527,7 +22525,7 @@
         <v>46173</v>
       </c>
       <c r="J502" t="n">
-        <v>110000</v>
+        <v>215000</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -22574,7 +22572,7 @@
         <v>46934</v>
       </c>
       <c r="J503" t="n">
-        <v>185000</v>
+        <v>93000</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -22713,7 +22711,7 @@
         <v>46081</v>
       </c>
       <c r="J506" t="n">
-        <v>52000</v>
+        <v>155000</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -22879,7 +22877,7 @@
         <v>46934</v>
       </c>
       <c r="J510" t="n">
-        <v>105000</v>
+        <v>310000</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -22973,7 +22971,7 @@
         <v>46568</v>
       </c>
       <c r="J512" t="n">
-        <v>530000</v>
+        <v>1100000</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -23020,7 +23018,7 @@
         <v>46203</v>
       </c>
       <c r="J513" t="n">
-        <v>660000</v>
+        <v>755000</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -23100,7 +23098,7 @@
         <v>46726</v>
       </c>
       <c r="J515" t="n">
-        <v>410000</v>
+        <v>620000</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -23110,44 +23108,44 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>FK Radnik Surdulica</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F516" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H516" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I516" s="2" t="n">
-        <v>46568</v>
+        <v>46387</v>
       </c>
       <c r="J516" t="n">
-        <v>265000</v>
+        <v>160000</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -23157,11 +23155,11 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -23176,39 +23174,25 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F517" t="n">
-        <v>183</v>
-      </c>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I517" s="2" t="n">
-        <v>46387</v>
-      </c>
-      <c r="J517" t="n">
-        <v>160000</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>Malmö FF</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -23223,21 +23207,35 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>181</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H518" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I518" s="2" t="n">
+        <v>47118</v>
+      </c>
+      <c r="J518" t="n">
+        <v>365000</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -23256,11 +23254,11 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F519" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -23268,13 +23266,13 @@
         </is>
       </c>
       <c r="H519" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I519" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J519" t="n">
-        <v>365000</v>
+        <v>580000</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -23284,7 +23282,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -23303,11 +23301,11 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F520" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -23315,13 +23313,13 @@
         </is>
       </c>
       <c r="H520" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I520" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J520" t="n">
-        <v>580000</v>
+        <v>565000</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -23331,30 +23329,30 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Malmö FF</t>
+          <t>FC Aarau</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Challenge League</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F521" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -23362,13 +23360,13 @@
         </is>
       </c>
       <c r="H521" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I521" s="2" t="n">
-        <v>47118</v>
+        <v>47299</v>
       </c>
       <c r="J521" t="n">
-        <v>565000</v>
+        <v>290000</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -23378,11 +23376,11 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>FC Aarau</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -23401,7 +23399,7 @@
         </is>
       </c>
       <c r="F522" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -23409,13 +23407,11 @@
         </is>
       </c>
       <c r="H522" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I522" s="2" t="n">
-        <v>47299</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>290000</v>
+        <v>325000</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -23425,11 +23421,11 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Yverdon-Sport FC</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -23444,11 +23440,11 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="F523" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -23456,11 +23452,13 @@
         </is>
       </c>
       <c r="H523" t="n">
-        <v>2009</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>2005</v>
+      </c>
+      <c r="I523" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J523" t="n">
-        <v>325000</v>
+        <v>215000</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -23470,44 +23468,44 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Yverdon-Sport FC</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Challenge League</t>
+          <t>Ukraine Cup</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F524" t="n">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H524" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I524" s="2" t="n">
-        <v>46203</v>
+        <v>46934</v>
       </c>
       <c r="J524" t="n">
-        <v>215000</v>
+        <v>980000</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -23517,16 +23515,16 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>FC Metalist Kharkiv</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Ukraine Cup</t>
+          <t>Persha Liga</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -23536,25 +23534,25 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F525" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H525" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="I525" s="2" t="n">
-        <v>46934</v>
+        <v>47664</v>
       </c>
       <c r="J525" t="n">
-        <v>980000</v>
+        <v>825000</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -23564,44 +23562,44 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>FC Metalist Kharkiv</t>
+          <t>IK Sirius</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Persha Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F526" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H526" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="I526" s="2" t="n">
-        <v>47664</v>
+        <v>47483</v>
       </c>
       <c r="J526" t="n">
-        <v>825000</v>
+        <v>680000</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -23611,50 +23609,583 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>IK Sirius</t>
+          <t>Wisła Kraków</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
+          <t>Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>187</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="H527" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I527" s="2" t="n">
+        <v>46568</v>
+      </c>
+      <c r="J527" t="n">
+        <v>470000</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>594</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Egersund</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 2</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>190</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H528" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I528" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="J528" t="n">
+        <v>235000</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>595</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>FK Banga Gargždai</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>A Lyga</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>195</v>
+      </c>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I529" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="J529" t="n">
+        <v>95000</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>596</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Tallinna FCI Levadia U19</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>UEFA Youth League, Knockout stage</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>183</v>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H530" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I530" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>597</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Pogoń Grodzisk Mazowiecki</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>II Liga</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>173</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H531" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>330000</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>598</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>FK Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Prva Liga</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>174</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H532" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I532" s="2" t="n">
+        <v>46568</v>
+      </c>
+      <c r="J532" t="n">
+        <v>475000</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>599</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>AS Trenčín</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Niké Liga</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>185</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H533" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>600</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora U19</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Cup</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="n">
+        <v>2009</v>
+      </c>
+      <c r="I534" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>601</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Kisvárda FC</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>602</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Kalmar FF</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
           <t>Allsvenskan</t>
         </is>
       </c>
-      <c r="D527" t="inlineStr">
+      <c r="D536" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="E527" t="inlineStr">
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>184</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H536" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I536" s="2" t="n">
+        <v>47483</v>
+      </c>
+      <c r="J536" t="n">
+        <v>260000</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>603</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Arka II Gdynia</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Club Friendly Games</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>182</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H537" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I537" s="2" t="n">
+        <v>46568</v>
+      </c>
+      <c r="J537" t="n">
+        <v>96000</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>604</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Kety Emmi Bistrica</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Slovenia Cup</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>188</v>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>605</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Brattvåg</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>2nd Division, Group 1</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>175</v>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H539" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I539" s="2" t="n">
+        <v>46387</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>606</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Hammarby Talang FF</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Ettan, Norra</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F527" t="n">
-        <v>172</v>
-      </c>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="H527" t="n">
-        <v>2003</v>
-      </c>
-      <c r="I527" s="2" t="n">
-        <v>47483</v>
-      </c>
-      <c r="J527" t="n">
-        <v>680000</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -4307,12 +4307,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Podbeskidzie Bielsko-Biała</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chindia Târgoviște</t>
+          <t>CSM Olimpia Satu Mare</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Liga III Seria 10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4864,9 +4864,7 @@
       <c r="H101" t="n">
         <v>2003</v>
       </c>
-      <c r="I101" s="2" t="n">
-        <v>46568</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>135000</v>
       </c>
@@ -5483,17 +5481,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5512,9 +5510,7 @@
       <c r="H115" t="n">
         <v>2006</v>
       </c>
-      <c r="I115" s="2" t="n">
-        <v>46538</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>155000</v>
       </c>
@@ -6277,11 +6273,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+          <t>FK Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Treta Liga - SI</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Bulgaria Amateur</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -10334,17 +10338,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10364,7 +10368,7 @@
         <v>2004</v>
       </c>
       <c r="I224" s="2" t="n">
-        <v>46387</v>
+        <v>47664</v>
       </c>
       <c r="J224" t="n">
         <v>1900000</v>
@@ -11761,17 +11765,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AS Trenčín</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11791,7 +11795,7 @@
         <v>2006</v>
       </c>
       <c r="I255" s="2" t="n">
-        <v>46203</v>
+        <v>48029</v>
       </c>
       <c r="J255" t="n">
         <v>1300000</v>
@@ -13639,17 +13643,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -14386,17 +14390,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dinamo City</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Kategoria e Pare, Group A</t>
+          <t>Trendyol Süper Lig</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -14415,7 +14419,9 @@
       <c r="H314" t="n">
         <v>2005</v>
       </c>
-      <c r="I314" t="inlineStr"/>
+      <c r="I314" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J314" t="n">
         <v>235000</v>
       </c>
@@ -14595,17 +14601,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>HŠK Zrinjski Mostar</t>
+          <t>FK Laktaši</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>WWIN Liga BiH</t>
+          <t>2. Liga RS - Zapad</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Bosnia &amp;amp; Herzegovina Amateur</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -14623,7 +14629,7 @@
         <v>2006</v>
       </c>
       <c r="I319" s="2" t="n">
-        <v>46904</v>
+        <v>46203</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -14958,12 +14964,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Paksi FC II</t>
+          <t>Paksi FC</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>NB III Közép</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -15804,7 +15810,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>FK Radnik Surdulica</t>
+          <t>FK Crvena zvezda</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17693,19 +17699,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>FK Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>Vtora Liga</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -19154,12 +19152,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>HNK Rijeka</t>
+          <t>HNK Vukovar 1991</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>3. HNL, East</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -20466,17 +20464,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Lyn FK</t>
+          <t>Royale Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>3rd Division, Group 4</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20496,7 +20494,7 @@
         <v>2005</v>
       </c>
       <c r="I456" s="2" t="n">
-        <v>46752</v>
+        <v>47664</v>
       </c>
       <c r="J456" t="n">
         <v>660000</v>
@@ -21979,7 +21977,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>No team</t>
+          <t>Bologna U20</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -21990,7 +21988,11 @@
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H491" t="n">
         <v>2007</v>
       </c>
@@ -22949,17 +22951,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>FK Banga Gargždai</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>A Lyga</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -22974,7 +22976,9 @@
       <c r="H513" t="n">
         <v>2006</v>
       </c>
-      <c r="I513" t="inlineStr"/>
+      <c r="I513" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J513" t="n">
         <v>95000</v>
       </c>
@@ -23279,17 +23283,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Arka II Gdynia</t>
+          <t>MZKS Arka Gdynia</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Club Friendly Games</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -23474,12 +23478,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>SV Ried</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2. Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -23500,10 +23504,10 @@
         <v>2005</v>
       </c>
       <c r="I526" s="2" t="n">
-        <v>46203</v>
+        <v>46934</v>
       </c>
       <c r="J526" t="n">
-        <v>145000</v>
+        <v>290000</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -23517,7 +23521,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -23532,21 +23536,25 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F527" t="n">
-        <v>172</v>
-      </c>
-      <c r="G527" t="inlineStr"/>
+        <v>171</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H527" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I527" s="2" t="n">
         <v>46203</v>
       </c>
       <c r="J527" t="n">
-        <v>145000</v>
+        <v>330000</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -23560,17 +23568,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>FK Borac Banja Luka</t>
+          <t>FC Slovan Liberec</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -780,19 +780,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bulgarian Cup</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -811,7 +803,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>430000</v>
+        <v>380000</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -872,7 +864,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FK Dobrudzha Dobrich</t>
+          <t>FK Septemvri Sofia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1883,17 +1875,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NK Lokomotiva Zagreb</t>
+          <t>SK Sigma Olomouc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1912,9 +1904,7 @@
       <c r="H33" t="n">
         <v>2005</v>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>46923</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1600000</v>
       </c>
@@ -2006,7 +1996,7 @@
         <v>46199</v>
       </c>
       <c r="J35" t="n">
-        <v>465000</v>
+        <v>260000</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2571,12 +2561,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>ADO Den Haag U21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>U21 KNVB, Divisie 1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3022,12 +3012,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>Jong Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VriendenLoterij Eredivisie</t>
+          <t>Tweede Divisie</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3145,7 +3135,9 @@
       <c r="H62" t="n">
         <v>2004</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J62" t="n">
         <v>330000</v>
       </c>
@@ -3556,12 +3548,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fredrikstad FK</t>
+          <t>Stabæk Fotball</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4166,7 +4158,9 @@
       <c r="H85" t="n">
         <v>2005</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J85" t="n">
         <v>48000</v>
       </c>
@@ -4215,7 +4209,7 @@
         <v>46203</v>
       </c>
       <c r="J86" t="n">
-        <v>46000</v>
+        <v>230000</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4307,12 +4301,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Podbeskidzie Bielsko-Biała</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4594,7 +4588,7 @@
         <v>46568</v>
       </c>
       <c r="J95" t="n">
-        <v>640000</v>
+        <v>855000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4682,9 +4676,11 @@
       <c r="H97" t="n">
         <v>2003</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J97" t="n">
-        <v>720000</v>
+        <v>410000</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4819,9 +4815,11 @@
       <c r="H100" t="n">
         <v>2006</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J100" t="n">
-        <v>130000</v>
+        <v>105000</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -5573,12 +5571,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Triglav Kranj</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5708,25 +5706,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>2. Bundesliga</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>181</v>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>Right</t>
@@ -5736,7 +5736,7 @@
         <v>2006</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>46568</v>
+        <v>47664</v>
       </c>
       <c r="J120" t="n">
         <v>265000</v>
@@ -6187,11 +6187,19 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NK Vrhnika</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+          <t>Brinje Grosuplje</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Club Friendly Games</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -6208,9 +6216,7 @@
       <c r="H131" t="n">
         <v>2004</v>
       </c>
-      <c r="I131" s="2" t="n">
-        <v>46038</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>26000</v>
       </c>
@@ -6437,19 +6443,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FK Smederevo 1924</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Srpska Liga Zapad</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>SU Dinamo Jug Vranje</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -6744,7 +6742,7 @@
         <v>47118</v>
       </c>
       <c r="J143" t="n">
-        <v>54000</v>
+        <v>110000</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6836,7 +6834,7 @@
         <v>46568</v>
       </c>
       <c r="J145" t="n">
-        <v>370000</v>
+        <v>415000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6850,7 +6848,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FK Voždovac</t>
+          <t>FK TSC Bačka Topola</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7511,17 +7509,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>FC Lausanne-Sport</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8929,7 +8927,7 @@
         <v>2005</v>
       </c>
       <c r="I193" s="2" t="n">
-        <v>46203</v>
+        <v>47118</v>
       </c>
       <c r="J193" t="n">
         <v>195000</v>
@@ -10183,7 +10181,7 @@
         <v>47664</v>
       </c>
       <c r="J220" t="n">
-        <v>935000</v>
+        <v>780000</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -10197,7 +10195,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SK Slavia Praha</t>
+          <t>MFK Karviná</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10512,7 +10510,7 @@
         <v>46904</v>
       </c>
       <c r="J227" t="n">
-        <v>1400000</v>
+        <v>950000</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -10556,7 +10554,7 @@
         <v>2004</v>
       </c>
       <c r="I228" s="2" t="n">
-        <v>46934</v>
+        <v>47299</v>
       </c>
       <c r="J228" t="n">
         <v>535000</v>
@@ -11061,10 +11059,10 @@
         <v>2004</v>
       </c>
       <c r="I239" s="2" t="n">
-        <v>46203</v>
+        <v>46934</v>
       </c>
       <c r="J239" t="n">
-        <v>485000</v>
+        <v>970000</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -12078,7 +12076,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>215000</v>
+        <v>320000</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -12260,7 +12258,9 @@
       <c r="H265" t="n">
         <v>2005</v>
       </c>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" s="2" t="n">
+        <v>47118</v>
+      </c>
       <c r="J265" t="n">
         <v>205000</v>
       </c>
@@ -12403,12 +12403,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>KäPa</t>
+          <t>IF Gnistan</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Kakkonen, Group A</t>
+          <t>Ykkosliiga</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12432,7 +12432,9 @@
       <c r="H269" t="n">
         <v>2006</v>
       </c>
-      <c r="I269" t="inlineStr"/>
+      <c r="I269" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J269" t="n">
         <v>24000</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>46568</v>
       </c>
       <c r="J272" t="n">
-        <v>82000</v>
+        <v>110000</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -12782,7 +12784,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>220000</v>
+        <v>82000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -13140,7 +13142,7 @@
         <v>47483</v>
       </c>
       <c r="J285" t="n">
-        <v>530000</v>
+        <v>1600000</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -13398,7 +13400,9 @@
       <c r="H291" t="n">
         <v>2006</v>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J291" t="n">
         <v>49000</v>
       </c>
@@ -13669,7 +13673,7 @@
         <v>2005</v>
       </c>
       <c r="I297" s="2" t="n">
-        <v>46387</v>
+        <v>47299</v>
       </c>
       <c r="J297" t="n">
         <v>145000</v>
@@ -13704,14 +13708,18 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>175</v>
+      </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="n">
         <v>2006</v>
       </c>
-      <c r="I298" t="inlineStr"/>
+      <c r="I298" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J298" t="n">
-        <v>26000</v>
+        <v>515000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -14071,7 +14079,9 @@
       <c r="H306" t="n">
         <v>2006</v>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" s="2" t="n">
+        <v>47848</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
     </row>
@@ -14167,17 +14177,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NK Osijek</t>
+          <t>NK Osijek U19</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>World</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -14199,8 +14209,14 @@
       <c r="I309" s="2" t="n">
         <v>46568</v>
       </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>46000</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -14208,19 +14224,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>HNL</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -14233,9 +14241,7 @@
       <c r="H310" t="n">
         <v>2005</v>
       </c>
-      <c r="I310" s="2" t="n">
-        <v>46935</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>315000</v>
       </c>
@@ -14710,7 +14716,9 @@
       <c r="H321" t="n">
         <v>2006</v>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J321" t="n">
         <v>97000</v>
       </c>
@@ -14995,7 +15003,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>93000</v>
+        <v>465000</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -15699,7 +15707,7 @@
         <v>2007</v>
       </c>
       <c r="I345" s="2" t="n">
-        <v>46568</v>
+        <v>47483</v>
       </c>
       <c r="J345" t="n">
         <v>1900000</v>
@@ -15933,7 +15941,9 @@
       <c r="H350" t="n">
         <v>2005</v>
       </c>
-      <c r="I350" t="inlineStr"/>
+      <c r="I350" s="2" t="n">
+        <v>46752</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
     </row>
@@ -16017,7 +16027,7 @@
         <v>46203</v>
       </c>
       <c r="J352" t="n">
-        <v>600000</v>
+        <v>370000</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -16338,12 +16348,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora U19</t>
+          <t>Flora Tallinn U21</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>Esiliiga</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -16699,19 +16709,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>IFK Stocksund</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Division 2, Norra Svealand</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
           <t>Burkina Faso</t>
@@ -17044,7 +17046,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>515000</v>
+        <v>360000</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -17383,10 +17385,16 @@
         <v>2006</v>
       </c>
       <c r="I385" s="2" t="n">
-        <v>46173</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>46904</v>
+      </c>
+      <c r="J385" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -17613,19 +17621,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Parva Liga</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -17685,7 +17685,7 @@
         <v>46203</v>
       </c>
       <c r="J392" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -17699,11 +17699,19 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
+          <t>FC Minyor Pernik</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -17722,7 +17730,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>68000</v>
+        <v>90000</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -17796,7 +17804,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>24000</v>
+        <v>49000</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -17849,19 +17857,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>Bulgarian Cup</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -17882,7 +17882,7 @@
         <v>46203</v>
       </c>
       <c r="J397" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -19049,8 +19049,14 @@
       <c r="I423" s="2" t="n">
         <v>47299</v>
       </c>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>54000</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -19088,10 +19094,10 @@
         <v>2006</v>
       </c>
       <c r="I424" s="2" t="n">
-        <v>46053</v>
+        <v>46934</v>
       </c>
       <c r="J424" t="n">
-        <v>360000</v>
+        <v>310000</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -19176,7 +19182,7 @@
         <v>2006</v>
       </c>
       <c r="I426" s="2" t="n">
-        <v>47299</v>
+        <v>46203</v>
       </c>
       <c r="J426" t="n">
         <v>210000</v>
@@ -19226,7 +19232,7 @@
         <v>46388</v>
       </c>
       <c r="J427" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -19529,7 +19535,7 @@
         <v>46553</v>
       </c>
       <c r="J434" t="n">
-        <v>140000</v>
+        <v>115000</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -19654,17 +19660,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>CD Tudelano</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Primera Federacion, Group 1</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -19677,7 +19683,9 @@
       <c r="H438" t="n">
         <v>2006</v>
       </c>
-      <c r="I438" t="inlineStr"/>
+      <c r="I438" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
     </row>
@@ -19717,10 +19725,10 @@
         <v>2005</v>
       </c>
       <c r="I439" s="2" t="n">
-        <v>46568</v>
+        <v>47299</v>
       </c>
       <c r="J439" t="n">
-        <v>440000</v>
+        <v>875000</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -20020,7 +20028,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F446" t="inlineStr"/>
+      <c r="F446" t="n">
+        <v>183</v>
+      </c>
       <c r="G446" t="inlineStr">
         <is>
           <t>Right</t>
@@ -20353,7 +20363,7 @@
         <v>2007</v>
       </c>
       <c r="I453" s="2" t="n">
-        <v>46387</v>
+        <v>46965</v>
       </c>
       <c r="J453" t="n">
         <v>155000</v>
@@ -20657,7 +20667,9 @@
       <c r="H460" t="n">
         <v>2006</v>
       </c>
-      <c r="I460" t="inlineStr"/>
+      <c r="I460" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J460" t="n">
         <v>340000</v>
       </c>
@@ -20703,7 +20715,7 @@
         <v>2007</v>
       </c>
       <c r="I461" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J461" t="n">
         <v>340000</v>
@@ -20750,10 +20762,10 @@
         <v>2006</v>
       </c>
       <c r="I462" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J462" t="n">
-        <v>435000</v>
+        <v>545000</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -20797,10 +20809,10 @@
         <v>2006</v>
       </c>
       <c r="I463" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J463" t="n">
-        <v>53000</v>
+        <v>1600000</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -21295,7 +21307,7 @@
         <v>47299</v>
       </c>
       <c r="J474" t="n">
-        <v>130000</v>
+        <v>315000</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -21371,7 +21383,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>115000</v>
+        <v>225000</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -21435,7 +21447,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -21478,7 +21490,9 @@
       <c r="H479" t="n">
         <v>2007</v>
       </c>
-      <c r="I479" t="inlineStr"/>
+      <c r="I479" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J479" t="n">
         <v>385000</v>
       </c>
@@ -21677,7 +21691,11 @@
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H484" t="n">
         <v>2008</v>
       </c>
@@ -21883,19 +21901,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -21912,9 +21922,7 @@
       <c r="H489" t="n">
         <v>2006</v>
       </c>
-      <c r="I489" s="2" t="n">
-        <v>46568</v>
-      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
         <v>165000</v>
       </c>
@@ -22612,7 +22620,7 @@
         <v>47299</v>
       </c>
       <c r="J505" t="n">
-        <v>290000</v>
+        <v>680000</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -22704,7 +22712,7 @@
         <v>46203</v>
       </c>
       <c r="J507" t="n">
-        <v>215000</v>
+        <v>190000</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -22892,7 +22900,7 @@
         <v>46568</v>
       </c>
       <c r="J511" t="n">
-        <v>470000</v>
+        <v>370000</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -22935,7 +22943,9 @@
       <c r="H512" t="n">
         <v>2004</v>
       </c>
-      <c r="I512" t="inlineStr"/>
+      <c r="I512" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J512" t="n">
         <v>235000</v>
       </c>
@@ -23170,12 +23180,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora U19</t>
+          <t>Flora Tallinn U21</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>Esiliiga</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -23236,17 +23246,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Kalmar FF</t>
+          <t>SK Slavia Praha</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -23266,7 +23276,7 @@
         <v>2007</v>
       </c>
       <c r="I520" s="2" t="n">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="J520" t="n">
         <v>260000</v>
@@ -23316,7 +23326,7 @@
         <v>46568</v>
       </c>
       <c r="J521" t="n">
-        <v>96000</v>
+        <v>670000</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -23464,7 +23474,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -23586,7 +23596,9 @@
           <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
-      <c r="F528" t="inlineStr"/>
+      <c r="F528" t="n">
+        <v>190</v>
+      </c>
       <c r="G528" t="inlineStr">
         <is>
           <t>Right</t>
@@ -23599,7 +23611,7 @@
         <v>46904</v>
       </c>
       <c r="J528" t="n">
-        <v>155000</v>
+        <v>360000</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -23729,10 +23741,16 @@
         <v>2006</v>
       </c>
       <c r="I531" s="2" t="n">
-        <v>46568</v>
-      </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>46203</v>
+      </c>
+      <c r="J531" t="n">
+        <v>97000</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -23842,10 +23860,18 @@
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr"/>
+      <c r="H534" t="n">
+        <v>2005</v>
+      </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>440000</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -24009,9 +24035,17 @@
       <c r="H538" t="n">
         <v>2007</v>
       </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="I538" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J538" t="n">
+        <v>255000</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -24019,17 +24053,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FK Voždovac</t>
+          <t>1. FC Slovácko</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -24049,10 +24083,10 @@
         <v>2005</v>
       </c>
       <c r="I539" s="2" t="n">
-        <v>46568</v>
+        <v>46203</v>
       </c>
       <c r="J539" t="n">
-        <v>260000</v>
+        <v>285000</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,9 +529,7 @@
       <c r="H2" t="n">
         <v>2006</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>46043</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>190000</v>
       </c>
@@ -3920,26 +3918,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Skeid</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2nd Division, Group 2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H80" t="n">
         <v>2007</v>
       </c>
@@ -4301,12 +4295,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Podbeskidzie Bielsko-Biała</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6187,19 +6181,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Brinje Grosuplje</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Club Friendly Games</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
+          <t>NK Vrhnika</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -6232,17 +6218,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7294,17 +7280,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BK Häcken</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7320,7 +7306,7 @@
         <v>2006</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>46387</v>
+        <v>47664</v>
       </c>
       <c r="J156" t="n">
         <v>315000</v>
@@ -8107,12 +8093,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Östers IF</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -11076,12 +11062,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Boldklubben af 1893</t>
+          <t>Viborg FF</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11094,7 +11080,9 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>179</v>
+      </c>
       <c r="G240" t="inlineStr">
         <is>
           <t>Right</t>
@@ -11104,7 +11092,7 @@
         <v>2004</v>
       </c>
       <c r="I240" s="2" t="n">
-        <v>46203</v>
+        <v>47664</v>
       </c>
       <c r="J240" t="n">
         <v>370000</v>
@@ -11215,12 +11203,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -11245,7 +11233,7 @@
         <v>2005</v>
       </c>
       <c r="I243" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J243" t="n">
         <v>390000</v>
@@ -12534,12 +12522,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FC Ajka</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -13109,17 +13097,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>IF Elfsborg</t>
+          <t>Real Racing Club</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Primera Federacion, Group 1</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -13139,7 +13127,7 @@
         <v>2006</v>
       </c>
       <c r="I285" s="2" t="n">
-        <v>47483</v>
+        <v>47664</v>
       </c>
       <c r="J285" t="n">
         <v>1600000</v>
@@ -13293,7 +13281,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Diósgyőri VTK II</t>
+          <t>Diósgyőri VTK II F4R</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14224,11 +14212,19 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
       <c r="E310" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -14241,7 +14237,9 @@
       <c r="H310" t="n">
         <v>2005</v>
       </c>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" s="2" t="n">
+        <v>46935</v>
+      </c>
       <c r="J310" t="n">
         <v>315000</v>
       </c>
@@ -14482,7 +14480,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>IK Sirius</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -16301,17 +16299,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -16331,7 +16329,7 @@
         <v>2004</v>
       </c>
       <c r="I359" s="2" t="n">
-        <v>46752</v>
+        <v>47299</v>
       </c>
       <c r="J359" t="n">
         <v>990000</v>
@@ -16475,17 +16473,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Djurgårdens IF</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16505,7 +16503,7 @@
         <v>2004</v>
       </c>
       <c r="I363" s="2" t="n">
-        <v>47118</v>
+        <v>48029</v>
       </c>
       <c r="J363" t="n">
         <v>1700000</v>
@@ -16867,19 +16865,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Boldklubben af 1893</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>CampoBet 2 Division</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>San Diego FC</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -18710,17 +18700,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>FC Dila Gori</t>
+          <t>Fath Union Sport</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>Botola Pro</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -18739,7 +18729,9 @@
       <c r="H416" t="n">
         <v>2005</v>
       </c>
-      <c r="I416" t="inlineStr"/>
+      <c r="I416" s="2" t="n">
+        <v>47664</v>
+      </c>
       <c r="J416" t="n">
         <v>165000</v>
       </c>
@@ -20245,17 +20237,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Lillestrøm SK</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -20275,7 +20267,7 @@
         <v>2005</v>
       </c>
       <c r="I451" s="2" t="n">
-        <v>47118</v>
+        <v>47299</v>
       </c>
       <c r="J451" t="n">
         <v>800000</v>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K541"/>
+  <dimension ref="A1:K543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,9 +891,7 @@
       <c r="H10" t="n">
         <v>2004</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>46203</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>145000</v>
       </c>
@@ -1517,7 +1515,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1545,7 @@
         <v>2004</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>46568</v>
+        <v>47483</v>
       </c>
       <c r="J25" t="n">
         <v>1300000</v>
@@ -2260,7 +2258,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Stjarnan Garðabær</t>
+          <t>FH Hafnarfjörður</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2284,7 +2282,7 @@
         <v>2004</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>46387</v>
+        <v>47483</v>
       </c>
       <c r="J42" t="n">
         <v>53000</v>
@@ -2301,12 +2299,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>IF Völsungur</t>
+          <t>KA Akureyri</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2. deild</t>
+          <t>Efsta deild</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2324,9 +2322,7 @@
       <c r="H43" t="n">
         <v>2006</v>
       </c>
-      <c r="I43" s="2" t="n">
-        <v>46053</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>23000</v>
       </c>
@@ -3546,12 +3542,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Stabæk Fotball</t>
+          <t>Fredrikstad FK</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3575,7 +3571,9 @@
       <c r="H72" t="n">
         <v>2005</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" s="2" t="n">
+        <v>47483</v>
+      </c>
       <c r="J72" t="n">
         <v>855000</v>
       </c>
@@ -5332,19 +5330,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FC Koper</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -5361,9 +5351,7 @@
       <c r="H112" t="n">
         <v>2005</v>
       </c>
-      <c r="I112" s="2" t="n">
-        <v>46752</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>47000</v>
       </c>
@@ -5502,7 +5490,9 @@
       <c r="H115" t="n">
         <v>2006</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" s="2" t="n">
+        <v>47664</v>
+      </c>
       <c r="J115" t="n">
         <v>155000</v>
       </c>
@@ -5548,7 +5538,7 @@
         <v>2004</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>46173</v>
+        <v>46538</v>
       </c>
       <c r="J116" t="n">
         <v>110000</v>
@@ -6392,7 +6382,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>No team</t>
+          <t>SU Dinamo Jug Vranje</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6515,17 +6505,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6545,7 +6535,7 @@
         <v>2005</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>46568</v>
+        <v>47664</v>
       </c>
       <c r="J139" t="n">
         <v>5300000</v>
@@ -6609,17 +6599,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FK Čukarički</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Liga Portugal Betclic</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6639,7 +6629,7 @@
         <v>2005</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J141" t="n">
         <v>420000</v>
@@ -6911,7 +6901,7 @@
         <v>2003</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J147" t="n">
         <v>715000</v>
@@ -6928,12 +6918,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FK Spartak Subotica</t>
+          <t>GFK Dubočica Leskovac</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6958,7 +6948,7 @@
         <v>2006</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>46387</v>
+        <v>46203</v>
       </c>
       <c r="J148" t="n">
         <v>630000</v>
@@ -7155,17 +7145,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>League One</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7185,7 +7175,7 @@
         <v>2003</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>46568</v>
+        <v>47299</v>
       </c>
       <c r="J153" t="n">
         <v>440000</v>
@@ -7525,7 +7515,7 @@
         <v>2004</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>46387</v>
+        <v>47299</v>
       </c>
       <c r="J161" t="n">
         <v>515000</v>
@@ -7542,17 +7532,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Queens Park Rangers U21</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Championship</t>
+          <t>Professional Development League</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>England Amateur</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7630,12 +7620,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7660,7 +7650,7 @@
         <v>2007</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>47483</v>
+        <v>46356</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -7671,12 +7661,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>IFK Haninge</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7700,7 +7690,9 @@
       <c r="H165" t="n">
         <v>2007</v>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" s="2" t="n">
+        <v>47483</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
     </row>
@@ -8123,7 +8115,7 @@
         <v>2004</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>46387</v>
+        <v>47483</v>
       </c>
       <c r="J175" t="n">
         <v>390000</v>
@@ -8433,19 +8425,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Örebro Syrianska BK</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Ettan, Norra</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>Sweden</t>
@@ -8456,9 +8440,7 @@
       <c r="H183" t="n">
         <v>2006</v>
       </c>
-      <c r="I183" s="2" t="n">
-        <v>46752</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
     </row>
@@ -8867,7 +8849,9 @@
       <c r="H192" t="n">
         <v>2004</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J192" t="n">
         <v>195000</v>
       </c>
@@ -9054,7 +9038,7 @@
         <v>2005</v>
       </c>
       <c r="I196" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J196" t="n">
         <v>485000</v>
@@ -9372,7 +9356,11 @@
       <c r="F203" t="n">
         <v>190</v>
       </c>
-      <c r="G203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H203" t="n">
         <v>2005</v>
       </c>
@@ -9535,17 +9523,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9564,7 +9552,9 @@
       <c r="H207" t="n">
         <v>2004</v>
       </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" s="2" t="n">
+        <v>47664</v>
+      </c>
       <c r="J207" t="n">
         <v>545000</v>
       </c>
@@ -10649,11 +10639,19 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+          <t>Hillerød Fodbold</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CampoBet 2 Division</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -10670,7 +10668,9 @@
       <c r="H231" t="n">
         <v>2004</v>
       </c>
-      <c r="I231" t="inlineStr"/>
+      <c r="I231" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J231" t="n">
         <v>475000</v>
       </c>
@@ -10921,17 +10921,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Rosenborg BK</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10951,7 +10951,7 @@
         <v>2005</v>
       </c>
       <c r="I237" s="2" t="n">
-        <v>46934</v>
+        <v>47848</v>
       </c>
       <c r="J237" t="n">
         <v>1200000</v>
@@ -11457,7 +11457,9 @@
       <c r="H248" t="n">
         <v>2004</v>
       </c>
-      <c r="I248" t="inlineStr"/>
+      <c r="I248" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J248" t="n">
         <v>155000</v>
       </c>
@@ -12190,7 +12192,9 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr"/>
+      <c r="F264" t="n">
+        <v>193</v>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
           <t>Right</t>
@@ -12264,17 +12268,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -12285,12 +12289,16 @@
       <c r="F266" t="n">
         <v>180</v>
       </c>
-      <c r="G266" t="inlineStr"/>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H266" t="n">
         <v>2006</v>
       </c>
       <c r="I266" s="2" t="n">
-        <v>46387</v>
+        <v>46203</v>
       </c>
       <c r="J266" t="n">
         <v>620000</v>
@@ -12548,7 +12556,7 @@
         <v>2007</v>
       </c>
       <c r="I272" s="2" t="n">
-        <v>46568</v>
+        <v>46934</v>
       </c>
       <c r="J272" t="n">
         <v>110000</v>
@@ -13302,7 +13310,11 @@
       <c r="F289" t="n">
         <v>183</v>
       </c>
-      <c r="G289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H289" t="n">
         <v>2007</v>
       </c>
@@ -13699,7 +13711,11 @@
       <c r="F298" t="n">
         <v>175</v>
       </c>
-      <c r="G298" t="inlineStr"/>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H298" t="n">
         <v>2006</v>
       </c>
@@ -13858,17 +13874,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Mjällby AIF</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -13888,7 +13904,7 @@
         <v>2004</v>
       </c>
       <c r="I302" s="2" t="n">
-        <v>46752</v>
+        <v>47848</v>
       </c>
       <c r="J302" t="n">
         <v>540000</v>
@@ -14237,9 +14253,7 @@
       <c r="H310" t="n">
         <v>2005</v>
       </c>
-      <c r="I310" s="2" t="n">
-        <v>46935</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>315000</v>
       </c>
@@ -14504,10 +14518,16 @@
         <v>2006</v>
       </c>
       <c r="I316" s="2" t="n">
-        <v>47483</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>47664</v>
+      </c>
+      <c r="J316" t="n">
+        <v>480000</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -15109,12 +15129,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15132,7 +15152,9 @@
       <c r="H331" t="n">
         <v>2005</v>
       </c>
-      <c r="I331" t="inlineStr"/>
+      <c r="I331" s="2" t="n">
+        <v>47483</v>
+      </c>
       <c r="J331" t="n">
         <v>210000</v>
       </c>
@@ -15177,7 +15199,9 @@
       <c r="H332" t="n">
         <v>2006</v>
       </c>
-      <c r="I332" t="inlineStr"/>
+      <c r="I332" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
     </row>
@@ -15846,7 +15870,7 @@
         <v>2006</v>
       </c>
       <c r="I348" s="2" t="n">
-        <v>46568</v>
+        <v>47118</v>
       </c>
       <c r="J348" t="n">
         <v>740000</v>
@@ -15992,17 +16016,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>Serie C, Group A</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -16109,7 +16133,9 @@
       <c r="H354" t="n">
         <v>2008</v>
       </c>
-      <c r="I354" t="inlineStr"/>
+      <c r="I354" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
     </row>
@@ -16369,7 +16395,9 @@
       <c r="H360" t="n">
         <v>2008</v>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
     </row>
@@ -16469,131 +16497,127 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Championship</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F363" t="n">
-        <v>187</v>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
       <c r="H363" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="I363" s="2" t="n">
-        <v>48029</v>
-      </c>
-      <c r="J363" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>46752</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>International Allies</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I364" s="2" t="n">
-        <v>46752</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>International Allies</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>175</v>
+      </c>
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="n">
         <v>2006</v>
       </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="I365" s="2" t="n">
+        <v>47118</v>
+      </c>
+      <c r="J365" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>BK Olympic</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Division 2, Sodra Gotaland</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -16603,40 +16627,36 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F366" t="n">
-        <v>175</v>
-      </c>
-      <c r="G366" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H366" t="n">
         <v>2006</v>
       </c>
       <c r="I366" s="2" t="n">
-        <v>47118</v>
-      </c>
-      <c r="J366" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>46387</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BK Olympic</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Division 2, Sodra Gotaland</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -16646,36 +16666,34 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr"/>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>187</v>
+      </c>
+      <c r="G367" t="inlineStr"/>
       <c r="H367" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I367" s="2" t="n">
-        <v>46387</v>
+        <v>46984</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -16685,40 +16703,52 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F368" t="n">
-        <v>187</v>
-      </c>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I368" s="2" t="n">
-        <v>46984</v>
+        <v>47483</v>
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr"/>
+          <t>IFK Stocksund</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Division 2, Norra Svealand</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>190</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H369" t="n">
         <v>2006</v>
       </c>
@@ -16728,30 +16758,30 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>IFK Stocksund</t>
+          <t>Viborg FF</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Division 2, Norra Svealand</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -16761,17 +16791,25 @@
       <c r="H370" t="n">
         <v>2006</v>
       </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="I370" s="2" t="n">
+        <v>47299</v>
+      </c>
+      <c r="J370" t="n">
+        <v>775000</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Viborg FF</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -16790,7 +16828,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -16801,10 +16839,10 @@
         <v>2006</v>
       </c>
       <c r="I371" s="2" t="n">
-        <v>47299</v>
+        <v>46934</v>
       </c>
       <c r="J371" t="n">
-        <v>775000</v>
+        <v>825000</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -16814,44 +16852,32 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Randers FC</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>Danish Superliga</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
+          <t>San Diego FC</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="F372" t="n">
-        <v>180</v>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G372" t="inlineStr"/>
       <c r="H372" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I372" s="2" t="n">
         <v>46934</v>
       </c>
       <c r="J372" t="n">
-        <v>825000</v>
+        <v>435000</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -16861,51 +16887,55 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
+          <t>Hammarby IF</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Allsvenskan</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F373" t="n">
-        <v>190</v>
-      </c>
-      <c r="G373" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H373" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I373" s="2" t="n">
-        <v>46934</v>
-      </c>
-      <c r="J373" t="n">
-        <v>435000</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>47848</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>Hammarby IF</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -16919,73 +16949,73 @@
         </is>
       </c>
       <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="G374" t="inlineStr"/>
       <c r="H374" t="n">
         <v>2006</v>
       </c>
       <c r="I374" s="2" t="n">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Allsvenskan</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>Stal II Rzeszów</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr"/>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>178</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H375" t="n">
         <v>2006</v>
       </c>
-      <c r="I375" s="2" t="n">
-        <v>46752</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Stal II Rzeszów</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
+          <t>Flamurtari FC</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Kategoria e Pare, Group B</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -16993,24 +17023,30 @@
         </is>
       </c>
       <c r="H376" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>360000</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Flamurtari FC</t>
+          <t>FK Partizani</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Kategoria e Pare, Group B</t>
+          <t>Kategoria Superiore</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -17020,23 +17056,25 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H377" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>2004</v>
+      </c>
+      <c r="I377" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J377" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -17046,11 +17084,11 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>FK Partizani</t>
+          <t>KF Bylis</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -17065,68 +17103,60 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
-        </is>
-      </c>
-      <c r="F378" t="n">
-        <v>165</v>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
       <c r="H378" t="n">
-        <v>2004</v>
-      </c>
-      <c r="I378" s="2" t="n">
-        <v>47299</v>
-      </c>
-      <c r="J378" t="n">
-        <v>320000</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>KF Bylis</t>
+          <t>FC Alashkert</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Kategoria Superiore</t>
+          <t>Fastex Premier League</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>49000</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -17148,14 +17178,20 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr"/>
+      <c r="F380" t="n">
+        <v>182</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H380" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>49000</v>
+        <v>160000</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -17165,11 +17201,11 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>FC Alashkert</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -17184,23 +17220,19 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>182</v>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G381" t="inlineStr"/>
       <c r="H381" t="n">
         <v>2006</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>160000</v>
+        <v>205000</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -17210,38 +17242,40 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>K. Beerschot V.A.</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Fastex Premier League</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="F382" t="n">
-        <v>187</v>
-      </c>
-      <c r="G382" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H382" t="n">
         <v>2006</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>205000</v>
+        <v>320000</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -17251,40 +17285,44 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>K. Beerschot V.A.</t>
+          <t>NK Široki Brijeg</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Pro League</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr"/>
+          <t>Bosnia &amp;amp; Herzegovina</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>185</v>
+      </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H383" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>2005</v>
+      </c>
+      <c r="I383" s="2" t="n">
+        <v>46904</v>
+      </c>
       <c r="J383" t="n">
-        <v>320000</v>
+        <v>105000</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -17294,11 +17332,11 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NK Široki Brijeg</t>
+          <t>FK Željezničar</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -17317,7 +17355,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -17325,13 +17363,13 @@
         </is>
       </c>
       <c r="H384" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I384" s="2" t="n">
         <v>46904</v>
       </c>
       <c r="J384" t="n">
-        <v>105000</v>
+        <v>190000</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -17341,11 +17379,11 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>FK Željezničar</t>
+          <t>FK Velež Mostar</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -17364,21 +17402,21 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H385" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I385" s="2" t="n">
-        <v>46904</v>
+        <v>46385</v>
       </c>
       <c r="J385" t="n">
-        <v>190000</v>
+        <v>290000</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -17388,11 +17426,11 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>FK Velež Mostar</t>
+          <t>FK Radnik Bijeljina</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -17410,36 +17448,22 @@
           <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
-      <c r="F386" t="n">
-        <v>195</v>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
       <c r="H386" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I386" s="2" t="n">
-        <v>46385</v>
-      </c>
-      <c r="J386" t="n">
-        <v>290000</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>FK Radnik Bijeljina</t>
+          <t>FK Rudar Prijedor</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -17458,52 +17482,66 @@
         </is>
       </c>
       <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H387" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="I387" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J387" t="n">
+        <v>140000</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>FK Rudar Prijedor</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>WWIN Liga BiH</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr"/>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>185</v>
+      </c>
       <c r="G388" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H388" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I388" s="2" t="n">
         <v>46203</v>
       </c>
       <c r="J388" t="n">
-        <v>140000</v>
+        <v>27000</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -17513,16 +17551,16 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Bulgarian Cup</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -17536,7 +17574,7 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -17544,13 +17582,13 @@
         </is>
       </c>
       <c r="H389" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I389" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J389" t="n">
-        <v>27000</v>
+        <v>520000</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -17560,16 +17598,16 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Bulgarian Cup</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -17582,77 +17620,85 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="F390" t="n">
-        <v>181</v>
-      </c>
+      <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H390" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I390" s="2" t="n">
         <v>46568</v>
       </c>
-      <c r="J390" t="n">
-        <v>520000</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
+          <t>FK Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Treta Liga - SI</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Bulgaria Amateur</t>
+        </is>
+      </c>
       <c r="E391" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr"/>
+      <c r="F391" t="n">
+        <v>187</v>
+      </c>
       <c r="G391" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H391" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I391" s="2" t="n">
-        <v>46568</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>46203</v>
+      </c>
+      <c r="J391" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>FK Dunav Ruse</t>
+          <t>FC Minyor Pernik</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Treta Liga - SI</t>
+          <t>Vtora Liga</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Bulgaria Amateur</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -17661,7 +17707,7 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -17671,11 +17717,9 @@
       <c r="H392" t="n">
         <v>2006</v>
       </c>
-      <c r="I392" s="2" t="n">
-        <v>46203</v>
-      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -17685,89 +17729,81 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>FC Minyor Pernik</t>
+          <t>Botev Plovdiv U19</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Club Friendly Games</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="F393" t="n">
-        <v>180</v>
-      </c>
+      <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H393" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>90000</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Botev Plovdiv U19</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>Club Friendly Games</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
+          <t>PFC CSKA II Sofia</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="F394" t="inlineStr"/>
+      <c r="F394" t="n">
+        <v>185</v>
+      </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H394" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>49000</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -17782,19 +17818,21 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H395" t="n">
         <v>2007</v>
       </c>
-      <c r="I395" t="inlineStr"/>
+      <c r="I395" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J395" t="n">
-        <v>49000</v>
+        <v>53000</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -17804,7 +17842,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -17819,21 +17857,21 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H396" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I396" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J396" t="n">
-        <v>53000</v>
+        <v>110000</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -17843,15 +17881,23 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>PFC CSKA II Sofia</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
+          <t>PFK Montana 1921</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Vtora Liga</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="E397" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -17862,7 +17908,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H397" t="n">
@@ -17872,7 +17918,7 @@
         <v>46203</v>
       </c>
       <c r="J397" t="n">
-        <v>110000</v>
+        <v>97000</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -17882,16 +17928,16 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>PFK Montana 1921</t>
+          <t>FC CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Vtora Liga</t>
+          <t>Parva Liga</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -17905,21 +17951,21 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H398" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="I398" s="2" t="n">
-        <v>46203</v>
+        <v>46934</v>
       </c>
       <c r="J398" t="n">
-        <v>97000</v>
+        <v>310000</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -17929,30 +17975,30 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>FC CSKA 1948 Sofia</t>
+          <t>FK Budućnost Podgorica</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Parva Liga</t>
+          <t>Montenegrin First League</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -17963,10 +18009,10 @@
         <v>2008</v>
       </c>
       <c r="I399" s="2" t="n">
-        <v>46934</v>
+        <v>46387</v>
       </c>
       <c r="J399" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -17976,31 +18022,29 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>FK Budućnost Podgorica</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Montenegrin First League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="F400" t="n">
-        <v>175</v>
-      </c>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr">
         <is>
           <t>Right</t>
@@ -18010,10 +18054,10 @@
         <v>2008</v>
       </c>
       <c r="I400" s="2" t="n">
-        <v>46387</v>
+        <v>46568</v>
       </c>
       <c r="J400" t="n">
-        <v>160000</v>
+        <v>47000</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -18023,66 +18067,58 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>AGF Aarhus U19</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Denmark U19 League</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
+          <t>Denmark Amateur</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>Iceland</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H401" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I401" s="2" t="n">
-        <v>46568</v>
-      </c>
-      <c r="J401" t="n">
-        <v>47000</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>AGF Aarhus U19</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Denmark U19 League</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Denmark Amateur</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -18090,31 +18126,41 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F402" t="inlineStr"/>
+      <c r="F402" t="n">
+        <v>180</v>
+      </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H402" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="I402" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J402" t="n">
+        <v>370000</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Odense Boldklub</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -18128,7 +18174,7 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -18139,10 +18185,10 @@
         <v>2006</v>
       </c>
       <c r="I403" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J403" t="n">
-        <v>370000</v>
+        <v>935000</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -18152,11 +18198,11 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Odense Boldklub</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -18171,11 +18217,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -18183,13 +18229,13 @@
         </is>
       </c>
       <c r="H404" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I404" s="2" t="n">
-        <v>46568</v>
+        <v>47664</v>
       </c>
       <c r="J404" t="n">
-        <v>935000</v>
+        <v>515000</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -18199,7 +18245,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -18218,25 +18264,19 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F405" t="n">
-        <v>180</v>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
       <c r="H405" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I405" s="2" t="n">
-        <v>47664</v>
+        <v>47299</v>
       </c>
       <c r="J405" t="n">
-        <v>515000</v>
+        <v>320000</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -18246,7 +18286,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -18265,19 +18305,23 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr"/>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H406" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I406" s="2" t="n">
-        <v>47299</v>
+        <v>47664</v>
       </c>
       <c r="J406" t="n">
-        <v>320000</v>
+        <v>365000</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -18287,11 +18331,11 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -18306,23 +18350,25 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F407" t="inlineStr"/>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>190</v>
+      </c>
       <c r="G407" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
       <c r="H407" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="I407" s="2" t="n">
-        <v>47664</v>
+        <v>47299</v>
       </c>
       <c r="J407" t="n">
-        <v>365000</v>
+        <v>27000</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -18332,11 +18378,11 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>FC Nordsjælland</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -18351,25 +18397,25 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H408" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I408" s="2" t="n">
-        <v>47299</v>
+        <v>47848</v>
       </c>
       <c r="J408" t="n">
-        <v>27000</v>
+        <v>480000</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -18379,16 +18425,16 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>FC Nordsjælland</t>
+          <t>AC Horsens</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Betinia Liga</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -18401,22 +18447,16 @@
           <t>Ghana</t>
         </is>
       </c>
-      <c r="F409" t="n">
-        <v>186</v>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
       <c r="H409" t="n">
         <v>2006</v>
       </c>
       <c r="I409" s="2" t="n">
-        <v>47848</v>
+        <v>47118</v>
       </c>
       <c r="J409" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -18426,7 +18466,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -18445,19 +18485,25 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>188</v>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H410" t="n">
         <v>2006</v>
       </c>
       <c r="I410" s="2" t="n">
-        <v>47118</v>
+        <v>46934</v>
       </c>
       <c r="J410" t="n">
-        <v>240000</v>
+        <v>660000</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -18467,11 +18513,11 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>Esbjerg FB</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -18486,25 +18532,25 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H411" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I411" s="2" t="n">
-        <v>46934</v>
+        <v>46752</v>
       </c>
       <c r="J411" t="n">
-        <v>660000</v>
+        <v>110000</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -18514,16 +18560,16 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Esbjerg FB</t>
+          <t>Hillerød Fodbold</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>CampoBet 2 Division</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -18537,21 +18583,17 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>180</v>
-      </c>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G412" t="inlineStr"/>
       <c r="H412" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I412" s="2" t="n">
-        <v>46752</v>
+        <v>46568</v>
       </c>
       <c r="J412" t="n">
-        <v>110000</v>
+        <v>380000</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -18561,40 +18603,44 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Hillerød Fodbold</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>CampoBet 2 Division</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>200</v>
-      </c>
-      <c r="G413" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H413" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I413" s="2" t="n">
-        <v>46568</v>
+        <v>47118</v>
       </c>
       <c r="J413" t="n">
-        <v>380000</v>
+        <v>93000</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -18604,44 +18650,42 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>FC Dila Gori</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Erovnuli Liga</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H414" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I414" s="2" t="n">
-        <v>47118</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>93000</v>
+        <v>190000</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -18651,30 +18695,30 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>FC Dila Gori</t>
+          <t>Fath Union Sport</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>Botola Pro</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Congo Republic</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -18684,9 +18728,11 @@
       <c r="H415" t="n">
         <v>2005</v>
       </c>
-      <c r="I415" t="inlineStr"/>
+      <c r="I415" s="2" t="n">
+        <v>47664</v>
+      </c>
       <c r="J415" t="n">
-        <v>190000</v>
+        <v>165000</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -18696,30 +18742,30 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Fath Union Sport</t>
+          <t>FC Dila Gori</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Botola Pro</t>
+          <t>Erovnuli Liga</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Congo Republic</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -18727,13 +18773,13 @@
         </is>
       </c>
       <c r="H416" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I416" s="2" t="n">
-        <v>47664</v>
+        <v>46386</v>
       </c>
       <c r="J416" t="n">
-        <v>165000</v>
+        <v>320000</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -18743,16 +18789,16 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>FC Dila Gori</t>
+          <t>FC Gagra</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -18762,11 +18808,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -18774,13 +18820,11 @@
         </is>
       </c>
       <c r="H417" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I417" s="2" t="n">
-        <v>46386</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>320000</v>
+        <v>155000</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -18790,16 +18834,16 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>FC Gagra</t>
+          <t>FC Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Erovnuli Liga 2</t>
+          <t>Erovnuli Liga</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -18809,11 +18853,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -18821,21 +18865,17 @@
         </is>
       </c>
       <c r="H418" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="I418" s="2" t="n">
+        <v>46763</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -18857,30 +18897,34 @@
           <t>Georgia</t>
         </is>
       </c>
-      <c r="F419" t="n">
-        <v>166</v>
-      </c>
+      <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H419" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="I419" s="2" t="n">
-        <v>46763</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>46752</v>
+      </c>
+      <c r="J419" t="n">
+        <v>330000</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>FC Torpedo Kutaisi</t>
+          <t>FC Iberia 1999</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -18898,20 +18942,22 @@
           <t>Georgia</t>
         </is>
       </c>
-      <c r="F420" t="inlineStr"/>
+      <c r="F420" t="n">
+        <v>170</v>
+      </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H420" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="I420" s="2" t="n">
-        <v>46752</v>
+        <v>46387</v>
       </c>
       <c r="J420" t="n">
-        <v>330000</v>
+        <v>135000</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -18921,16 +18967,16 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>FC Kolkheti-1913 Poti</t>
+          <t>FC Iberia 1999</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Liga 3</t>
+          <t>Erovnuli Liga</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -18944,19 +18990,19 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H421" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -18966,42 +19012,38 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>FC Iberia 1999</t>
+          <t>NK Osijek</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F422" t="n">
-        <v>183</v>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
       <c r="H422" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="I422" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J422" t="n">
-        <v>105000</v>
+        <v>54000</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -19011,7 +19053,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -19033,16 +19075,22 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr"/>
+      <c r="F423" t="n">
+        <v>184</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H423" t="n">
         <v>2006</v>
       </c>
       <c r="I423" s="2" t="n">
-        <v>47299</v>
+        <v>46934</v>
       </c>
       <c r="J423" t="n">
-        <v>54000</v>
+        <v>310000</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -19052,44 +19100,44 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NK Osijek</t>
+          <t>HNK Rijeka U19</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Kvarnerska Rivijera</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
       <c r="F424" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H424" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I424" s="2" t="n">
         <v>46934</v>
       </c>
       <c r="J424" t="n">
-        <v>310000</v>
+        <v>54000</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -19099,21 +19147,21 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>HNK Rijeka U19</t>
+          <t>HNK Vukovar 1991</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Kvarnerska Rivijera</t>
+          <t>3. HNL, East</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -19121,22 +19169,16 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="F425" t="n">
-        <v>187</v>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
       <c r="H425" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I425" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J425" t="n">
-        <v>54000</v>
+        <v>210000</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -19146,16 +19188,16 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>HNK Vukovar 1991</t>
+          <t>NK Slaven Belupo</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>3. HNL, East</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -19168,16 +19210,22 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
+      <c r="F426" t="n">
+        <v>170</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H426" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I426" s="2" t="n">
-        <v>46203</v>
+        <v>46388</v>
       </c>
       <c r="J426" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -19187,11 +19235,11 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NK Slaven Belupo</t>
+          <t>NK Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -19206,25 +19254,19 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F427" t="n">
-        <v>170</v>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
       <c r="H427" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="I427" s="2" t="n">
-        <v>46388</v>
+        <v>47299</v>
       </c>
       <c r="J427" t="n">
-        <v>320000</v>
+        <v>1000000</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -19234,7 +19276,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -19253,19 +19295,19 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="I428" s="2" t="n">
-        <v>47299</v>
+        <v>46203</v>
       </c>
       <c r="J428" t="n">
-        <v>1000000</v>
+        <v>320000</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -19275,11 +19317,11 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NK Lokomotiva Zagreb</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -19294,19 +19336,23 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H429" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I429" s="2" t="n">
-        <v>46203</v>
+        <v>47299</v>
       </c>
       <c r="J429" t="n">
-        <v>320000</v>
+        <v>155000</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -19316,7 +19362,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -19335,23 +19381,25 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>190</v>
+      </c>
       <c r="G430" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H430" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="I430" s="2" t="n">
-        <v>47299</v>
+        <v>46568</v>
       </c>
       <c r="J430" t="n">
-        <v>155000</v>
+        <v>370000</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -19361,30 +19409,30 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NK Istra 1961 U19</t>
+          <t>NK Istra 1961</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Kvarnerska Rivijera</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -19392,21 +19440,27 @@
         </is>
       </c>
       <c r="H431" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I431" s="2" t="n">
-        <v>46568</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>47299</v>
+      </c>
+      <c r="J431" t="n">
+        <v>440000</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -19421,22 +19475,16 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F432" t="n">
-        <v>188</v>
-      </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
       <c r="H432" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I432" s="2" t="n">
-        <v>47299</v>
+        <v>46203</v>
       </c>
       <c r="J432" t="n">
         <v>440000</v>
@@ -19449,16 +19497,16 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>NK Rudeš</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>1. NL</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -19471,16 +19519,22 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="F433" t="n">
+        <v>190</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H433" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I433" s="2" t="n">
-        <v>46203</v>
+        <v>46553</v>
       </c>
       <c r="J433" t="n">
-        <v>440000</v>
+        <v>115000</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -19490,16 +19544,16 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NK Rudeš</t>
+          <t>NK Jarun</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>1. NL</t>
+          <t>3. HNL, Center</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -19509,74 +19563,62 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>190</v>
-      </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G434" t="inlineStr"/>
       <c r="H434" t="n">
         <v>2006</v>
       </c>
-      <c r="I434" s="2" t="n">
-        <v>46553</v>
-      </c>
-      <c r="J434" t="n">
-        <v>115000</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NK Jarun</t>
+          <t>ÍA Akranes</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>3. HNL, Center</t>
+          <t>Efsta deild</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
-        </is>
-      </c>
-      <c r="F435" t="n">
-        <v>173</v>
-      </c>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>2008</v>
+      </c>
+      <c r="I435" s="2" t="n">
+        <v>46342</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ÍA Akranes</t>
+          <t>KR Reykjavík</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -19594,100 +19636,112 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr"/>
+      <c r="F436" t="n">
+        <v>186</v>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H436" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I436" s="2" t="n">
-        <v>46342</v>
+        <v>47483</v>
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>KR Reykjavík</t>
+          <t>CD Tudelano</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Efsta deild</t>
+          <t>Primera Federacion, Group 1</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="F437" t="n">
-        <v>186</v>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
       <c r="H437" t="n">
         <v>2006</v>
       </c>
       <c r="I437" s="2" t="n">
-        <v>47483</v>
+        <v>46203</v>
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CD Tudelano</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Primera Federacion, Group 1</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>165</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H438" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I438" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>47299</v>
+      </c>
+      <c r="J438" t="n">
+        <v>875000</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Puskás Akadémia</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -19706,7 +19760,7 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -19717,10 +19771,10 @@
         <v>2005</v>
       </c>
       <c r="I439" s="2" t="n">
-        <v>47299</v>
+        <v>46934</v>
       </c>
       <c r="J439" t="n">
-        <v>875000</v>
+        <v>420000</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -19730,44 +19784,42 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Puskás Akadémia</t>
+          <t>Sandefjord Fotball</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F440" t="n">
-        <v>183</v>
-      </c>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H440" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I440" s="2" t="n">
-        <v>46934</v>
+        <v>47118</v>
       </c>
       <c r="J440" t="n">
-        <v>420000</v>
+        <v>555000</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -19777,11 +19829,11 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Sandefjord Fotball</t>
+          <t>Tromsø IL</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -19796,23 +19848,21 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H441" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I441" s="2" t="n">
-        <v>47118</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>555000</v>
+        <v>260000</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -19822,16 +19872,16 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tromsø IL</t>
+          <t>Hødd IL</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -19841,7 +19891,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -19851,21 +19901,17 @@
         </is>
       </c>
       <c r="H442" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>260000</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="I442" s="2" t="n">
+        <v>46387</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -19887,28 +19933,36 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F443" t="inlineStr"/>
+      <c r="F443" t="n">
+        <v>183</v>
+      </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H443" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I443" s="2" t="n">
-        <v>46599</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>47118</v>
+      </c>
+      <c r="J443" t="n">
+        <v>515000</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tromsø IL</t>
+          <t>Viking FK</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -19927,21 +19981,21 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H444" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I444" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J444" t="n">
-        <v>515000</v>
+        <v>620000</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -19951,16 +20005,16 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Viking FK</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -19974,21 +20028,21 @@
         </is>
       </c>
       <c r="F445" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H445" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I445" s="2" t="n">
-        <v>47118</v>
+        <v>46588</v>
       </c>
       <c r="J445" t="n">
-        <v>620000</v>
+        <v>105000</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -19998,16 +20052,16 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Kristiansund BK</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -20021,7 +20075,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -20029,13 +20083,13 @@
         </is>
       </c>
       <c r="H446" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="I446" s="2" t="n">
-        <v>46588</v>
+        <v>47118</v>
       </c>
       <c r="J446" t="n">
-        <v>105000</v>
+        <v>625000</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -20045,11 +20099,11 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Kristiansund BK</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -20068,7 +20122,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -20076,13 +20130,13 @@
         </is>
       </c>
       <c r="H447" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I447" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J447" t="n">
-        <v>625000</v>
+        <v>365000</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -20092,16 +20146,16 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesunds FK</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -20115,7 +20169,7 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -20123,13 +20177,13 @@
         </is>
       </c>
       <c r="H448" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I448" s="2" t="n">
-        <v>47118</v>
+        <v>46934</v>
       </c>
       <c r="J448" t="n">
-        <v>365000</v>
+        <v>515000</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -20139,16 +20193,16 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Aalesunds FK</t>
+          <t>Hødd IL</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -20162,7 +20216,7 @@
         </is>
       </c>
       <c r="F449" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -20170,13 +20224,13 @@
         </is>
       </c>
       <c r="H449" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I449" s="2" t="n">
-        <v>46934</v>
+        <v>46387</v>
       </c>
       <c r="J449" t="n">
-        <v>515000</v>
+        <v>180000</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -20186,44 +20240,44 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Hødd IL</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2nd Division, Group 1</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H450" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I450" s="2" t="n">
-        <v>46387</v>
+        <v>47299</v>
       </c>
       <c r="J450" t="n">
-        <v>180000</v>
+        <v>800000</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -20233,44 +20287,42 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Lillestrøm SK</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Pro League</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H451" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I451" s="2" t="n">
-        <v>47299</v>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>800000</v>
+        <v>155000</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -20280,7 +20332,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -20299,21 +20351,19 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>175</v>
-      </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G452" t="inlineStr"/>
       <c r="H452" t="n">
         <v>2007</v>
       </c>
-      <c r="I452" t="inlineStr"/>
+      <c r="I452" s="2" t="n">
+        <v>46965</v>
+      </c>
       <c r="J452" t="n">
         <v>155000</v>
       </c>
@@ -20325,7 +20375,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -20348,17 +20398,21 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>190</v>
-      </c>
-      <c r="G453" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H453" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="I453" s="2" t="n">
-        <v>46965</v>
+        <v>46752</v>
       </c>
       <c r="J453" t="n">
-        <v>155000</v>
+        <v>860000</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -20368,16 +20422,16 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Lillestrøm SK</t>
+          <t>Lyn FK</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>3rd Division, Group 4</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -20391,7 +20445,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -20399,13 +20453,13 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I454" s="2" t="n">
-        <v>46752</v>
+        <v>46965</v>
       </c>
       <c r="J454" t="n">
-        <v>860000</v>
+        <v>275000</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -20415,30 +20469,30 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Lyn FK</t>
+          <t>Royale Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>3rd Division, Group 4</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -20446,13 +20500,13 @@
         </is>
       </c>
       <c r="H455" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I455" s="2" t="n">
-        <v>46965</v>
+        <v>47664</v>
       </c>
       <c r="J455" t="n">
-        <v>275000</v>
+        <v>660000</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -20462,63 +20516,49 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Royale Union Saint-Gilloise</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Pro League</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="F456" t="n">
-        <v>196</v>
-      </c>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I456" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="J456" t="n">
-        <v>660000</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -20528,56 +20568,66 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>185</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H457" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>720000</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Sandecja Nowy Sącz</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>185</v>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I458" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J458" t="n">
-        <v>720000</v>
+        <v>195000</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -20587,16 +20637,16 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Sandecja Nowy Sącz</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -20610,17 +20660,17 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I459" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="J459" t="n">
-        <v>195000</v>
+        <v>340000</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -20630,11 +20680,11 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -20653,11 +20703,15 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>194</v>
-      </c>
-      <c r="G460" t="inlineStr"/>
+        <v>172</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H460" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I460" s="2" t="n">
         <v>46568</v>
@@ -20673,11 +20727,11 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Wisła Kraków</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -20696,21 +20750,21 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H461" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I461" s="2" t="n">
         <v>46568</v>
       </c>
       <c r="J461" t="n">
-        <v>340000</v>
+        <v>545000</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -20720,7 +20774,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -20743,11 +20797,11 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H462" t="n">
@@ -20757,7 +20811,7 @@
         <v>46568</v>
       </c>
       <c r="J462" t="n">
-        <v>545000</v>
+        <v>1600000</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -20767,44 +20821,44 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Wisła Kraków</t>
+          <t>FK Austria Wien</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H463" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I463" s="2" t="n">
-        <v>46568</v>
+        <v>47664</v>
       </c>
       <c r="J463" t="n">
-        <v>1600000</v>
+        <v>970000</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -20814,7 +20868,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -20837,21 +20891,21 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H464" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="I464" s="2" t="n">
         <v>46934</v>
       </c>
       <c r="J464" t="n">
-        <v>970000</v>
+        <v>1100000</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -20861,36 +20915,32 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FK Austria Wien</t>
+          <t>First Vienna FC</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Regionalliga Ost</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
+          <t>Austria Amateur</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="F465" t="n">
-        <v>198</v>
-      </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="n">
         <v>2008</v>
       </c>
@@ -20898,7 +20948,7 @@
         <v>46934</v>
       </c>
       <c r="J465" t="n">
-        <v>1100000</v>
+        <v>54000</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -20908,21 +20958,21 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>First Vienna FC</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Regionalliga Ost</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Austria Amateur</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -20931,17 +20981,19 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>175</v>
-      </c>
-      <c r="G466" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H466" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I466" s="2" t="n">
-        <v>46934</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>54000</v>
+        <v>140000</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -20951,11 +21003,11 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -20970,23 +21022,25 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H467" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>2008</v>
+      </c>
+      <c r="I467" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J467" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -20996,7 +21050,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -21015,25 +21069,17 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
-        </is>
-      </c>
-      <c r="F468" t="n">
-        <v>182</v>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="n">
         <v>2008</v>
       </c>
-      <c r="I468" s="2" t="n">
-        <v>46934</v>
-      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -21043,7 +21089,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -21065,14 +21111,22 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="F469" t="n">
+        <v>190</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H469" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I469" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J469" t="n">
-        <v>135000</v>
+        <v>210000</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -21082,44 +21136,44 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>FC Dinamo București</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H470" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I470" s="2" t="n">
-        <v>46568</v>
+        <v>47299</v>
       </c>
       <c r="J470" t="n">
-        <v>210000</v>
+        <v>1100000</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -21129,16 +21183,16 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>FC Dinamo București</t>
+          <t>FC Universitatea Cluj</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>Liga II</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -21148,25 +21202,19 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="F471" t="n">
-        <v>192</v>
-      </c>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
       <c r="H471" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="I471" s="2" t="n">
-        <v>47299</v>
+        <v>46568</v>
       </c>
       <c r="J471" t="n">
-        <v>1100000</v>
+        <v>110000</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -21176,16 +21224,16 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj</t>
+          <t>CFR 1907 Cluj</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -21199,15 +21247,19 @@
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H472" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I472" s="2" t="n">
-        <v>46568</v>
+        <v>47299</v>
       </c>
       <c r="J472" t="n">
-        <v>110000</v>
+        <v>430000</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -21217,11 +21269,11 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj</t>
+          <t>FC Botoșani</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -21239,20 +21291,22 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F473" t="inlineStr"/>
+      <c r="F473" t="n">
+        <v>175</v>
+      </c>
       <c r="G473" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H473" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I473" s="2" t="n">
         <v>47299</v>
       </c>
       <c r="J473" t="n">
-        <v>430000</v>
+        <v>315000</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -21262,16 +21316,16 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>FC Botoșani</t>
+          <t>FC Farul Constanța U19</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Superliga</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -21284,41 +21338,27 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F474" t="n">
-        <v>175</v>
-      </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="n">
         <v>2007</v>
       </c>
-      <c r="I474" s="2" t="n">
-        <v>47299</v>
-      </c>
-      <c r="J474" t="n">
-        <v>315000</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>FC Farul Constanța U19</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -21332,68 +21372,68 @@
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H475" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>225000</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>Superliga</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
+          <t>Chindia Târgoviște U19</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>225000</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Chindia Târgoviște U19</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr"/>
+          <t>Steaua București</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Liga II</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="E477" t="inlineStr">
         <is>
           <t>Romania</t>
@@ -21402,44 +21442,58 @@
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Steaua București</t>
+          <t>DAC 1904</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Niké Liga</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>173</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H478" t="n">
         <v>2007</v>
       </c>
-      <c r="I478" t="inlineStr"/>
+      <c r="I478" s="2" t="n">
+        <v>47299</v>
+      </c>
       <c r="J478" t="n">
-        <v>190000</v>
+        <v>385000</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -21449,7 +21503,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -21472,21 +21526,17 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>173</v>
-      </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G479" t="inlineStr"/>
       <c r="H479" t="n">
         <v>2007</v>
       </c>
       <c r="I479" s="2" t="n">
-        <v>47299</v>
+        <v>46934</v>
       </c>
       <c r="J479" t="n">
-        <v>385000</v>
+        <v>360000</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -21496,7 +21546,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -21515,35 +21565,25 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F480" t="n">
-        <v>180</v>
-      </c>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
       <c r="H480" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I480" s="2" t="n">
-        <v>46934</v>
-      </c>
-      <c r="J480" t="n">
-        <v>360000</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DAC 1904</t>
+          <t>AS Trenčín</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -21558,54 +21598,66 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
-        </is>
-      </c>
-      <c r="F481" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>193</v>
+      </c>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="I481" s="2" t="n">
+        <v>46934</v>
+      </c>
+      <c r="J481" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AS Trenčín</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Niké Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
           <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>Croatia</t>
         </is>
       </c>
       <c r="F482" t="n">
         <v>193</v>
       </c>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H482" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I482" s="2" t="n">
-        <v>46934</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>155000</v>
+        <v>410000</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -21615,42 +21667,42 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>NK Maribor</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F483" t="n">
-        <v>193</v>
-      </c>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H483" t="n">
-        <v>2004</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>2008</v>
+      </c>
+      <c r="I483" s="2" t="n">
+        <v>46904</v>
+      </c>
       <c r="J483" t="n">
-        <v>410000</v>
+        <v>280000</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -21660,7 +21712,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -21682,20 +21734,22 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr"/>
+      <c r="F484" t="n">
+        <v>182</v>
+      </c>
       <c r="G484" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
       <c r="H484" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I484" s="2" t="n">
         <v>46904</v>
       </c>
       <c r="J484" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -21705,11 +21759,11 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>NŠ Mura</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -21727,22 +21781,20 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="F485" t="n">
-        <v>182</v>
-      </c>
+      <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H485" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I485" s="2" t="n">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="J485" t="n">
-        <v>290000</v>
+        <v>215000</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -21752,16 +21804,16 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NŠ Mura</t>
+          <t>ND Primorje</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -21771,23 +21823,25 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F486" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>169</v>
+      </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H486" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I486" s="2" t="n">
-        <v>46173</v>
+        <v>46934</v>
       </c>
       <c r="J486" t="n">
-        <v>215000</v>
+        <v>93000</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -21797,16 +21851,16 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ND Primorje</t>
+          <t>NK Olimpija Ljubljana</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2nd SNL</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -21816,25 +21870,23 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F487" t="n">
-        <v>169</v>
-      </c>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H487" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I487" s="2" t="n">
-        <v>46934</v>
+        <v>46903</v>
       </c>
       <c r="J487" t="n">
-        <v>93000</v>
+        <v>53000</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -21844,42 +21896,42 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>PrvaLiga</t>
+          <t>Liga Portugal 2</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr"/>
+      <c r="F488" t="n">
+        <v>180</v>
+      </c>
       <c r="G488" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
       <c r="H488" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I488" s="2" t="n">
-        <v>46903</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>53000</v>
+        <v>165000</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -21889,34 +21941,44 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+          <t>NK Domžale</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H489" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I489" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="J489" t="n">
-        <v>165000</v>
+        <v>155000</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -21926,106 +21988,98 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>PrvaLiga</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
+          <t>Bologna U20</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F490" t="n">
-        <v>195</v>
-      </c>
+      <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H490" t="n">
         <v>2007</v>
       </c>
-      <c r="I490" s="2" t="n">
-        <v>46081</v>
-      </c>
-      <c r="J490" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Bologna U20</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr"/>
-      <c r="D491" t="inlineStr"/>
+          <t>ND Bilje</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>2nd SNL</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E491" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="n">
+        <v>187</v>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H491" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>2008</v>
+      </c>
+      <c r="I491" s="2" t="n">
+        <v>46600</v>
+      </c>
+      <c r="J491" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ND Bilje</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>2nd SNL</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr">
+          <t>ND Slovan</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
       <c r="F492" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -22033,13 +22087,13 @@
         </is>
       </c>
       <c r="H492" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I492" s="2" t="n">
-        <v>46600</v>
+        <v>46630</v>
       </c>
       <c r="J492" t="n">
-        <v>90000</v>
+        <v>24000</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -22049,22 +22103,30 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ND Slovan</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+          <t>FK Vojvodina U19</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>U19 League</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -22072,11 +22134,13 @@
         </is>
       </c>
       <c r="H493" t="n">
-        <v>2007</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>2008</v>
+      </c>
+      <c r="I493" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J493" t="n">
-        <v>24000</v>
+        <v>310000</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -22086,16 +22150,16 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>FK Vojvodina U19</t>
+          <t>FK Čukarički</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -22109,7 +22173,7 @@
         </is>
       </c>
       <c r="F494" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -22117,13 +22181,13 @@
         </is>
       </c>
       <c r="H494" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I494" s="2" t="n">
-        <v>46934</v>
+        <v>46568</v>
       </c>
       <c r="J494" t="n">
-        <v>310000</v>
+        <v>105000</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -22133,7 +22197,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -22156,7 +22220,7 @@
         </is>
       </c>
       <c r="F495" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -22164,13 +22228,13 @@
         </is>
       </c>
       <c r="H495" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I495" s="2" t="n">
         <v>46568</v>
       </c>
       <c r="J495" t="n">
-        <v>105000</v>
+        <v>1100000</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -22180,11 +22244,11 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>FK Čukarički</t>
+          <t>FK Mladost Lučani</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -22203,21 +22267,21 @@
         </is>
       </c>
       <c r="F496" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H496" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I496" s="2" t="n">
-        <v>46568</v>
+        <v>46203</v>
       </c>
       <c r="J496" t="n">
-        <v>1100000</v>
+        <v>755000</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -22227,69 +22291,63 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>FK Mladost Lučani</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
+          <t>FK TSC Bačka Topola U19</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
       <c r="F497" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H497" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="I497" s="2" t="n">
-        <v>46203</v>
-      </c>
-      <c r="J497" t="n">
-        <v>755000</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>46262</v>
+      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>FK TSC Bačka Topola U19</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+          <t>FK TSC Bačka Topola</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -22297,54 +22355,60 @@
         </is>
       </c>
       <c r="H498" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I498" s="2" t="n">
-        <v>46262</v>
-      </c>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>46726</v>
+      </c>
+      <c r="J498" t="n">
+        <v>620000</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>FK TSC Bačka Topola</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H499" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="I499" s="2" t="n">
-        <v>46726</v>
+        <v>46387</v>
       </c>
       <c r="J499" t="n">
-        <v>620000</v>
+        <v>160000</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -22354,11 +22418,11 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>IFK Norrköping</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -22373,25 +22437,25 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H500" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I500" s="2" t="n">
-        <v>46387</v>
+        <v>47483</v>
       </c>
       <c r="J500" t="n">
-        <v>160000</v>
+        <v>49000</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -22401,11 +22465,11 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>Malmö FF</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -22420,21 +22484,35 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>181</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H501" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I501" s="2" t="n">
+        <v>47118</v>
+      </c>
+      <c r="J501" t="n">
+        <v>365000</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -22453,11 +22531,11 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F502" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -22465,13 +22543,13 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I502" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J502" t="n">
-        <v>365000</v>
+        <v>580000</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -22481,7 +22559,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -22500,11 +22578,11 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F503" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -22512,13 +22590,13 @@
         </is>
       </c>
       <c r="H503" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I503" s="2" t="n">
         <v>47118</v>
       </c>
       <c r="J503" t="n">
-        <v>580000</v>
+        <v>565000</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -22528,30 +22606,30 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Malmö FF</t>
+          <t>FC Aarau</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Challenge League</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F504" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -22559,13 +22637,13 @@
         </is>
       </c>
       <c r="H504" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I504" s="2" t="n">
-        <v>47118</v>
+        <v>47299</v>
       </c>
       <c r="J504" t="n">
-        <v>565000</v>
+        <v>680000</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -22575,11 +22653,11 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>FC Aarau</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -22598,7 +22676,7 @@
         </is>
       </c>
       <c r="F505" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -22606,13 +22684,11 @@
         </is>
       </c>
       <c r="H505" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I505" s="2" t="n">
-        <v>47299</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>680000</v>
+        <v>540000</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -22622,11 +22698,11 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Yverdon-Sport FC</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -22641,11 +22717,11 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="F506" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -22653,11 +22729,13 @@
         </is>
       </c>
       <c r="H506" t="n">
-        <v>2009</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>2005</v>
+      </c>
+      <c r="I506" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J506" t="n">
-        <v>540000</v>
+        <v>190000</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -22667,44 +22745,44 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Yverdon-Sport FC</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Challenge League</t>
+          <t>Ukraine Cup</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F507" t="n">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H507" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I507" s="2" t="n">
-        <v>46203</v>
+        <v>46934</v>
       </c>
       <c r="J507" t="n">
-        <v>190000</v>
+        <v>980000</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -22714,16 +22792,16 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>FC Metalist Kharkiv</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Ukraine Cup</t>
+          <t>Persha Liga</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -22733,25 +22811,25 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F508" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H508" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="I508" s="2" t="n">
-        <v>46934</v>
+        <v>47664</v>
       </c>
       <c r="J508" t="n">
-        <v>980000</v>
+        <v>825000</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -22761,44 +22839,44 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>FC Metalist Kharkiv</t>
+          <t>IK Sirius</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Persha Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F509" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H509" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="I509" s="2" t="n">
-        <v>47664</v>
+        <v>47483</v>
       </c>
       <c r="J509" t="n">
-        <v>825000</v>
+        <v>680000</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -22808,44 +22886,44 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>IK Sirius</t>
+          <t>Wisła Kraków</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Ekstraklasa</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F510" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="H510" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="I510" s="2" t="n">
-        <v>47483</v>
+        <v>46568</v>
       </c>
       <c r="J510" t="n">
-        <v>680000</v>
+        <v>370000</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -22855,44 +22933,44 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Wisła Kraków</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Ekstraklasa</t>
+          <t>Superettan</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F511" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H511" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I511" s="2" t="n">
-        <v>46568</v>
+        <v>47483</v>
       </c>
       <c r="J511" t="n">
-        <v>370000</v>
+        <v>235000</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -22902,44 +22980,40 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F512" t="n">
-        <v>190</v>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G512" t="inlineStr"/>
       <c r="H512" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="I512" s="2" t="n">
-        <v>46568</v>
+        <v>46934</v>
       </c>
       <c r="J512" t="n">
-        <v>235000</v>
+        <v>95000</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -22949,73 +23023,71 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>FCI Levadia Tallinn U21</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Esiliiga</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="F513" t="n">
-        <v>195</v>
-      </c>
-      <c r="G513" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H513" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I513" s="2" t="n">
-        <v>46934</v>
-      </c>
-      <c r="J513" t="n">
-        <v>95000</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>46387</v>
+      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>FC Nomme United U19</t>
+          <t>Pogoń Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>II Liga</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F514" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -23023,38 +23095,44 @@
         </is>
       </c>
       <c r="H514" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>330000</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Pogoń Grodzisk Mazowiecki</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>II Liga</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="F515" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -23062,11 +23140,13 @@
         </is>
       </c>
       <c r="H515" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>2004</v>
+      </c>
+      <c r="I515" s="2" t="n">
+        <v>46568</v>
+      </c>
       <c r="J515" t="n">
-        <v>330000</v>
+        <v>475000</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -23076,30 +23156,30 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Mozzart Bet Prva Liga</t>
+          <t>Amateur Cup</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F516" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -23107,13 +23187,11 @@
         </is>
       </c>
       <c r="H516" t="n">
-        <v>2004</v>
-      </c>
-      <c r="I516" s="2" t="n">
-        <v>46568</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>475000</v>
+        <v>285000</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -23123,77 +23201,65 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Flora Tallinn U21</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Amateur Cup</t>
+          <t>Esiliiga</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F517" t="n">
-        <v>185</v>
-      </c>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>285000</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Flora Tallinn U21</t>
+          <t>Kisvárda FC</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Esiliiga</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -23201,63 +23267,77 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Kisvárda FC</t>
+          <t>Bohemians Praha 1905</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>184</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H519" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="I519" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J519" t="n">
+        <v>260000</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SK Slavia Praha</t>
+          <t>MZKS Arka Gdynia</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>I liga</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F520" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -23265,13 +23345,13 @@
         </is>
       </c>
       <c r="H520" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="I520" s="2" t="n">
-        <v>47848</v>
+        <v>46568</v>
       </c>
       <c r="J520" t="n">
-        <v>260000</v>
+        <v>670000</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -23281,44 +23361,38 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>MZKS Arka Gdynia</t>
+          <t>Kety Emmi Bistrica</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>I liga</t>
+          <t>Slovenia Cup</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F521" t="n">
-        <v>182</v>
-      </c>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="n">
-        <v>2004</v>
-      </c>
-      <c r="I521" s="2" t="n">
-        <v>46568</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>670000</v>
+        <v>165000</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -23328,145 +23402,153 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Kety Emmi Bistrica</t>
+          <t>Brattvåg</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Slovenia Cup</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F522" t="n">
-        <v>188</v>
-      </c>
-      <c r="G522" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H522" t="n">
         <v>2005</v>
       </c>
-      <c r="I522" t="inlineStr"/>
+      <c r="I522" s="2" t="n">
+        <v>46387</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Brattvåg</t>
+          <t>Hammarby Talang FF</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2nd Division, Group 1</t>
+          <t>Ettan, Norra</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F523" t="n">
-        <v>175</v>
-      </c>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="H523" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I523" s="2" t="n">
-        <v>46387</v>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
+          <t>KF Bylis</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Ettan, Norra</t>
+          <t>Kategoria Superiore</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr"/>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>190</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H524" t="n">
+        <v>2005</v>
+      </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>260000</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>KF Bylis</t>
+          <t>SV Ried</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Kategoria Superiore</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F525" t="n">
-        <v>190</v>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="n">
         <v>2005</v>
       </c>
-      <c r="I525" t="inlineStr"/>
+      <c r="I525" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J525" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -23476,16 +23558,16 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SV Ried</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>2. Liga</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -23495,21 +23577,25 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F526" t="n">
-        <v>172</v>
-      </c>
-      <c r="G526" t="inlineStr"/>
+        <v>171</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H526" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I526" s="2" t="n">
-        <v>46934</v>
+        <v>46203</v>
       </c>
       <c r="J526" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -23519,30 +23605,30 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>FC Slovan Liberec</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2. Liga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="F527" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -23553,10 +23639,10 @@
         <v>2006</v>
       </c>
       <c r="I527" s="2" t="n">
-        <v>46203</v>
+        <v>47664</v>
       </c>
       <c r="J527" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -23566,30 +23652,30 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>FC Slovan Liberec</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F528" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -23597,13 +23683,13 @@
         </is>
       </c>
       <c r="H528" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I528" s="2" t="n">
-        <v>46904</v>
+        <v>46934</v>
       </c>
       <c r="J528" t="n">
-        <v>360000</v>
+        <v>710000</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -23613,44 +23699,40 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>AC Oulu</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F529" t="n">
-        <v>186</v>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I529" s="2" t="n">
-        <v>46934</v>
+        <v>46387</v>
       </c>
       <c r="J529" t="n">
-        <v>710000</v>
+        <v>155000</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -23660,40 +23742,40 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>AC Oulu</t>
+          <t>Budafoki MTE</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>NB II</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F530" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G530" t="inlineStr"/>
       <c r="H530" t="n">
         <v>2006</v>
       </c>
       <c r="I530" s="2" t="n">
-        <v>46387</v>
+        <v>46203</v>
       </c>
       <c r="J530" t="n">
-        <v>155000</v>
+        <v>97000</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -23703,40 +23785,38 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Budafoki MTE</t>
+          <t>Thróttur Reykjavík</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>1 deild</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F531" t="n">
-        <v>187</v>
-      </c>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="n">
         <v>2006</v>
       </c>
       <c r="I531" s="2" t="n">
-        <v>46203</v>
+        <v>46387</v>
       </c>
       <c r="J531" t="n">
-        <v>97000</v>
+        <v>120000</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -23746,11 +23826,11 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Thróttur Reykjavík</t>
+          <t>Þór Akureyri</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -23771,13 +23851,13 @@
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
       <c r="H532" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I532" s="2" t="n">
         <v>46387</v>
       </c>
       <c r="J532" t="n">
-        <v>120000</v>
+        <v>79000</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -23787,38 +23867,42 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Þór Akureyri</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>1 deild</t>
+          <t>Pro League</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H533" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="I533" s="2" t="n">
-        <v>46387</v>
+        <v>47299</v>
       </c>
       <c r="J533" t="n">
-        <v>79000</v>
+        <v>440000</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -23828,11 +23912,11 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Den Bosch</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -23847,17 +23931,25 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>178</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H534" t="n">
         <v>2005</v>
       </c>
-      <c r="I534" t="inlineStr"/>
+      <c r="I534" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J534" t="n">
-        <v>440000</v>
+        <v>430000</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -23867,11 +23959,11 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>FC Den Bosch</t>
+          <t>Almere City FC</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -23886,11 +23978,11 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F535" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
@@ -23901,10 +23993,10 @@
         <v>2005</v>
       </c>
       <c r="I535" s="2" t="n">
-        <v>46934</v>
+        <v>46568</v>
       </c>
       <c r="J535" t="n">
-        <v>430000</v>
+        <v>515000</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -23914,63 +24006,49 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Almere City FC</t>
+          <t>FC Universitatea Cluj U19</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F536" t="n">
-        <v>184</v>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="n">
-        <v>2005</v>
-      </c>
-      <c r="I536" s="2" t="n">
-        <v>46568</v>
-      </c>
-      <c r="J536" t="n">
-        <v>515000</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj U19</t>
+          <t>FC Corvinul Hunedoara</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Liga III Seria 9</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -23983,55 +24061,69 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
+      <c r="F537" t="n">
+        <v>170</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H537" t="n">
         <v>2007</v>
       </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="I537" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J537" t="n">
+        <v>255000</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FC Corvinul Hunedoara</t>
+          <t>1. FC Slovácko</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Liga III Seria 9</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F538" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H538" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I538" s="2" t="n">
         <v>46203</v>
       </c>
       <c r="J538" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -24041,30 +24133,30 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>1. FC Slovácko</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Czech First League</t>
+          <t>Srpska Liga Zapad</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="F539" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G539" t="inlineStr">
         <is>
@@ -24072,13 +24164,13 @@
         </is>
       </c>
       <c r="H539" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="I539" s="2" t="n">
         <v>46203</v>
       </c>
       <c r="J539" t="n">
-        <v>285000</v>
+        <v>120000</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -24088,44 +24180,36 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>Triglav Kranj</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Srpska Liga Zapad</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="F540" t="n">
-        <v>182</v>
-      </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
       <c r="H540" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I540" s="2" t="n">
-        <v>46203</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>120000</v>
+        <v>27000</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -24135,38 +24219,124 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Triglav Kranj</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2nd SNL</t>
+          <t>Mozzart Bet Prva Liga</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr"/>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>190</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H541" t="n">
-        <v>2006</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>2005</v>
+      </c>
+      <c r="I541" s="2" t="n">
+        <v>46934</v>
+      </c>
       <c r="J541" t="n">
-        <v>27000</v>
+        <v>970000</v>
       </c>
       <c r="K541" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>625</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>RFS</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Virsliga</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>DR Congo</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>626</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>FK Železiarne Podbrezová</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>2. Liga</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H543" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I543" s="2" t="n">
+        <v>46934</v>
+      </c>
+      <c r="J543" t="n">
+        <v>570000</v>
+      </c>
+      <c r="K543" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -500,12 +500,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FK Borac Banja Luka</t>
+          <t>FK Rudar Prijedor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>WWIN Liga BiH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5991,19 +5991,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Kety Emmi Bistrica</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Slovenia Cup</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -6347,12 +6339,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FK Vojvodina U19</t>
+          <t>FK Radnički 1923</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6371,7 +6363,7 @@
         <v>2007</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>46517</v>
+        <v>47299</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -7532,17 +7524,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Professional Development League</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>England Amateur</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7577,7 +7569,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Halmstads BK</t>
+          <t>Malmö FF</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7603,7 +7595,7 @@
         <v>2007</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>46203</v>
+        <v>47848</v>
       </c>
       <c r="J163" t="n">
         <v>1000000</v>
@@ -7745,26 +7737,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hammarby Talang FF</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Ettan, Norra</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H167" t="n">
         <v>2006</v>
       </c>
@@ -10359,17 +10347,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11297,17 +11285,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>IFK Norrköping</t>
+          <t>Viborg FF</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11323,7 +11311,7 @@
         <v>2003</v>
       </c>
       <c r="I245" s="2" t="n">
-        <v>46387</v>
+        <v>46203</v>
       </c>
       <c r="J245" t="n">
         <v>660000</v>
@@ -11706,17 +11694,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>League One</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -12174,7 +12162,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FC Fredericia</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -12204,7 +12192,7 @@
         <v>2004</v>
       </c>
       <c r="I264" s="2" t="n">
-        <v>46934</v>
+        <v>47118</v>
       </c>
       <c r="J264" t="n">
         <v>23000</v>
@@ -12268,17 +12256,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>1. FSV Mainz 05</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Veikkausliiga</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -12573,12 +12561,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -12602,9 +12590,7 @@
       <c r="H273" t="n">
         <v>2005</v>
       </c>
-      <c r="I273" s="2" t="n">
-        <v>47118</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>515000</v>
       </c>
@@ -12886,11 +12872,19 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
+          <t>KF Ballkani</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Kosovo FA Cup</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -12907,7 +12901,9 @@
       <c r="H280" t="n">
         <v>2004</v>
       </c>
-      <c r="I280" t="inlineStr"/>
+      <c r="I280" s="2" t="n">
+        <v>46203</v>
+      </c>
       <c r="J280" t="n">
         <v>145000</v>
       </c>
@@ -13017,17 +13013,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Landskrona BoIS</t>
+          <t>Fredrikstad FK</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Superettan</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -13041,7 +13037,7 @@
         <v>2005</v>
       </c>
       <c r="I283" s="2" t="n">
-        <v>46752</v>
+        <v>47848</v>
       </c>
       <c r="J283" t="n">
         <v>845000</v>
@@ -13506,17 +13502,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Djurgårdens IF</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Betinia Liga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -13536,7 +13532,7 @@
         <v>2004</v>
       </c>
       <c r="I294" s="2" t="n">
-        <v>46203</v>
+        <v>47483</v>
       </c>
       <c r="J294" t="n">
         <v>825000</v>
@@ -14965,11 +14961,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pärnu JK Vaprus U21</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="E327" t="inlineStr">
         <is>
           <t>Estonia</t>
@@ -15887,17 +15891,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Hammarby IF</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Allsvenskan</t>
+          <t>Serie C, Group A</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -17106,14 +17110,28 @@
           <t>Tunisia</t>
         </is>
       </c>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr"/>
+      <c r="F378" t="n">
+        <v>188</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H378" t="n">
         <v>2006</v>
       </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="I378" s="2" t="n">
+        <v>46934</v>
+      </c>
+      <c r="J378" t="n">
+        <v>46000</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -18071,17 +18089,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AGF Aarhus U19</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Denmark U19 League</t>
+          <t>Eerste Divisie</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Denmark Amateur</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -18098,7 +18116,9 @@
       <c r="H401" t="n">
         <v>2007</v>
       </c>
-      <c r="I401" t="inlineStr"/>
+      <c r="I401" s="2" t="n">
+        <v>47664</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
     </row>
@@ -19057,17 +19077,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NK Osijek</t>
+          <t>FK Sarajevo</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Cup</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -19087,7 +19107,7 @@
         <v>2006</v>
       </c>
       <c r="I423" s="2" t="n">
-        <v>46934</v>
+        <v>46397</v>
       </c>
       <c r="J423" t="n">
         <v>310000</v>
@@ -19321,17 +19341,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
+          <t>FK Sarajevo</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>Cup</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bosnia &amp;amp; Herzegovina</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -19349,7 +19369,7 @@
         <v>2005</v>
       </c>
       <c r="I429" s="2" t="n">
-        <v>47299</v>
+        <v>46402</v>
       </c>
       <c r="J429" t="n">
         <v>155000</v>
@@ -22107,12 +22127,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FK Vojvodina U19</t>
+          <t>FK Vojvodina</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>U19 League</t>
+          <t>Mozzart Bet Superliga</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -22295,11 +22315,19 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>FK TSC Bačka Topola U19</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr"/>
+          <t>FK TSC Bačka Topola</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Mozzart Bet Superliga</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="E497" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -23406,12 +23434,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Brattvåg</t>
+          <t>Molde FK</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2nd Division, Group 1</t>
+          <t>Eliteserien</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -23436,7 +23464,7 @@
         <v>2005</v>
       </c>
       <c r="I522" s="2" t="n">
-        <v>46387</v>
+        <v>47118</v>
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
@@ -23460,11 +23488,21 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>192</v>
+      </c>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr"/>
-      <c r="I523" t="inlineStr"/>
+      <c r="H523" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I523" s="2" t="n">
+        <v>46356</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
     </row>

--- a/players_profiles.xlsx
+++ b/players_profiles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,57 +426,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>tournament</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>tournament_country</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>nationality</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>height_cm</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>preferred_foot</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>birth_year</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contract_until</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>market_value</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>market_currency</t>
         </is>
@@ -619,7 +607,7 @@
       <c r="H4" t="n">
         <v>2005</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>46174</v>
       </c>
       <c r="J4" t="n">
@@ -666,7 +654,7 @@
       <c r="H5" t="n">
         <v>2004</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J5" t="n">
@@ -713,8 +701,8 @@
       <c r="H6" t="n">
         <v>2005</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>46203</v>
+      <c r="I6" s="1" t="n">
+        <v>46752</v>
       </c>
       <c r="J6" t="n">
         <v>315000</v>
@@ -760,7 +748,7 @@
       <c r="H7" t="n">
         <v>2005</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J7" t="n">
@@ -844,7 +832,7 @@
       <c r="H9" t="n">
         <v>2004</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J9" t="n">
@@ -936,7 +924,7 @@
       <c r="H11" t="n">
         <v>2005</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J11" t="n">
@@ -983,7 +971,7 @@
       <c r="H12" t="n">
         <v>2004</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J12" t="n">
@@ -1030,7 +1018,7 @@
       <c r="H13" t="n">
         <v>2006</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J13" t="n">
@@ -1077,7 +1065,7 @@
       <c r="H14" t="n">
         <v>2005</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J14" t="n">
@@ -1095,32 +1083,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SV Licht-Loidl Lafnitz</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2. Liga</t>
+          <t>Stars League</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>176</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>2005</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" s="1" t="n">
+        <v>46203</v>
+      </c>
+      <c r="J15" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1157,7 +1159,7 @@
       <c r="H16" t="n">
         <v>2004</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J16" t="n">
@@ -1204,7 +1206,7 @@
       <c r="H17" t="n">
         <v>2004</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J17" t="n">
@@ -1241,7 +1243,7 @@
       <c r="H18" t="n">
         <v>2007</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1315,7 +1317,7 @@
       <c r="H20" t="n">
         <v>2003</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J20" t="n">
@@ -1362,7 +1364,7 @@
       <c r="H21" t="n">
         <v>2005</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J21" t="n">
@@ -1409,7 +1411,7 @@
       <c r="H22" t="n">
         <v>2003</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J22" t="n">
@@ -1456,7 +1458,7 @@
       <c r="H23" t="n">
         <v>2006</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J23" t="n">
@@ -1503,7 +1505,7 @@
       <c r="H24" t="n">
         <v>2007</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1544,7 +1546,7 @@
       <c r="H25" t="n">
         <v>2004</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J25" t="n">
@@ -1591,7 +1593,7 @@
       <c r="H26" t="n">
         <v>2003</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J26" t="n">
@@ -1638,7 +1640,7 @@
       <c r="H27" t="n">
         <v>2004</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J27" t="n">
@@ -1730,7 +1732,7 @@
       <c r="H29" t="n">
         <v>2004</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="1" t="n">
         <v>46538</v>
       </c>
       <c r="J29" t="n">
@@ -1775,7 +1777,7 @@
       <c r="H30" t="n">
         <v>2007</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J30" t="n">
@@ -1853,7 +1855,7 @@
       <c r="H32" t="n">
         <v>2004</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J32" t="n">
@@ -1945,7 +1947,7 @@
       <c r="H34" t="n">
         <v>2004</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J34" t="n">
@@ -1988,7 +1990,7 @@
       <c r="H35" t="n">
         <v>2005</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <v>46199</v>
       </c>
       <c r="J35" t="n">
@@ -2070,7 +2072,7 @@
       <c r="H37" t="n">
         <v>2004</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J37" t="n">
@@ -2117,7 +2119,7 @@
       <c r="H38" t="n">
         <v>2006</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J38" t="n">
@@ -2162,7 +2164,7 @@
       <c r="H39" t="n">
         <v>2005</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J39" t="n">
@@ -2203,7 +2205,7 @@
       <c r="H40" t="n">
         <v>2006</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <v>46342</v>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2240,7 +2242,7 @@
       <c r="H41" t="n">
         <v>2005</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J41" t="n">
@@ -2281,7 +2283,7 @@
       <c r="H42" t="n">
         <v>2004</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J42" t="n">
@@ -2412,7 +2414,7 @@
       <c r="H45" t="n">
         <v>2005</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J45" t="n">
@@ -2504,7 +2506,7 @@
       <c r="H47" t="n">
         <v>2003</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J47" t="n">
@@ -2650,7 +2652,7 @@
       <c r="H51" t="n">
         <v>2004</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J51" t="n">
@@ -2697,8 +2699,8 @@
       <c r="H52" t="n">
         <v>2003</v>
       </c>
-      <c r="I52" s="2" t="n">
-        <v>46934</v>
+      <c r="I52" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J52" t="n">
         <v>1400000</v>
@@ -2793,12 +2795,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VVV-Venlo</t>
+          <t>Jong VVV-Venlo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>Reservecompetitie, 2nd Stage, Group A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2865,12 +2867,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VVV-Venlo</t>
+          <t>Jong VVV-Venlo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Eerste Divisie</t>
+          <t>Reservecompetitie, 2nd Stage, Group A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2894,9 +2896,7 @@
       <c r="H57" t="n">
         <v>2005</v>
       </c>
-      <c r="I57" s="2" t="n">
-        <v>46203</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>120000</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="H58" t="n">
         <v>2007</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J58" t="n">
@@ -2988,7 +2988,7 @@
       <c r="H59" t="n">
         <v>2003</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J59" t="n">
@@ -3035,7 +3035,7 @@
       <c r="H60" t="n">
         <v>2005</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J60" t="n">
@@ -3082,8 +3082,8 @@
       <c r="H61" t="n">
         <v>2005</v>
       </c>
-      <c r="I61" s="2" t="n">
-        <v>46387</v>
+      <c r="I61" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J61" t="n">
         <v>470000</v>
@@ -3129,7 +3129,7 @@
       <c r="H62" t="n">
         <v>2004</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J62" t="n">
@@ -3176,7 +3176,7 @@
       <c r="H63" t="n">
         <v>2005</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J63" t="n">
@@ -3223,7 +3223,7 @@
       <c r="H64" t="n">
         <v>2005</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J64" t="n">
@@ -3315,7 +3315,7 @@
       <c r="H66" t="n">
         <v>2005</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J66" t="n">
@@ -3362,7 +3362,7 @@
       <c r="H67" t="n">
         <v>2004</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="1" t="n">
         <v>46234</v>
       </c>
       <c r="J67" t="n">
@@ -3442,7 +3442,7 @@
       <c r="H69" t="n">
         <v>2005</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J69" t="n">
@@ -3487,7 +3487,7 @@
       <c r="H70" t="n">
         <v>2007</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="1" t="n">
         <v>47330</v>
       </c>
       <c r="J70" t="n">
@@ -3571,7 +3571,7 @@
       <c r="H72" t="n">
         <v>2005</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J72" t="n">
@@ -3663,7 +3663,7 @@
       <c r="H74" t="n">
         <v>2006</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J74" t="n">
@@ -3710,7 +3710,7 @@
       <c r="H75" t="n">
         <v>2006</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J75" t="n">
@@ -3757,7 +3757,7 @@
       <c r="H76" t="n">
         <v>2005</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J76" t="n">
@@ -3804,7 +3804,7 @@
       <c r="H77" t="n">
         <v>2006</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J77" t="n">
@@ -3851,7 +3851,7 @@
       <c r="H78" t="n">
         <v>2006</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J78" t="n">
@@ -3898,7 +3898,7 @@
       <c r="H79" t="n">
         <v>2006</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="1" t="n">
         <v>46234</v>
       </c>
       <c r="J79" t="n">
@@ -3974,7 +3974,7 @@
       <c r="H81" t="n">
         <v>2006</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J81" t="n">
@@ -4021,7 +4021,7 @@
       <c r="H82" t="n">
         <v>2006</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J82" t="n">
@@ -4068,7 +4068,7 @@
       <c r="H83" t="n">
         <v>2004</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J83" t="n">
@@ -4109,7 +4109,7 @@
       <c r="H84" t="n">
         <v>2007</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4150,7 +4150,7 @@
       <c r="H85" t="n">
         <v>2005</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J85" t="n">
@@ -4197,7 +4197,7 @@
       <c r="H86" t="n">
         <v>2005</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J86" t="n">
@@ -4275,7 +4275,7 @@
       <c r="H88" t="n">
         <v>2004</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J88" t="n">
@@ -4322,7 +4322,7 @@
       <c r="H89" t="n">
         <v>2006</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J89" t="n">
@@ -4363,7 +4363,7 @@
       <c r="H90" t="n">
         <v>2005</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4404,7 +4404,7 @@
       <c r="H91" t="n">
         <v>2005</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J91" t="n">
@@ -4451,7 +4451,7 @@
       <c r="H92" t="n">
         <v>2006</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J92" t="n">
@@ -4494,7 +4494,7 @@
       <c r="H93" t="n">
         <v>2005</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J93" t="n">
@@ -4529,7 +4529,7 @@
       <c r="H94" t="n">
         <v>2004</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J94" t="n">
@@ -4576,7 +4576,7 @@
       <c r="H95" t="n">
         <v>2004</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J95" t="n">
@@ -4668,7 +4668,7 @@
       <c r="H97" t="n">
         <v>2003</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J97" t="n">
@@ -4715,7 +4715,7 @@
       <c r="H98" t="n">
         <v>2004</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J98" t="n">
@@ -4807,7 +4807,7 @@
       <c r="H100" t="n">
         <v>2006</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J100" t="n">
@@ -4897,7 +4897,7 @@
       <c r="H102" t="n">
         <v>2004</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J102" t="n">
@@ -4944,7 +4944,7 @@
       <c r="H103" t="n">
         <v>2005</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J103" t="n">
@@ -4991,7 +4991,7 @@
       <c r="H104" t="n">
         <v>2007</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J104" t="n">
@@ -5038,7 +5038,7 @@
       <c r="H105" t="n">
         <v>2005</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J105" t="n">
@@ -5085,7 +5085,7 @@
       <c r="H106" t="n">
         <v>2003</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J106" t="n">
@@ -5265,7 +5265,7 @@
       <c r="H110" t="n">
         <v>2005</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J110" t="n">
@@ -5312,7 +5312,7 @@
       <c r="H111" t="n">
         <v>2004</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J111" t="n">
@@ -5396,7 +5396,7 @@
       <c r="H113" t="n">
         <v>2003</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J113" t="n">
@@ -5443,7 +5443,7 @@
       <c r="H114" t="n">
         <v>2005</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J114" t="n">
@@ -5490,7 +5490,7 @@
       <c r="H115" t="n">
         <v>2006</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J115" t="n">
@@ -5537,7 +5537,7 @@
       <c r="H116" t="n">
         <v>2004</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="1" t="n">
         <v>46538</v>
       </c>
       <c r="J116" t="n">
@@ -5584,7 +5584,7 @@
       <c r="H117" t="n">
         <v>2005</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J117" t="n">
@@ -5719,7 +5719,7 @@
       <c r="H120" t="n">
         <v>2006</v>
       </c>
-      <c r="I120" s="2" t="n">
+      <c r="I120" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J120" t="n">
@@ -5766,7 +5766,7 @@
       <c r="H121" t="n">
         <v>2004</v>
       </c>
-      <c r="I121" s="2" t="n">
+      <c r="I121" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J121" t="n">
@@ -5813,7 +5813,7 @@
       <c r="H122" t="n">
         <v>2004</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J122" t="n">
@@ -5852,7 +5852,7 @@
       <c r="H123" t="n">
         <v>2004</v>
       </c>
-      <c r="I123" s="2" t="n">
+      <c r="I123" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J123" t="n">
@@ -5899,7 +5899,7 @@
       <c r="H124" t="n">
         <v>2003</v>
       </c>
-      <c r="I124" s="2" t="n">
+      <c r="I124" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J124" t="n">
@@ -5936,7 +5936,7 @@
       <c r="H125" t="n">
         <v>2006</v>
       </c>
-      <c r="I125" s="2" t="n">
+      <c r="I125" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J125" t="n">
@@ -5954,11 +5954,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+          <t>Ilirija 1911</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2nd SNL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -5991,11 +5999,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>No team</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+          <t>Ilirija 1911</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2nd SNL</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>Slovenia</t>
@@ -6100,7 +6116,7 @@
       <c r="H129" t="n">
         <v>2004</v>
       </c>
-      <c r="I129" s="2" t="n">
+      <c r="I129" s="1" t="n">
         <v>46173</v>
       </c>
       <c r="J129" t="n">
@@ -6145,7 +6161,7 @@
       <c r="H130" t="n">
         <v>2005</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="I130" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J130" t="n">
@@ -6229,7 +6245,7 @@
       <c r="H132" t="n">
         <v>2005</v>
       </c>
-      <c r="I132" s="2" t="n">
+      <c r="I132" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J132" t="n">
@@ -6321,7 +6337,7 @@
       <c r="H134" t="n">
         <v>2003</v>
       </c>
-      <c r="I134" s="2" t="n">
+      <c r="I134" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J134" t="n">
@@ -6357,12 +6373,14 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>179</v>
+      </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>2007</v>
       </c>
-      <c r="I135" s="2" t="n">
+      <c r="I135" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6395,7 +6413,9 @@
       <c r="H136" t="n">
         <v>2006</v>
       </c>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" s="1" t="n">
+        <v>46203</v>
+      </c>
       <c r="J136" t="n">
         <v>120000</v>
       </c>
@@ -6432,7 +6452,7 @@
       <c r="H137" t="n">
         <v>2004</v>
       </c>
-      <c r="I137" s="2" t="n">
+      <c r="I137" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J137" t="n">
@@ -6479,7 +6499,7 @@
       <c r="H138" t="n">
         <v>2005</v>
       </c>
-      <c r="I138" s="2" t="n">
+      <c r="I138" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J138" t="n">
@@ -6526,7 +6546,7 @@
       <c r="H139" t="n">
         <v>2005</v>
       </c>
-      <c r="I139" s="2" t="n">
+      <c r="I139" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J139" t="n">
@@ -6573,7 +6593,7 @@
       <c r="H140" t="n">
         <v>2006</v>
       </c>
-      <c r="I140" s="2" t="n">
+      <c r="I140" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J140" t="n">
@@ -6620,7 +6640,7 @@
       <c r="H141" t="n">
         <v>2005</v>
       </c>
-      <c r="I141" s="2" t="n">
+      <c r="I141" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J141" t="n">
@@ -6667,7 +6687,7 @@
       <c r="H142" t="n">
         <v>2004</v>
       </c>
-      <c r="I142" s="2" t="n">
+      <c r="I142" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J142" t="n">
@@ -6706,7 +6726,7 @@
       <c r="H143" t="n">
         <v>2006</v>
       </c>
-      <c r="I143" s="2" t="n">
+      <c r="I143" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J143" t="n">
@@ -6798,7 +6818,7 @@
       <c r="H145" t="n">
         <v>2005</v>
       </c>
-      <c r="I145" s="2" t="n">
+      <c r="I145" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J145" t="n">
@@ -6845,7 +6865,7 @@
       <c r="H146" t="n">
         <v>2004</v>
       </c>
-      <c r="I146" s="2" t="n">
+      <c r="I146" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J146" t="n">
@@ -6892,7 +6912,7 @@
       <c r="H147" t="n">
         <v>2003</v>
       </c>
-      <c r="I147" s="2" t="n">
+      <c r="I147" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J147" t="n">
@@ -6939,7 +6959,7 @@
       <c r="H148" t="n">
         <v>2006</v>
       </c>
-      <c r="I148" s="2" t="n">
+      <c r="I148" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J148" t="n">
@@ -6986,7 +7006,7 @@
       <c r="H149" t="n">
         <v>2005</v>
       </c>
-      <c r="I149" s="2" t="n">
+      <c r="I149" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J149" t="n">
@@ -7031,7 +7051,7 @@
       <c r="H150" t="n">
         <v>2005</v>
       </c>
-      <c r="I150" s="2" t="n">
+      <c r="I150" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J150" t="n">
@@ -7078,7 +7098,7 @@
       <c r="H151" t="n">
         <v>2006</v>
       </c>
-      <c r="I151" s="2" t="n">
+      <c r="I151" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7119,7 +7139,7 @@
       <c r="H152" t="n">
         <v>2004</v>
       </c>
-      <c r="I152" s="2" t="n">
+      <c r="I152" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J152" t="n">
@@ -7166,7 +7186,7 @@
       <c r="H153" t="n">
         <v>2003</v>
       </c>
-      <c r="I153" s="2" t="n">
+      <c r="I153" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J153" t="n">
@@ -7244,7 +7264,7 @@
       <c r="H155" t="n">
         <v>2006</v>
       </c>
-      <c r="I155" s="2" t="n">
+      <c r="I155" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J155" t="n">
@@ -7287,7 +7307,7 @@
       <c r="H156" t="n">
         <v>2006</v>
       </c>
-      <c r="I156" s="2" t="n">
+      <c r="I156" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J156" t="n">
@@ -7379,7 +7399,7 @@
       <c r="H158" t="n">
         <v>2006</v>
       </c>
-      <c r="I158" s="2" t="n">
+      <c r="I158" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J158" t="n">
@@ -7459,7 +7479,7 @@
       <c r="H160" t="n">
         <v>2005</v>
       </c>
-      <c r="I160" s="2" t="n">
+      <c r="I160" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J160" t="n">
@@ -7506,7 +7526,7 @@
       <c r="H161" t="n">
         <v>2004</v>
       </c>
-      <c r="I161" s="2" t="n">
+      <c r="I161" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J161" t="n">
@@ -7524,17 +7544,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Queens Park Rangers U21</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Championship</t>
+          <t>Professional Development League</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>England Amateur</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7594,7 +7614,7 @@
       <c r="H163" t="n">
         <v>2007</v>
       </c>
-      <c r="I163" s="2" t="n">
+      <c r="I163" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J163" t="n">
@@ -7641,7 +7661,7 @@
       <c r="H164" t="n">
         <v>2007</v>
       </c>
-      <c r="I164" s="2" t="n">
+      <c r="I164" s="1" t="n">
         <v>46356</v>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7682,7 +7702,7 @@
       <c r="H165" t="n">
         <v>2007</v>
       </c>
-      <c r="I165" s="2" t="n">
+      <c r="I165" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7719,7 +7739,7 @@
       <c r="H166" t="n">
         <v>2004</v>
       </c>
-      <c r="I166" s="2" t="n">
+      <c r="I166" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J166" t="n">
@@ -7791,7 +7811,7 @@
       <c r="H168" t="n">
         <v>2004</v>
       </c>
-      <c r="I168" s="2" t="n">
+      <c r="I168" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J168" t="n">
@@ -7883,7 +7903,7 @@
       <c r="H170" t="n">
         <v>2003</v>
       </c>
-      <c r="I170" s="2" t="n">
+      <c r="I170" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J170" t="n">
@@ -7930,7 +7950,7 @@
       <c r="H171" t="n">
         <v>2005</v>
       </c>
-      <c r="I171" s="2" t="n">
+      <c r="I171" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J171" t="n">
@@ -7977,7 +7997,7 @@
       <c r="H172" t="n">
         <v>2004</v>
       </c>
-      <c r="I172" s="2" t="n">
+      <c r="I172" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J172" t="n">
@@ -8024,7 +8044,7 @@
       <c r="H173" t="n">
         <v>2007</v>
       </c>
-      <c r="I173" s="2" t="n">
+      <c r="I173" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8102,7 +8122,7 @@
       <c r="H175" t="n">
         <v>2004</v>
       </c>
-      <c r="I175" s="2" t="n">
+      <c r="I175" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J175" t="n">
@@ -8188,7 +8208,7 @@
       <c r="H177" t="n">
         <v>2004</v>
       </c>
-      <c r="I177" s="2" t="n">
+      <c r="I177" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J177" t="n">
@@ -8348,7 +8368,7 @@
       <c r="H181" t="n">
         <v>2005</v>
       </c>
-      <c r="I181" s="2" t="n">
+      <c r="I181" s="1" t="n">
         <v>47634</v>
       </c>
       <c r="J181" t="n">
@@ -8395,7 +8415,7 @@
       <c r="H182" t="n">
         <v>2004</v>
       </c>
-      <c r="I182" s="2" t="n">
+      <c r="I182" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J182" t="n">
@@ -8467,7 +8487,7 @@
       <c r="H184" t="n">
         <v>2006</v>
       </c>
-      <c r="I184" s="2" t="n">
+      <c r="I184" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8508,7 +8528,7 @@
       <c r="H185" t="n">
         <v>2005</v>
       </c>
-      <c r="I185" s="2" t="n">
+      <c r="I185" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J185" t="n">
@@ -8555,7 +8575,7 @@
       <c r="H186" t="n">
         <v>2007</v>
       </c>
-      <c r="I186" s="2" t="n">
+      <c r="I186" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J186" t="n">
@@ -8602,7 +8622,7 @@
       <c r="H187" t="n">
         <v>2003</v>
       </c>
-      <c r="I187" s="2" t="n">
+      <c r="I187" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J187" t="n">
@@ -8649,7 +8669,7 @@
       <c r="H188" t="n">
         <v>2003</v>
       </c>
-      <c r="I188" s="2" t="n">
+      <c r="I188" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J188" t="n">
@@ -8667,17 +8687,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1. FC Tatran Prešov</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Slovensky Pohar</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8696,9 +8716,7 @@
       <c r="H189" t="n">
         <v>2004</v>
       </c>
-      <c r="I189" s="2" t="n">
-        <v>46203</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>160000</v>
       </c>
@@ -8743,7 +8761,7 @@
       <c r="H190" t="n">
         <v>2003</v>
       </c>
-      <c r="I190" s="2" t="n">
+      <c r="I190" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J190" t="n">
@@ -8790,7 +8808,7 @@
       <c r="H191" t="n">
         <v>2003</v>
       </c>
-      <c r="I191" s="2" t="n">
+      <c r="I191" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J191" t="n">
@@ -8837,7 +8855,7 @@
       <c r="H192" t="n">
         <v>2004</v>
       </c>
-      <c r="I192" s="2" t="n">
+      <c r="I192" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J192" t="n">
@@ -8884,7 +8902,7 @@
       <c r="H193" t="n">
         <v>2005</v>
       </c>
-      <c r="I193" s="2" t="n">
+      <c r="I193" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J193" t="n">
@@ -8931,7 +8949,7 @@
       <c r="H194" t="n">
         <v>2003</v>
       </c>
-      <c r="I194" s="2" t="n">
+      <c r="I194" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J194" t="n">
@@ -8978,7 +8996,7 @@
       <c r="H195" t="n">
         <v>2004</v>
       </c>
-      <c r="I195" s="2" t="n">
+      <c r="I195" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J195" t="n">
@@ -9025,7 +9043,7 @@
       <c r="H196" t="n">
         <v>2005</v>
       </c>
-      <c r="I196" s="2" t="n">
+      <c r="I196" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J196" t="n">
@@ -9072,7 +9090,7 @@
       <c r="H197" t="n">
         <v>2003</v>
       </c>
-      <c r="I197" s="2" t="n">
+      <c r="I197" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J197" t="n">
@@ -9119,7 +9137,7 @@
       <c r="H198" t="n">
         <v>2006</v>
       </c>
-      <c r="I198" s="2" t="n">
+      <c r="I198" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J198" t="n">
@@ -9166,7 +9184,7 @@
       <c r="H199" t="n">
         <v>2003</v>
       </c>
-      <c r="I199" s="2" t="n">
+      <c r="I199" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J199" t="n">
@@ -9213,7 +9231,7 @@
       <c r="H200" t="n">
         <v>2005</v>
       </c>
-      <c r="I200" s="2" t="n">
+      <c r="I200" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J200" t="n">
@@ -9260,7 +9278,7 @@
       <c r="H201" t="n">
         <v>2003</v>
       </c>
-      <c r="I201" s="2" t="n">
+      <c r="I201" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J201" t="n">
@@ -9305,7 +9323,7 @@
       <c r="H202" t="n">
         <v>2004</v>
       </c>
-      <c r="I202" s="2" t="n">
+      <c r="I202" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J202" t="n">
@@ -9352,7 +9370,7 @@
       <c r="H203" t="n">
         <v>2005</v>
       </c>
-      <c r="I203" s="2" t="n">
+      <c r="I203" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J203" t="n">
@@ -9399,7 +9417,7 @@
       <c r="H204" t="n">
         <v>2005</v>
       </c>
-      <c r="I204" s="2" t="n">
+      <c r="I204" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J204" t="n">
@@ -9446,7 +9464,7 @@
       <c r="H205" t="n">
         <v>2007</v>
       </c>
-      <c r="I205" s="2" t="n">
+      <c r="I205" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J205" t="n">
@@ -9493,7 +9511,7 @@
       <c r="H206" t="n">
         <v>2007</v>
       </c>
-      <c r="I206" s="2" t="n">
+      <c r="I206" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J206" t="n">
@@ -9540,7 +9558,7 @@
       <c r="H207" t="n">
         <v>2004</v>
       </c>
-      <c r="I207" s="2" t="n">
+      <c r="I207" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J207" t="n">
@@ -9587,7 +9605,7 @@
       <c r="H208" t="n">
         <v>2004</v>
       </c>
-      <c r="I208" s="2" t="n">
+      <c r="I208" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J208" t="n">
@@ -9634,7 +9652,7 @@
       <c r="H209" t="n">
         <v>2004</v>
       </c>
-      <c r="I209" s="2" t="n">
+      <c r="I209" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J209" t="n">
@@ -9681,7 +9699,7 @@
       <c r="H210" t="n">
         <v>2004</v>
       </c>
-      <c r="I210" s="2" t="n">
+      <c r="I210" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J210" t="n">
@@ -9728,7 +9746,7 @@
       <c r="H211" t="n">
         <v>2005</v>
       </c>
-      <c r="I211" s="2" t="n">
+      <c r="I211" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J211" t="n">
@@ -9775,7 +9793,7 @@
       <c r="H212" t="n">
         <v>2004</v>
       </c>
-      <c r="I212" s="2" t="n">
+      <c r="I212" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J212" t="n">
@@ -9820,7 +9838,7 @@
       <c r="H213" t="n">
         <v>2004</v>
       </c>
-      <c r="I213" s="2" t="n">
+      <c r="I213" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J213" t="n">
@@ -9867,7 +9885,7 @@
       <c r="H214" t="n">
         <v>2005</v>
       </c>
-      <c r="I214" s="2" t="n">
+      <c r="I214" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J214" t="n">
@@ -9959,7 +9977,7 @@
       <c r="H216" t="n">
         <v>2003</v>
       </c>
-      <c r="I216" s="2" t="n">
+      <c r="I216" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J216" t="n">
@@ -9977,12 +9995,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Beltinci Klima Tratnjek</t>
+          <t>Kalcer Radomlje</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2nd SNL</t>
+          <t>PrvaLiga</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10004,8 +10022,8 @@
       <c r="H217" t="n">
         <v>2004</v>
       </c>
-      <c r="I217" s="2" t="n">
-        <v>46568</v>
+      <c r="I217" s="1" t="n">
+        <v>46752</v>
       </c>
       <c r="J217" t="n">
         <v>180000</v>
@@ -10051,7 +10069,7 @@
       <c r="H218" t="n">
         <v>2005</v>
       </c>
-      <c r="I218" s="2" t="n">
+      <c r="I218" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J218" t="n">
@@ -10094,7 +10112,7 @@
       <c r="H219" t="n">
         <v>2003</v>
       </c>
-      <c r="I219" s="2" t="n">
+      <c r="I219" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J219" t="n">
@@ -10141,7 +10159,7 @@
       <c r="H220" t="n">
         <v>2006</v>
       </c>
-      <c r="I220" s="2" t="n">
+      <c r="I220" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J220" t="n">
@@ -10188,7 +10206,7 @@
       <c r="H221" t="n">
         <v>2003</v>
       </c>
-      <c r="I221" s="2" t="n">
+      <c r="I221" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J221" t="n">
@@ -10235,7 +10253,7 @@
       <c r="H222" t="n">
         <v>2005</v>
       </c>
-      <c r="I222" s="2" t="n">
+      <c r="I222" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J222" t="n">
@@ -10282,7 +10300,7 @@
       <c r="H223" t="n">
         <v>2004</v>
       </c>
-      <c r="I223" s="2" t="n">
+      <c r="I223" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J223" t="n">
@@ -10329,7 +10347,7 @@
       <c r="H224" t="n">
         <v>2004</v>
       </c>
-      <c r="I224" s="2" t="n">
+      <c r="I224" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J224" t="n">
@@ -10376,9 +10394,7 @@
       <c r="H225" t="n">
         <v>2003</v>
       </c>
-      <c r="I225" s="2" t="n">
-        <v>46387</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>1100000</v>
       </c>
@@ -10423,7 +10439,7 @@
       <c r="H226" t="n">
         <v>2003</v>
       </c>
-      <c r="I226" s="2" t="n">
+      <c r="I226" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J226" t="n">
@@ -10470,7 +10486,7 @@
       <c r="H227" t="n">
         <v>2007</v>
       </c>
-      <c r="I227" s="2" t="n">
+      <c r="I227" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J227" t="n">
@@ -10517,7 +10533,7 @@
       <c r="H228" t="n">
         <v>2004</v>
       </c>
-      <c r="I228" s="2" t="n">
+      <c r="I228" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J228" t="n">
@@ -10562,7 +10578,7 @@
       <c r="H229" t="n">
         <v>2004</v>
       </c>
-      <c r="I229" s="2" t="n">
+      <c r="I229" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J229" t="n">
@@ -10609,7 +10625,7 @@
       <c r="H230" t="n">
         <v>2005</v>
       </c>
-      <c r="I230" s="2" t="n">
+      <c r="I230" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J230" t="n">
@@ -10656,7 +10672,7 @@
       <c r="H231" t="n">
         <v>2004</v>
       </c>
-      <c r="I231" s="2" t="n">
+      <c r="I231" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J231" t="n">
@@ -10703,7 +10719,7 @@
       <c r="H232" t="n">
         <v>2003</v>
       </c>
-      <c r="I232" s="2" t="n">
+      <c r="I232" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J232" t="n">
@@ -10750,7 +10766,7 @@
       <c r="H233" t="n">
         <v>2004</v>
       </c>
-      <c r="I233" s="2" t="n">
+      <c r="I233" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J233" t="n">
@@ -10797,7 +10813,7 @@
       <c r="H234" t="n">
         <v>2006</v>
       </c>
-      <c r="I234" s="2" t="n">
+      <c r="I234" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J234" t="n">
@@ -10844,7 +10860,7 @@
       <c r="H235" t="n">
         <v>2004</v>
       </c>
-      <c r="I235" s="2" t="n">
+      <c r="I235" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J235" t="n">
@@ -10891,7 +10907,7 @@
       <c r="H236" t="n">
         <v>2005</v>
       </c>
-      <c r="I236" s="2" t="n">
+      <c r="I236" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J236" t="n">
@@ -10938,7 +10954,7 @@
       <c r="H237" t="n">
         <v>2005</v>
       </c>
-      <c r="I237" s="2" t="n">
+      <c r="I237" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J237" t="n">
@@ -10985,7 +11001,7 @@
       <c r="H238" t="n">
         <v>2006</v>
       </c>
-      <c r="I238" s="2" t="n">
+      <c r="I238" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J238" t="n">
@@ -11032,7 +11048,7 @@
       <c r="H239" t="n">
         <v>2004</v>
       </c>
-      <c r="I239" s="2" t="n">
+      <c r="I239" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J239" t="n">
@@ -11079,7 +11095,7 @@
       <c r="H240" t="n">
         <v>2004</v>
       </c>
-      <c r="I240" s="2" t="n">
+      <c r="I240" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J240" t="n">
@@ -11126,7 +11142,7 @@
       <c r="H241" t="n">
         <v>2003</v>
       </c>
-      <c r="I241" s="2" t="n">
+      <c r="I241" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J241" t="n">
@@ -11173,7 +11189,7 @@
       <c r="H242" t="n">
         <v>2007</v>
       </c>
-      <c r="I242" s="2" t="n">
+      <c r="I242" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J242" t="n">
@@ -11220,7 +11236,7 @@
       <c r="H243" t="n">
         <v>2005</v>
       </c>
-      <c r="I243" s="2" t="n">
+      <c r="I243" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J243" t="n">
@@ -11267,7 +11283,7 @@
       <c r="H244" t="n">
         <v>2007</v>
       </c>
-      <c r="I244" s="2" t="n">
+      <c r="I244" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J244" t="n">
@@ -11310,7 +11326,7 @@
       <c r="H245" t="n">
         <v>2003</v>
       </c>
-      <c r="I245" s="2" t="n">
+      <c r="I245" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J245" t="n">
@@ -11445,7 +11461,7 @@
       <c r="H248" t="n">
         <v>2004</v>
       </c>
-      <c r="I248" s="2" t="n">
+      <c r="I248" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J248" t="n">
@@ -11492,7 +11508,7 @@
       <c r="H249" t="n">
         <v>2005</v>
       </c>
-      <c r="I249" s="2" t="n">
+      <c r="I249" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J249" t="n">
@@ -11535,7 +11551,7 @@
       <c r="H250" t="n">
         <v>2005</v>
       </c>
-      <c r="I250" s="2" t="n">
+      <c r="I250" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J250" t="n">
@@ -11582,7 +11598,7 @@
       <c r="H251" t="n">
         <v>2005</v>
       </c>
-      <c r="I251" s="2" t="n">
+      <c r="I251" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J251" t="n">
@@ -11629,7 +11645,7 @@
       <c r="H252" t="n">
         <v>2005</v>
       </c>
-      <c r="I252" s="2" t="n">
+      <c r="I252" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J252" t="n">
@@ -11676,7 +11692,7 @@
       <c r="H253" t="n">
         <v>2005</v>
       </c>
-      <c r="I253" s="2" t="n">
+      <c r="I253" s="1" t="n">
         <v>47269</v>
       </c>
       <c r="J253" t="n">
@@ -11723,7 +11739,7 @@
       <c r="H254" t="n">
         <v>2004</v>
       </c>
-      <c r="I254" s="2" t="n">
+      <c r="I254" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J254" t="n">
@@ -11770,7 +11786,7 @@
       <c r="H255" t="n">
         <v>2006</v>
       </c>
-      <c r="I255" s="2" t="n">
+      <c r="I255" s="1" t="n">
         <v>48029</v>
       </c>
       <c r="J255" t="n">
@@ -11817,7 +11833,7 @@
       <c r="H256" t="n">
         <v>2005</v>
       </c>
-      <c r="I256" s="2" t="n">
+      <c r="I256" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J256" t="n">
@@ -11864,7 +11880,7 @@
       <c r="H257" t="n">
         <v>2005</v>
       </c>
-      <c r="I257" s="2" t="n">
+      <c r="I257" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J257" t="n">
@@ -11911,7 +11927,7 @@
       <c r="H258" t="n">
         <v>2005</v>
       </c>
-      <c r="I258" s="2" t="n">
+      <c r="I258" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J258" t="n">
@@ -11958,7 +11974,7 @@
       <c r="H259" t="n">
         <v>2005</v>
       </c>
-      <c r="I259" s="2" t="n">
+      <c r="I259" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J259" t="n">
@@ -12005,7 +12021,7 @@
       <c r="H260" t="n">
         <v>2004</v>
       </c>
-      <c r="I260" s="2" t="n">
+      <c r="I260" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J260" t="n">
@@ -12097,7 +12113,7 @@
       <c r="H262" t="n">
         <v>2005</v>
       </c>
-      <c r="I262" s="2" t="n">
+      <c r="I262" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J262" t="n">
@@ -12144,7 +12160,7 @@
       <c r="H263" t="n">
         <v>2005</v>
       </c>
-      <c r="I263" s="2" t="n">
+      <c r="I263" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J263" t="n">
@@ -12191,7 +12207,7 @@
       <c r="H264" t="n">
         <v>2004</v>
       </c>
-      <c r="I264" s="2" t="n">
+      <c r="I264" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J264" t="n">
@@ -12238,7 +12254,7 @@
       <c r="H265" t="n">
         <v>2005</v>
       </c>
-      <c r="I265" s="2" t="n">
+      <c r="I265" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J265" t="n">
@@ -12285,7 +12301,7 @@
       <c r="H266" t="n">
         <v>2006</v>
       </c>
-      <c r="I266" s="2" t="n">
+      <c r="I266" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J266" t="n">
@@ -12328,7 +12344,7 @@
       <c r="H267" t="n">
         <v>2006</v>
       </c>
-      <c r="I267" s="2" t="n">
+      <c r="I267" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J267" t="n">
@@ -12369,7 +12385,7 @@
       <c r="H268" t="n">
         <v>2006</v>
       </c>
-      <c r="I268" s="2" t="n">
+      <c r="I268" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J268" t="n">
@@ -12416,7 +12432,7 @@
       <c r="H269" t="n">
         <v>2006</v>
       </c>
-      <c r="I269" s="2" t="n">
+      <c r="I269" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J269" t="n">
@@ -12457,7 +12473,7 @@
       <c r="H270" t="n">
         <v>2008</v>
       </c>
-      <c r="I270" s="2" t="n">
+      <c r="I270" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J270" t="n">
@@ -12543,7 +12559,7 @@
       <c r="H272" t="n">
         <v>2007</v>
       </c>
-      <c r="I272" s="2" t="n">
+      <c r="I272" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J272" t="n">
@@ -12633,7 +12649,7 @@
       <c r="H274" t="n">
         <v>2006</v>
       </c>
-      <c r="I274" s="2" t="n">
+      <c r="I274" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J274" t="n">
@@ -12680,7 +12696,7 @@
       <c r="H275" t="n">
         <v>2004</v>
       </c>
-      <c r="I275" s="2" t="n">
+      <c r="I275" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J275" t="n">
@@ -12723,7 +12739,7 @@
       <c r="H276" t="n">
         <v>2006</v>
       </c>
-      <c r="I276" s="2" t="n">
+      <c r="I276" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J276" t="n">
@@ -12809,7 +12825,7 @@
       <c r="H278" t="n">
         <v>2004</v>
       </c>
-      <c r="I278" s="2" t="n">
+      <c r="I278" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J278" t="n">
@@ -12854,7 +12870,7 @@
       <c r="H279" t="n">
         <v>2004</v>
       </c>
-      <c r="I279" s="2" t="n">
+      <c r="I279" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J279" t="n">
@@ -12901,7 +12917,7 @@
       <c r="H280" t="n">
         <v>2004</v>
       </c>
-      <c r="I280" s="2" t="n">
+      <c r="I280" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J280" t="n">
@@ -12948,7 +12964,7 @@
       <c r="H281" t="n">
         <v>2004</v>
       </c>
-      <c r="I281" s="2" t="n">
+      <c r="I281" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J281" t="n">
@@ -12995,7 +13011,7 @@
       <c r="H282" t="n">
         <v>2004</v>
       </c>
-      <c r="I282" s="2" t="n">
+      <c r="I282" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J282" t="n">
@@ -13036,7 +13052,7 @@
       <c r="H283" t="n">
         <v>2005</v>
       </c>
-      <c r="I283" s="2" t="n">
+      <c r="I283" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J283" t="n">
@@ -13083,7 +13099,7 @@
       <c r="H284" t="n">
         <v>2007</v>
       </c>
-      <c r="I284" s="2" t="n">
+      <c r="I284" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J284" t="n">
@@ -13130,7 +13146,7 @@
       <c r="H285" t="n">
         <v>2006</v>
       </c>
-      <c r="I285" s="2" t="n">
+      <c r="I285" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J285" t="n">
@@ -13173,7 +13189,7 @@
       <c r="H286" t="n">
         <v>2004</v>
       </c>
-      <c r="I286" s="2" t="n">
+      <c r="I286" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J286" t="n">
@@ -13220,7 +13236,7 @@
       <c r="H287" t="n">
         <v>2005</v>
       </c>
-      <c r="I287" s="2" t="n">
+      <c r="I287" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J287" t="n">
@@ -13267,7 +13283,7 @@
       <c r="H288" t="n">
         <v>2005</v>
       </c>
-      <c r="I288" s="2" t="n">
+      <c r="I288" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J288" t="n">
@@ -13353,7 +13369,7 @@
       <c r="H290" t="n">
         <v>2006</v>
       </c>
-      <c r="I290" s="2" t="n">
+      <c r="I290" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J290" t="n">
@@ -13396,7 +13412,7 @@
       <c r="H291" t="n">
         <v>2006</v>
       </c>
-      <c r="I291" s="2" t="n">
+      <c r="I291" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J291" t="n">
@@ -13443,7 +13459,7 @@
       <c r="H292" t="n">
         <v>2004</v>
       </c>
-      <c r="I292" s="2" t="n">
+      <c r="I292" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J292" t="n">
@@ -13479,12 +13495,14 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr"/>
+      <c r="F293" t="n">
+        <v>181</v>
+      </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="n">
         <v>2005</v>
       </c>
-      <c r="I293" s="2" t="n">
+      <c r="I293" s="1" t="n">
         <v>46965</v>
       </c>
       <c r="J293" t="n">
@@ -13531,7 +13549,7 @@
       <c r="H294" t="n">
         <v>2004</v>
       </c>
-      <c r="I294" s="2" t="n">
+      <c r="I294" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J294" t="n">
@@ -13578,7 +13596,7 @@
       <c r="H295" t="n">
         <v>2006</v>
       </c>
-      <c r="I295" s="2" t="n">
+      <c r="I295" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J295" t="n">
@@ -13596,17 +13614,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Kalmar FF</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Allsvenskan</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -13625,8 +13643,8 @@
       <c r="H296" t="n">
         <v>2004</v>
       </c>
-      <c r="I296" s="2" t="n">
-        <v>46387</v>
+      <c r="I296" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J296" t="n">
         <v>365000</v>
@@ -13668,7 +13686,7 @@
       <c r="H297" t="n">
         <v>2005</v>
       </c>
-      <c r="I297" s="2" t="n">
+      <c r="I297" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J297" t="n">
@@ -13715,7 +13733,7 @@
       <c r="H298" t="n">
         <v>2006</v>
       </c>
-      <c r="I298" s="2" t="n">
+      <c r="I298" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J298" t="n">
@@ -13762,7 +13780,7 @@
       <c r="H299" t="n">
         <v>2005</v>
       </c>
-      <c r="I299" s="2" t="n">
+      <c r="I299" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J299" t="n">
@@ -13809,7 +13827,7 @@
       <c r="H300" t="n">
         <v>2005</v>
       </c>
-      <c r="I300" s="2" t="n">
+      <c r="I300" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J300" t="n">
@@ -13852,7 +13870,7 @@
       <c r="H301" t="n">
         <v>2006</v>
       </c>
-      <c r="I301" s="2" t="n">
+      <c r="I301" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J301" t="n">
@@ -13899,7 +13917,7 @@
       <c r="H302" t="n">
         <v>2004</v>
       </c>
-      <c r="I302" s="2" t="n">
+      <c r="I302" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J302" t="n">
@@ -13946,7 +13964,7 @@
       <c r="H303" t="n">
         <v>2007</v>
       </c>
-      <c r="I303" s="2" t="n">
+      <c r="I303" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J303" t="n">
@@ -14038,7 +14056,7 @@
       <c r="H305" t="n">
         <v>2006</v>
       </c>
-      <c r="I305" s="2" t="n">
+      <c r="I305" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J305" t="n">
@@ -14079,7 +14097,7 @@
       <c r="H306" t="n">
         <v>2006</v>
       </c>
-      <c r="I306" s="2" t="n">
+      <c r="I306" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J306" t="inlineStr"/>
@@ -14159,7 +14177,7 @@
       <c r="H308" t="n">
         <v>2008</v>
       </c>
-      <c r="I308" s="2" t="n">
+      <c r="I308" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J308" t="n">
@@ -14206,7 +14224,7 @@
       <c r="H309" t="n">
         <v>2007</v>
       </c>
-      <c r="I309" s="2" t="n">
+      <c r="I309" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J309" t="n">
@@ -14224,19 +14242,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NK Istra 1961</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>HNL</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
           <t>Nigeria</t>
@@ -14249,7 +14259,9 @@
       <c r="H310" t="n">
         <v>2005</v>
       </c>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" s="1" t="n">
+        <v>46935</v>
+      </c>
       <c r="J310" t="n">
         <v>315000</v>
       </c>
@@ -14310,17 +14322,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Veikkausliiga</t>
+          <t>Czech First League</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -14339,8 +14351,8 @@
       <c r="H312" t="n">
         <v>2005</v>
       </c>
-      <c r="I312" s="2" t="n">
-        <v>46752</v>
+      <c r="I312" s="1" t="n">
+        <v>47299</v>
       </c>
       <c r="J312" t="n">
         <v>520000</v>
@@ -14386,7 +14398,7 @@
       <c r="H313" t="n">
         <v>2005</v>
       </c>
-      <c r="I313" s="2" t="n">
+      <c r="I313" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J313" t="n">
@@ -14433,7 +14445,7 @@
       <c r="H314" t="n">
         <v>2005</v>
       </c>
-      <c r="I314" s="2" t="n">
+      <c r="I314" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J314" t="n">
@@ -14513,7 +14525,7 @@
       <c r="H316" t="n">
         <v>2006</v>
       </c>
-      <c r="I316" s="2" t="n">
+      <c r="I316" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J316" t="n">
@@ -14556,7 +14568,7 @@
       <c r="H317" t="n">
         <v>2004</v>
       </c>
-      <c r="I317" s="2" t="n">
+      <c r="I317" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J317" t="n">
@@ -14603,8 +14615,8 @@
       <c r="H318" t="n">
         <v>2005</v>
       </c>
-      <c r="I318" s="2" t="n">
-        <v>46387</v>
+      <c r="I318" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J318" t="n">
         <v>245000</v>
@@ -14648,7 +14660,7 @@
       <c r="H319" t="n">
         <v>2006</v>
       </c>
-      <c r="I319" s="2" t="n">
+      <c r="I319" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J319" t="inlineStr"/>
@@ -14660,17 +14672,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zalaegerszegi TE</t>
+          <t>NK Nafta Lendava 1903</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>NB I</t>
+          <t>2nd SNL</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -14689,8 +14701,8 @@
       <c r="H320" t="n">
         <v>2004</v>
       </c>
-      <c r="I320" s="2" t="n">
-        <v>46568</v>
+      <c r="I320" s="1" t="n">
+        <v>46203</v>
       </c>
       <c r="J320" t="n">
         <v>245000</v>
@@ -14730,7 +14742,7 @@
       <c r="H321" t="n">
         <v>2006</v>
       </c>
-      <c r="I321" s="2" t="n">
+      <c r="I321" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J321" t="n">
@@ -14777,7 +14789,7 @@
       <c r="H322" t="n">
         <v>2005</v>
       </c>
-      <c r="I322" s="2" t="n">
+      <c r="I322" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J322" t="n">
@@ -14818,7 +14830,7 @@
       <c r="H323" t="n">
         <v>2009</v>
       </c>
-      <c r="I323" s="2" t="n">
+      <c r="I323" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J323" t="n">
@@ -14865,7 +14877,7 @@
       <c r="H324" t="n">
         <v>2004</v>
       </c>
-      <c r="I324" s="2" t="n">
+      <c r="I324" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J324" t="n">
@@ -14943,7 +14955,7 @@
       <c r="H326" t="n">
         <v>2004</v>
       </c>
-      <c r="I326" s="2" t="n">
+      <c r="I326" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J326" t="n">
@@ -14979,14 +14991,28 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
+      <c r="F327" t="n">
+        <v>188</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
       <c r="H327" t="n">
         <v>2008</v>
       </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="I327" s="1" t="n">
+        <v>46934</v>
+      </c>
+      <c r="J327" t="n">
+        <v>410000</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -15068,7 +15094,7 @@
       <c r="H329" t="n">
         <v>2005</v>
       </c>
-      <c r="I329" s="2" t="n">
+      <c r="I329" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J329" t="n">
@@ -15115,7 +15141,7 @@
       <c r="H330" t="n">
         <v>2006</v>
       </c>
-      <c r="I330" s="2" t="n">
+      <c r="I330" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J330" t="n">
@@ -15156,7 +15182,7 @@
       <c r="H331" t="n">
         <v>2005</v>
       </c>
-      <c r="I331" s="2" t="n">
+      <c r="I331" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J331" t="n">
@@ -15203,7 +15229,7 @@
       <c r="H332" t="n">
         <v>2006</v>
       </c>
-      <c r="I332" s="2" t="n">
+      <c r="I332" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J332" t="inlineStr"/>
@@ -15244,8 +15270,8 @@
       <c r="H333" t="n">
         <v>2005</v>
       </c>
-      <c r="I333" s="2" t="n">
-        <v>46387</v>
+      <c r="I333" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J333" t="n">
         <v>530000</v>
@@ -15285,7 +15311,7 @@
       <c r="H334" t="n">
         <v>2006</v>
       </c>
-      <c r="I334" s="2" t="n">
+      <c r="I334" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J334" t="n">
@@ -15322,7 +15348,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -15332,7 +15358,7 @@
       <c r="H335" t="n">
         <v>2007</v>
       </c>
-      <c r="I335" s="2" t="n">
+      <c r="I335" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J335" t="n">
@@ -15635,7 +15661,7 @@
       <c r="H342" t="n">
         <v>2004</v>
       </c>
-      <c r="I342" s="2" t="n">
+      <c r="I342" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J342" t="n">
@@ -15732,7 +15758,7 @@
       <c r="H345" t="n">
         <v>2007</v>
       </c>
-      <c r="I345" s="2" t="n">
+      <c r="I345" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J345" t="n">
@@ -15779,7 +15805,7 @@
       <c r="H346" t="n">
         <v>2006</v>
       </c>
-      <c r="I346" s="2" t="n">
+      <c r="I346" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J346" t="n">
@@ -15826,7 +15852,7 @@
       <c r="H347" t="n">
         <v>2007</v>
       </c>
-      <c r="I347" s="2" t="n">
+      <c r="I347" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J347" t="n">
@@ -15873,7 +15899,7 @@
       <c r="H348" t="n">
         <v>2006</v>
       </c>
-      <c r="I348" s="2" t="n">
+      <c r="I348" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J348" t="n">
@@ -15920,8 +15946,8 @@
       <c r="H349" t="n">
         <v>2007</v>
       </c>
-      <c r="I349" s="2" t="n">
-        <v>46568</v>
+      <c r="I349" s="1" t="n">
+        <v>48029</v>
       </c>
       <c r="J349" t="n">
         <v>905000</v>
@@ -15967,7 +15993,7 @@
       <c r="H350" t="n">
         <v>2005</v>
       </c>
-      <c r="I350" s="2" t="n">
+      <c r="I350" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J350" t="inlineStr"/>
@@ -16002,7 +16028,7 @@
       <c r="H351" t="n">
         <v>2007</v>
       </c>
-      <c r="I351" s="2" t="n">
+      <c r="I351" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J351" t="n">
@@ -16049,7 +16075,7 @@
       <c r="H352" t="n">
         <v>2005</v>
       </c>
-      <c r="I352" s="2" t="n">
+      <c r="I352" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J352" t="n">
@@ -16096,7 +16122,7 @@
       <c r="H353" t="n">
         <v>2005</v>
       </c>
-      <c r="I353" s="2" t="n">
+      <c r="I353" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J353" t="n">
@@ -16137,7 +16163,7 @@
       <c r="H354" t="n">
         <v>2008</v>
       </c>
-      <c r="I354" s="2" t="n">
+      <c r="I354" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J354" t="inlineStr"/>
@@ -16176,7 +16202,7 @@
       <c r="H355" t="n">
         <v>2007</v>
       </c>
-      <c r="I355" s="2" t="n">
+      <c r="I355" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J355" t="inlineStr"/>
@@ -16217,7 +16243,7 @@
       <c r="H356" t="n">
         <v>2004</v>
       </c>
-      <c r="I356" s="2" t="n">
+      <c r="I356" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J356" t="n">
@@ -16264,7 +16290,7 @@
       <c r="H357" t="n">
         <v>2008</v>
       </c>
-      <c r="I357" s="2" t="n">
+      <c r="I357" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J357" t="n">
@@ -16311,7 +16337,7 @@
       <c r="H358" t="n">
         <v>2004</v>
       </c>
-      <c r="I358" s="2" t="n">
+      <c r="I358" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J358" t="n">
@@ -16358,7 +16384,7 @@
       <c r="H359" t="n">
         <v>2004</v>
       </c>
-      <c r="I359" s="2" t="n">
+      <c r="I359" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J359" t="n">
@@ -16399,7 +16425,7 @@
       <c r="H360" t="n">
         <v>2008</v>
       </c>
-      <c r="I360" s="2" t="n">
+      <c r="I360" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J360" t="inlineStr"/>
@@ -16440,7 +16466,7 @@
       <c r="H361" t="n">
         <v>2005</v>
       </c>
-      <c r="I361" s="2" t="n">
+      <c r="I361" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J361" t="n">
@@ -16487,7 +16513,7 @@
       <c r="H362" t="n">
         <v>2006</v>
       </c>
-      <c r="I362" s="2" t="n">
+      <c r="I362" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J362" t="n">
@@ -16528,7 +16554,7 @@
       <c r="H363" t="n">
         <v>2008</v>
       </c>
-      <c r="I363" s="2" t="n">
+      <c r="I363" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J363" t="inlineStr"/>
@@ -16598,7 +16624,7 @@
       <c r="H365" t="n">
         <v>2006</v>
       </c>
-      <c r="I365" s="2" t="n">
+      <c r="I365" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J365" t="n">
@@ -16643,7 +16669,7 @@
       <c r="H366" t="n">
         <v>2006</v>
       </c>
-      <c r="I366" s="2" t="n">
+      <c r="I366" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J366" t="inlineStr"/>
@@ -16680,7 +16706,7 @@
       <c r="H367" t="n">
         <v>2007</v>
       </c>
-      <c r="I367" s="2" t="n">
+      <c r="I367" s="1" t="n">
         <v>46984</v>
       </c>
       <c r="J367" t="inlineStr"/>
@@ -16715,7 +16741,7 @@
       <c r="H368" t="n">
         <v>2006</v>
       </c>
-      <c r="I368" s="2" t="n">
+      <c r="I368" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J368" t="inlineStr"/>
@@ -16795,7 +16821,7 @@
       <c r="H370" t="n">
         <v>2006</v>
       </c>
-      <c r="I370" s="2" t="n">
+      <c r="I370" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J370" t="n">
@@ -16842,7 +16868,7 @@
       <c r="H371" t="n">
         <v>2006</v>
       </c>
-      <c r="I371" s="2" t="n">
+      <c r="I371" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J371" t="n">
@@ -16873,11 +16899,15 @@
       <c r="F372" t="n">
         <v>190</v>
       </c>
-      <c r="G372" t="inlineStr"/>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H372" t="n">
         <v>2005</v>
       </c>
-      <c r="I372" s="2" t="n">
+      <c r="I372" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J372" t="n">
@@ -16922,7 +16952,7 @@
       <c r="H373" t="n">
         <v>2006</v>
       </c>
-      <c r="I373" s="2" t="n">
+      <c r="I373" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J373" t="inlineStr"/>
@@ -16957,7 +16987,7 @@
       <c r="H374" t="n">
         <v>2006</v>
       </c>
-      <c r="I374" s="2" t="n">
+      <c r="I374" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J374" t="inlineStr"/>
@@ -17074,7 +17104,7 @@
       <c r="H377" t="n">
         <v>2004</v>
       </c>
-      <c r="I377" s="2" t="n">
+      <c r="I377" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J377" t="n">
@@ -17121,7 +17151,7 @@
       <c r="H378" t="n">
         <v>2006</v>
       </c>
-      <c r="I378" s="2" t="n">
+      <c r="I378" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J378" t="n">
@@ -17336,7 +17366,7 @@
       <c r="H383" t="n">
         <v>2005</v>
       </c>
-      <c r="I383" s="2" t="n">
+      <c r="I383" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J383" t="n">
@@ -17383,7 +17413,7 @@
       <c r="H384" t="n">
         <v>2006</v>
       </c>
-      <c r="I384" s="2" t="n">
+      <c r="I384" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J384" t="n">
@@ -17430,7 +17460,7 @@
       <c r="H385" t="n">
         <v>2005</v>
       </c>
-      <c r="I385" s="2" t="n">
+      <c r="I385" s="1" t="n">
         <v>46385</v>
       </c>
       <c r="J385" t="n">
@@ -17508,7 +17538,7 @@
       <c r="H387" t="n">
         <v>2006</v>
       </c>
-      <c r="I387" s="2" t="n">
+      <c r="I387" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J387" t="n">
@@ -17555,7 +17585,7 @@
       <c r="H388" t="n">
         <v>2007</v>
       </c>
-      <c r="I388" s="2" t="n">
+      <c r="I388" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J388" t="n">
@@ -17602,7 +17632,7 @@
       <c r="H389" t="n">
         <v>2006</v>
       </c>
-      <c r="I389" s="2" t="n">
+      <c r="I389" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J389" t="n">
@@ -17620,19 +17650,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>Parva Liga</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>No team</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
           <t>Bulgaria</t>
@@ -17647,7 +17669,7 @@
       <c r="H390" t="n">
         <v>2008</v>
       </c>
-      <c r="I390" s="2" t="n">
+      <c r="I390" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J390" t="inlineStr"/>
@@ -17688,7 +17710,7 @@
       <c r="H391" t="n">
         <v>2006</v>
       </c>
-      <c r="I391" s="2" t="n">
+      <c r="I391" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J391" t="n">
@@ -17846,7 +17868,7 @@
       <c r="H395" t="n">
         <v>2007</v>
       </c>
-      <c r="I395" s="2" t="n">
+      <c r="I395" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J395" t="n">
@@ -17885,7 +17907,7 @@
       <c r="H396" t="n">
         <v>2005</v>
       </c>
-      <c r="I396" s="2" t="n">
+      <c r="I396" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J396" t="n">
@@ -17932,7 +17954,7 @@
       <c r="H397" t="n">
         <v>2005</v>
       </c>
-      <c r="I397" s="2" t="n">
+      <c r="I397" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J397" t="n">
@@ -17979,7 +18001,7 @@
       <c r="H398" t="n">
         <v>2008</v>
       </c>
-      <c r="I398" s="2" t="n">
+      <c r="I398" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J398" t="n">
@@ -18026,7 +18048,7 @@
       <c r="H399" t="n">
         <v>2008</v>
       </c>
-      <c r="I399" s="2" t="n">
+      <c r="I399" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J399" t="n">
@@ -18071,7 +18093,7 @@
       <c r="H400" t="n">
         <v>2008</v>
       </c>
-      <c r="I400" s="2" t="n">
+      <c r="I400" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J400" t="n">
@@ -18116,7 +18138,7 @@
       <c r="H401" t="n">
         <v>2007</v>
       </c>
-      <c r="I401" s="2" t="n">
+      <c r="I401" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J401" t="inlineStr"/>
@@ -18157,7 +18179,7 @@
       <c r="H402" t="n">
         <v>2006</v>
       </c>
-      <c r="I402" s="2" t="n">
+      <c r="I402" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J402" t="n">
@@ -18204,7 +18226,7 @@
       <c r="H403" t="n">
         <v>2006</v>
       </c>
-      <c r="I403" s="2" t="n">
+      <c r="I403" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J403" t="n">
@@ -18251,7 +18273,7 @@
       <c r="H404" t="n">
         <v>2007</v>
       </c>
-      <c r="I404" s="2" t="n">
+      <c r="I404" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J404" t="n">
@@ -18292,7 +18314,7 @@
       <c r="H405" t="n">
         <v>2006</v>
       </c>
-      <c r="I405" s="2" t="n">
+      <c r="I405" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J405" t="n">
@@ -18337,7 +18359,7 @@
       <c r="H406" t="n">
         <v>2005</v>
       </c>
-      <c r="I406" s="2" t="n">
+      <c r="I406" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J406" t="n">
@@ -18384,7 +18406,7 @@
       <c r="H407" t="n">
         <v>2007</v>
       </c>
-      <c r="I407" s="2" t="n">
+      <c r="I407" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J407" t="n">
@@ -18431,7 +18453,7 @@
       <c r="H408" t="n">
         <v>2006</v>
       </c>
-      <c r="I408" s="2" t="n">
+      <c r="I408" s="1" t="n">
         <v>47848</v>
       </c>
       <c r="J408" t="n">
@@ -18472,7 +18494,7 @@
       <c r="H409" t="n">
         <v>2006</v>
       </c>
-      <c r="I409" s="2" t="n">
+      <c r="I409" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J409" t="n">
@@ -18519,7 +18541,7 @@
       <c r="H410" t="n">
         <v>2006</v>
       </c>
-      <c r="I410" s="2" t="n">
+      <c r="I410" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J410" t="n">
@@ -18566,7 +18588,7 @@
       <c r="H411" t="n">
         <v>2008</v>
       </c>
-      <c r="I411" s="2" t="n">
+      <c r="I411" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J411" t="n">
@@ -18609,7 +18631,7 @@
       <c r="H412" t="n">
         <v>2006</v>
       </c>
-      <c r="I412" s="2" t="n">
+      <c r="I412" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J412" t="n">
@@ -18656,7 +18678,7 @@
       <c r="H413" t="n">
         <v>2008</v>
       </c>
-      <c r="I413" s="2" t="n">
+      <c r="I413" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J413" t="n">
@@ -18748,7 +18770,7 @@
       <c r="H415" t="n">
         <v>2005</v>
       </c>
-      <c r="I415" s="2" t="n">
+      <c r="I415" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J415" t="n">
@@ -18766,17 +18788,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>FC Dila Gori</t>
+          <t>FC Sellier &amp;amp; Bellot Vlašim</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Erovnuli Liga</t>
+          <t>FNL</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -18795,8 +18817,8 @@
       <c r="H416" t="n">
         <v>2006</v>
       </c>
-      <c r="I416" s="2" t="n">
-        <v>46386</v>
+      <c r="I416" s="1" t="n">
+        <v>46203</v>
       </c>
       <c r="J416" t="n">
         <v>320000</v>
@@ -18887,7 +18909,7 @@
       <c r="H418" t="n">
         <v>2008</v>
       </c>
-      <c r="I418" s="2" t="n">
+      <c r="I418" s="1" t="n">
         <v>46763</v>
       </c>
       <c r="J418" t="inlineStr"/>
@@ -18926,7 +18948,7 @@
       <c r="H419" t="n">
         <v>2005</v>
       </c>
-      <c r="I419" s="2" t="n">
+      <c r="I419" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J419" t="n">
@@ -18973,7 +18995,7 @@
       <c r="H420" t="n">
         <v>2009</v>
       </c>
-      <c r="I420" s="2" t="n">
+      <c r="I420" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J420" t="n">
@@ -19059,7 +19081,7 @@
       <c r="H422" t="n">
         <v>2006</v>
       </c>
-      <c r="I422" s="2" t="n">
+      <c r="I422" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J422" t="n">
@@ -19106,7 +19128,7 @@
       <c r="H423" t="n">
         <v>2006</v>
       </c>
-      <c r="I423" s="2" t="n">
+      <c r="I423" s="1" t="n">
         <v>46397</v>
       </c>
       <c r="J423" t="n">
@@ -19153,7 +19175,7 @@
       <c r="H424" t="n">
         <v>2007</v>
       </c>
-      <c r="I424" s="2" t="n">
+      <c r="I424" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J424" t="n">
@@ -19194,7 +19216,7 @@
       <c r="H425" t="n">
         <v>2006</v>
       </c>
-      <c r="I425" s="2" t="n">
+      <c r="I425" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J425" t="n">
@@ -19241,8 +19263,8 @@
       <c r="H426" t="n">
         <v>2008</v>
       </c>
-      <c r="I426" s="2" t="n">
-        <v>46388</v>
+      <c r="I426" s="1" t="n">
+        <v>47118</v>
       </c>
       <c r="J426" t="n">
         <v>320000</v>
@@ -19282,7 +19304,7 @@
       <c r="H427" t="n">
         <v>2005</v>
       </c>
-      <c r="I427" s="2" t="n">
+      <c r="I427" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J427" t="n">
@@ -19323,8 +19345,8 @@
       <c r="H428" t="n">
         <v>2007</v>
       </c>
-      <c r="I428" s="2" t="n">
-        <v>46203</v>
+      <c r="I428" s="1" t="n">
+        <v>46934</v>
       </c>
       <c r="J428" t="n">
         <v>320000</v>
@@ -19368,7 +19390,7 @@
       <c r="H429" t="n">
         <v>2005</v>
       </c>
-      <c r="I429" s="2" t="n">
+      <c r="I429" s="1" t="n">
         <v>46402</v>
       </c>
       <c r="J429" t="n">
@@ -19415,8 +19437,8 @@
       <c r="H430" t="n">
         <v>2008</v>
       </c>
-      <c r="I430" s="2" t="n">
-        <v>46568</v>
+      <c r="I430" s="1" t="n">
+        <v>47664</v>
       </c>
       <c r="J430" t="n">
         <v>370000</v>
@@ -19462,7 +19484,7 @@
       <c r="H431" t="n">
         <v>2006</v>
       </c>
-      <c r="I431" s="2" t="n">
+      <c r="I431" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J431" t="n">
@@ -19503,7 +19525,7 @@
       <c r="H432" t="n">
         <v>2007</v>
       </c>
-      <c r="I432" s="2" t="n">
+      <c r="I432" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J432" t="n">
@@ -19550,7 +19572,7 @@
       <c r="H433" t="n">
         <v>2006</v>
       </c>
-      <c r="I433" s="2" t="n">
+      <c r="I433" s="1" t="n">
         <v>46553</v>
       </c>
       <c r="J433" t="n">
@@ -19626,7 +19648,7 @@
       <c r="H435" t="n">
         <v>2008</v>
       </c>
-      <c r="I435" s="2" t="n">
+      <c r="I435" s="1" t="n">
         <v>46342</v>
       </c>
       <c r="J435" t="inlineStr"/>
@@ -19667,7 +19689,7 @@
       <c r="H436" t="n">
         <v>2006</v>
       </c>
-      <c r="I436" s="2" t="n">
+      <c r="I436" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J436" t="inlineStr"/>
@@ -19679,12 +19701,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CD Tudelano</t>
+          <t>SD Ejea</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Primera Federacion, Group 1</t>
+          <t>Segunda Federación, Group II B</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -19702,7 +19724,7 @@
       <c r="H437" t="n">
         <v>2006</v>
       </c>
-      <c r="I437" s="2" t="n">
+      <c r="I437" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J437" t="inlineStr"/>
@@ -19743,7 +19765,7 @@
       <c r="H438" t="n">
         <v>2005</v>
       </c>
-      <c r="I438" s="2" t="n">
+      <c r="I438" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J438" t="n">
@@ -19790,7 +19812,7 @@
       <c r="H439" t="n">
         <v>2005</v>
       </c>
-      <c r="I439" s="2" t="n">
+      <c r="I439" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J439" t="n">
@@ -19826,7 +19848,9 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="F440" t="inlineStr"/>
+      <c r="F440" t="n">
+        <v>185</v>
+      </c>
       <c r="G440" t="inlineStr">
         <is>
           <t>Right</t>
@@ -19835,7 +19859,7 @@
       <c r="H440" t="n">
         <v>2006</v>
       </c>
-      <c r="I440" s="2" t="n">
+      <c r="I440" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J440" t="n">
@@ -19853,12 +19877,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tromsø IL</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>1st Division</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -19880,7 +19904,9 @@
       <c r="H441" t="n">
         <v>2005</v>
       </c>
-      <c r="I441" t="inlineStr"/>
+      <c r="I441" s="1" t="n">
+        <v>46387</v>
+      </c>
       <c r="J441" t="n">
         <v>260000</v>
       </c>
@@ -19923,7 +19949,7 @@
       <c r="H442" t="n">
         <v>2007</v>
       </c>
-      <c r="I442" s="2" t="n">
+      <c r="I442" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J442" t="inlineStr"/>
@@ -19964,7 +19990,7 @@
       <c r="H443" t="n">
         <v>2005</v>
       </c>
-      <c r="I443" s="2" t="n">
+      <c r="I443" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J443" t="n">
@@ -20011,7 +20037,7 @@
       <c r="H444" t="n">
         <v>2006</v>
       </c>
-      <c r="I444" s="2" t="n">
+      <c r="I444" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J444" t="n">
@@ -20029,12 +20055,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Eidsvold Turn</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>1st Division</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -20058,8 +20084,8 @@
       <c r="H445" t="n">
         <v>2008</v>
       </c>
-      <c r="I445" s="2" t="n">
-        <v>46588</v>
+      <c r="I445" s="1" t="n">
+        <v>46387</v>
       </c>
       <c r="J445" t="n">
         <v>105000</v>
@@ -20105,7 +20131,7 @@
       <c r="H446" t="n">
         <v>2004</v>
       </c>
-      <c r="I446" s="2" t="n">
+      <c r="I446" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J446" t="n">
@@ -20152,7 +20178,7 @@
       <c r="H447" t="n">
         <v>2005</v>
       </c>
-      <c r="I447" s="2" t="n">
+      <c r="I447" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J447" t="n">
@@ -20199,7 +20225,7 @@
       <c r="H448" t="n">
         <v>2006</v>
       </c>
-      <c r="I448" s="2" t="n">
+      <c r="I448" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J448" t="n">
@@ -20246,7 +20272,7 @@
       <c r="H449" t="n">
         <v>2004</v>
       </c>
-      <c r="I449" s="2" t="n">
+      <c r="I449" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J449" t="n">
@@ -20293,7 +20319,7 @@
       <c r="H450" t="n">
         <v>2005</v>
       </c>
-      <c r="I450" s="2" t="n">
+      <c r="I450" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J450" t="n">
@@ -20381,7 +20407,7 @@
       <c r="H452" t="n">
         <v>2007</v>
       </c>
-      <c r="I452" s="2" t="n">
+      <c r="I452" s="1" t="n">
         <v>46965</v>
       </c>
       <c r="J452" t="n">
@@ -20428,7 +20454,7 @@
       <c r="H453" t="n">
         <v>2008</v>
       </c>
-      <c r="I453" s="2" t="n">
+      <c r="I453" s="1" t="n">
         <v>46752</v>
       </c>
       <c r="J453" t="n">
@@ -20475,7 +20501,7 @@
       <c r="H454" t="n">
         <v>2007</v>
       </c>
-      <c r="I454" s="2" t="n">
+      <c r="I454" s="1" t="n">
         <v>46965</v>
       </c>
       <c r="J454" t="n">
@@ -20522,7 +20548,7 @@
       <c r="H455" t="n">
         <v>2005</v>
       </c>
-      <c r="I455" s="2" t="n">
+      <c r="I455" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J455" t="n">
@@ -20563,9 +20589,17 @@
       <c r="H456" t="n">
         <v>2006</v>
       </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="I456" s="1" t="n">
+        <v>46965</v>
+      </c>
+      <c r="J456" t="n">
+        <v>140000</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -20643,7 +20677,7 @@
       <c r="H458" t="n">
         <v>2007</v>
       </c>
-      <c r="I458" s="2" t="n">
+      <c r="I458" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J458" t="n">
@@ -20686,7 +20720,7 @@
       <c r="H459" t="n">
         <v>2006</v>
       </c>
-      <c r="I459" s="2" t="n">
+      <c r="I459" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J459" t="n">
@@ -20733,7 +20767,7 @@
       <c r="H460" t="n">
         <v>2007</v>
       </c>
-      <c r="I460" s="2" t="n">
+      <c r="I460" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J460" t="n">
@@ -20780,7 +20814,7 @@
       <c r="H461" t="n">
         <v>2006</v>
       </c>
-      <c r="I461" s="2" t="n">
+      <c r="I461" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J461" t="n">
@@ -20827,7 +20861,7 @@
       <c r="H462" t="n">
         <v>2006</v>
       </c>
-      <c r="I462" s="2" t="n">
+      <c r="I462" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J462" t="n">
@@ -20874,7 +20908,7 @@
       <c r="H463" t="n">
         <v>2005</v>
       </c>
-      <c r="I463" s="2" t="n">
+      <c r="I463" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J463" t="n">
@@ -20921,7 +20955,7 @@
       <c r="H464" t="n">
         <v>2008</v>
       </c>
-      <c r="I464" s="2" t="n">
+      <c r="I464" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J464" t="n">
@@ -20964,7 +20998,7 @@
       <c r="H465" t="n">
         <v>2008</v>
       </c>
-      <c r="I465" s="2" t="n">
+      <c r="I465" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J465" t="n">
@@ -21042,7 +21076,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Bosnia &amp;amp; Herzegovina</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -21056,7 +21090,7 @@
       <c r="H467" t="n">
         <v>2008</v>
       </c>
-      <c r="I467" s="2" t="n">
+      <c r="I467" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J467" t="n">
@@ -21142,7 +21176,7 @@
       <c r="H469" t="n">
         <v>2007</v>
       </c>
-      <c r="I469" s="2" t="n">
+      <c r="I469" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J469" t="n">
@@ -21189,7 +21223,7 @@
       <c r="H470" t="n">
         <v>2005</v>
       </c>
-      <c r="I470" s="2" t="n">
+      <c r="I470" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J470" t="n">
@@ -21207,12 +21241,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>FC Universitatea Cluj</t>
+          <t>FC Botoșani</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Liga II</t>
+          <t>Superliga</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -21230,8 +21264,8 @@
       <c r="H471" t="n">
         <v>2008</v>
       </c>
-      <c r="I471" s="2" t="n">
-        <v>46568</v>
+      <c r="I471" s="1" t="n">
+        <v>46203</v>
       </c>
       <c r="J471" t="n">
         <v>110000</v>
@@ -21275,7 +21309,7 @@
       <c r="H472" t="n">
         <v>2006</v>
       </c>
-      <c r="I472" s="2" t="n">
+      <c r="I472" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J472" t="n">
@@ -21322,7 +21356,7 @@
       <c r="H473" t="n">
         <v>2007</v>
       </c>
-      <c r="I473" s="2" t="n">
+      <c r="I473" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J473" t="n">
@@ -21509,7 +21543,7 @@
       <c r="H478" t="n">
         <v>2007</v>
       </c>
-      <c r="I478" s="2" t="n">
+      <c r="I478" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J478" t="n">
@@ -21552,7 +21586,7 @@
       <c r="H479" t="n">
         <v>2007</v>
       </c>
-      <c r="I479" s="2" t="n">
+      <c r="I479" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J479" t="n">
@@ -21588,14 +21622,28 @@
           <t>Côte d'Ivoire</t>
         </is>
       </c>
-      <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="F480" t="n">
+        <v>191</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="H480" t="n">
         <v>2005</v>
       </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="I480" s="1" t="n">
+        <v>46934</v>
+      </c>
+      <c r="J480" t="n">
+        <v>660000</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -21628,7 +21676,7 @@
       <c r="H481" t="n">
         <v>2006</v>
       </c>
-      <c r="I481" s="2" t="n">
+      <c r="I481" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J481" t="n">
@@ -21718,7 +21766,7 @@
       <c r="H483" t="n">
         <v>2008</v>
       </c>
-      <c r="I483" s="2" t="n">
+      <c r="I483" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J483" t="n">
@@ -21765,7 +21813,7 @@
       <c r="H484" t="n">
         <v>2006</v>
       </c>
-      <c r="I484" s="2" t="n">
+      <c r="I484" s="1" t="n">
         <v>46904</v>
       </c>
       <c r="J484" t="n">
@@ -21810,7 +21858,7 @@
       <c r="H485" t="n">
         <v>2007</v>
       </c>
-      <c r="I485" s="2" t="n">
+      <c r="I485" s="1" t="n">
         <v>46173</v>
       </c>
       <c r="J485" t="n">
@@ -21857,7 +21905,7 @@
       <c r="H486" t="n">
         <v>2006</v>
       </c>
-      <c r="I486" s="2" t="n">
+      <c r="I486" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J486" t="n">
@@ -21902,7 +21950,7 @@
       <c r="H487" t="n">
         <v>2007</v>
       </c>
-      <c r="I487" s="2" t="n">
+      <c r="I487" s="1" t="n">
         <v>46903</v>
       </c>
       <c r="J487" t="n">
@@ -21965,7 +22013,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NK Domžale</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -21994,8 +22042,8 @@
       <c r="H489" t="n">
         <v>2007</v>
       </c>
-      <c r="I489" s="2" t="n">
-        <v>46081</v>
+      <c r="I489" s="1" t="n">
+        <v>46904</v>
       </c>
       <c r="J489" t="n">
         <v>155000</v>
@@ -22070,7 +22118,7 @@
       <c r="H491" t="n">
         <v>2008</v>
       </c>
-      <c r="I491" s="2" t="n">
+      <c r="I491" s="1" t="n">
         <v>46600</v>
       </c>
       <c r="J491" t="n">
@@ -22109,7 +22157,7 @@
       <c r="H492" t="n">
         <v>2007</v>
       </c>
-      <c r="I492" s="2" t="n">
+      <c r="I492" s="1" t="n">
         <v>46630</v>
       </c>
       <c r="J492" t="n">
@@ -22127,12 +22175,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FK Vojvodina</t>
+          <t>FK Vojvodina U19</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Mozzart Bet Superliga</t>
+          <t>U19 League</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -22156,7 +22204,7 @@
       <c r="H493" t="n">
         <v>2008</v>
       </c>
-      <c r="I493" s="2" t="n">
+      <c r="I493" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J493" t="n">
@@ -22203,7 +22251,7 @@
       <c r="H494" t="n">
         <v>2006</v>
       </c>
-      <c r="I494" s="2" t="n">
+      <c r="I494" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J494" t="n">
@@ -22250,7 +22298,7 @@
       <c r="H495" t="n">
         <v>2008</v>
       </c>
-      <c r="I495" s="2" t="n">
+      <c r="I495" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J495" t="n">
@@ -22297,7 +22345,7 @@
       <c r="H496" t="n">
         <v>2007</v>
       </c>
-      <c r="I496" s="2" t="n">
+      <c r="I496" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J496" t="n">
@@ -22315,19 +22363,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>FK TSC Bačka Topola</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>Mozzart Bet Superliga</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>FK TSC Bačka Topola U19</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
           <t>Serbia</t>
@@ -22344,7 +22384,7 @@
       <c r="H497" t="n">
         <v>2008</v>
       </c>
-      <c r="I497" s="2" t="n">
+      <c r="I497" s="1" t="n">
         <v>46262</v>
       </c>
       <c r="J497" t="inlineStr"/>
@@ -22385,7 +22425,7 @@
       <c r="H498" t="n">
         <v>2007</v>
       </c>
-      <c r="I498" s="2" t="n">
+      <c r="I498" s="1" t="n">
         <v>46726</v>
       </c>
       <c r="J498" t="n">
@@ -22432,7 +22472,7 @@
       <c r="H499" t="n">
         <v>2008</v>
       </c>
-      <c r="I499" s="2" t="n">
+      <c r="I499" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J499" t="n">
@@ -22479,7 +22519,7 @@
       <c r="H500" t="n">
         <v>2006</v>
       </c>
-      <c r="I500" s="2" t="n">
+      <c r="I500" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J500" t="n">
@@ -22526,7 +22566,7 @@
       <c r="H501" t="n">
         <v>2007</v>
       </c>
-      <c r="I501" s="2" t="n">
+      <c r="I501" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J501" t="n">
@@ -22573,7 +22613,7 @@
       <c r="H502" t="n">
         <v>2006</v>
       </c>
-      <c r="I502" s="2" t="n">
+      <c r="I502" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J502" t="n">
@@ -22620,7 +22660,7 @@
       <c r="H503" t="n">
         <v>2005</v>
       </c>
-      <c r="I503" s="2" t="n">
+      <c r="I503" s="1" t="n">
         <v>47118</v>
       </c>
       <c r="J503" t="n">
@@ -22667,7 +22707,7 @@
       <c r="H504" t="n">
         <v>2006</v>
       </c>
-      <c r="I504" s="2" t="n">
+      <c r="I504" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J504" t="n">
@@ -22759,7 +22799,7 @@
       <c r="H506" t="n">
         <v>2005</v>
       </c>
-      <c r="I506" s="2" t="n">
+      <c r="I506" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J506" t="n">
@@ -22806,7 +22846,7 @@
       <c r="H507" t="n">
         <v>2004</v>
       </c>
-      <c r="I507" s="2" t="n">
+      <c r="I507" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J507" t="n">
@@ -22853,7 +22893,7 @@
       <c r="H508" t="n">
         <v>2007</v>
       </c>
-      <c r="I508" s="2" t="n">
+      <c r="I508" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J508" t="n">
@@ -22900,7 +22940,7 @@
       <c r="H509" t="n">
         <v>2003</v>
       </c>
-      <c r="I509" s="2" t="n">
+      <c r="I509" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J509" t="n">
@@ -22947,7 +22987,7 @@
       <c r="H510" t="n">
         <v>2005</v>
       </c>
-      <c r="I510" s="2" t="n">
+      <c r="I510" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J510" t="n">
@@ -22994,7 +23034,7 @@
       <c r="H511" t="n">
         <v>2004</v>
       </c>
-      <c r="I511" s="2" t="n">
+      <c r="I511" s="1" t="n">
         <v>47483</v>
       </c>
       <c r="J511" t="n">
@@ -23037,7 +23077,7 @@
       <c r="H512" t="n">
         <v>2006</v>
       </c>
-      <c r="I512" s="2" t="n">
+      <c r="I512" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J512" t="n">
@@ -23084,7 +23124,7 @@
       <c r="H513" t="n">
         <v>2008</v>
       </c>
-      <c r="I513" s="2" t="n">
+      <c r="I513" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J513" t="inlineStr"/>
@@ -23170,7 +23210,7 @@
       <c r="H515" t="n">
         <v>2004</v>
       </c>
-      <c r="I515" s="2" t="n">
+      <c r="I515" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J515" t="n">
@@ -23290,8 +23330,14 @@
         <v>2006</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>485000</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -23328,7 +23374,7 @@
       <c r="H519" t="n">
         <v>2007</v>
       </c>
-      <c r="I519" s="2" t="n">
+      <c r="I519" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J519" t="n">
@@ -23375,7 +23421,7 @@
       <c r="H520" t="n">
         <v>2004</v>
       </c>
-      <c r="I520" s="2" t="n">
+      <c r="I520" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J520" t="n">
@@ -23434,12 +23480,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Molde FK</t>
+          <t>Brattvåg</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Eliteserien</t>
+          <t>2nd Division, Group 1</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -23463,8 +23509,8 @@
       <c r="H522" t="n">
         <v>2005</v>
       </c>
-      <c r="I522" s="2" t="n">
-        <v>47118</v>
+      <c r="I522" s="1" t="n">
+        <v>46387</v>
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
@@ -23500,7 +23546,7 @@
       <c r="H523" t="n">
         <v>2007</v>
       </c>
-      <c r="I523" s="2" t="n">
+      <c r="I523" s="1" t="n">
         <v>46356</v>
       </c>
       <c r="J523" t="inlineStr"/>
@@ -23582,7 +23628,7 @@
       <c r="H525" t="n">
         <v>2005</v>
       </c>
-      <c r="I525" s="2" t="n">
+      <c r="I525" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J525" t="n">
@@ -23629,7 +23675,7 @@
       <c r="H526" t="n">
         <v>2006</v>
       </c>
-      <c r="I526" s="2" t="n">
+      <c r="I526" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J526" t="n">
@@ -23676,7 +23722,7 @@
       <c r="H527" t="n">
         <v>2006</v>
       </c>
-      <c r="I527" s="2" t="n">
+      <c r="I527" s="1" t="n">
         <v>47664</v>
       </c>
       <c r="J527" t="n">
@@ -23723,7 +23769,7 @@
       <c r="H528" t="n">
         <v>2005</v>
       </c>
-      <c r="I528" s="2" t="n">
+      <c r="I528" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J528" t="n">
@@ -23766,7 +23812,7 @@
       <c r="H529" t="n">
         <v>2006</v>
       </c>
-      <c r="I529" s="2" t="n">
+      <c r="I529" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J529" t="n">
@@ -23809,7 +23855,7 @@
       <c r="H530" t="n">
         <v>2006</v>
       </c>
-      <c r="I530" s="2" t="n">
+      <c r="I530" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J530" t="n">
@@ -23827,7 +23873,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Thróttur Reykjavík</t>
+          <t>ÍBV Vestmannaeyjar</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -23850,9 +23896,7 @@
       <c r="H531" t="n">
         <v>2006</v>
       </c>
-      <c r="I531" s="2" t="n">
-        <v>46387</v>
-      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
         <v>120000</v>
       </c>
@@ -23891,7 +23935,7 @@
       <c r="H532" t="n">
         <v>2008</v>
       </c>
-      <c r="I532" s="2" t="n">
+      <c r="I532" s="1" t="n">
         <v>46387</v>
       </c>
       <c r="J532" t="n">
@@ -23936,7 +23980,7 @@
       <c r="H533" t="n">
         <v>2005</v>
       </c>
-      <c r="I533" s="2" t="n">
+      <c r="I533" s="1" t="n">
         <v>47299</v>
       </c>
       <c r="J533" t="n">
@@ -23983,7 +24027,7 @@
       <c r="H534" t="n">
         <v>2005</v>
       </c>
-      <c r="I534" s="2" t="n">
+      <c r="I534" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J534" t="n">
@@ -24030,7 +24074,7 @@
       <c r="H535" t="n">
         <v>2005</v>
       </c>
-      <c r="I535" s="2" t="n">
+      <c r="I535" s="1" t="n">
         <v>46568</v>
       </c>
       <c r="J535" t="n">
@@ -24110,7 +24154,7 @@
       <c r="H537" t="n">
         <v>2007</v>
       </c>
-      <c r="I537" s="2" t="n">
+      <c r="I537" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J537" t="n">
@@ -24157,7 +24201,7 @@
       <c r="H538" t="n">
         <v>2005</v>
       </c>
-      <c r="I538" s="2" t="n">
+      <c r="I538" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J538" t="n">
@@ -24204,7 +24248,7 @@
       <c r="H539" t="n">
         <v>2008</v>
       </c>
-      <c r="I539" s="2" t="n">
+      <c r="I539" s="1" t="n">
         <v>46203</v>
       </c>
       <c r="J539" t="n">
@@ -24290,7 +24334,7 @@
       <c r="H541" t="n">
         <v>2005</v>
       </c>
-      <c r="I541" s="2" t="n">
+      <c r="I541" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J541" t="n">
@@ -24368,7 +24412,7 @@
       <c r="H543" t="n">
         <v>2005</v>
       </c>
-      <c r="I543" s="2" t="n">
+      <c r="I543" s="1" t="n">
         <v>46934</v>
       </c>
       <c r="J543" t="n">
